--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7354E-7193-4702-B9CE-FDEA19277032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3361026-BDDD-41AF-9EA0-899F32B84F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="3" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -140,12 +140,14 @@
     <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$136</definedName>
     <definedName name="i_sim_periods_year" localSheetId="3">[2]FeedSupply!$P$28</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
-    <definedName name="i_store_feedbud" localSheetId="3">'Report Settings'!$Q$18</definedName>
+    <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
+    <definedName name="i_store_feedbud" localSheetId="3">'Report Settings'!$U$18</definedName>
     <definedName name="i_store_ffcfw_rep">'Report Settings'!$G$18</definedName>
+    <definedName name="i_store_fs_rep" localSheetId="3">'Report Settings'!$M$18</definedName>
     <definedName name="i_store_lw_rep">'Report Settings'!$I$18</definedName>
-    <definedName name="i_store_mort" localSheetId="3">'Report Settings'!$O$18</definedName>
-    <definedName name="i_store_nv_rep">'Report Settings'!$K$18</definedName>
-    <definedName name="i_store_on_hand_mort" localSheetId="3">'Report Settings'!$M$18</definedName>
+    <definedName name="i_store_mort" localSheetId="3">'Report Settings'!$S$18</definedName>
+    <definedName name="i_store_nv_rep">'Report Settings'!$O$18</definedName>
+    <definedName name="i_store_on_hand_mort" localSheetId="3">'Report Settings'!$Q$18</definedName>
     <definedName name="i_transfer_exists_tg1">Stock!$K$119:$N$121</definedName>
     <definedName name="i_use_pkl_condensed_start_condition" localSheetId="2">StructuralSA!$M$125</definedName>
     <definedName name="i_w_pos">Stock!$I$56</definedName>
@@ -184,7 +186,7 @@
     <definedName name="ZA.WidthCol" localSheetId="4">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="4">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -192,7 +194,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2222,7 +2226,7 @@
     <author>John</author>
   </authors>
   <commentList>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{2E84FAC6-A425-42D0-899A-CA98558F543C}">
+    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{2E84FAC6-A425-42D0-899A-CA98558F543C}">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="391">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3533,6 +3537,18 @@
 25Apr21: Moved inputs from Property.xlsx
                    Moved FVP &amp; N inputs from Stock
 1: 1Apr19-Created the version control table</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>store fat score</t>
+  </si>
+  <si>
+    <t>store condition score</t>
   </si>
 </sst>
 </file>
@@ -27769,7 +27785,7 @@
   </sheetPr>
   <dimension ref="A1:AB175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" ySplit="10" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
@@ -29479,19 +29495,19 @@
         <v>43485</v>
       </c>
       <c r="S45" s="204">
-        <f>MIN(364,INT((O45 - DATE(YEAR(O45),1,1))))</f>
+        <f t="shared" ref="S45:V47" si="2">MIN(364,INT((O45 - DATE(YEAR(O45),1,1))))</f>
         <v>288</v>
       </c>
       <c r="T45" s="204">
-        <f>MIN(364,INT((P45 - DATE(YEAR(P45),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>319</v>
       </c>
       <c r="U45" s="204">
-        <f>MIN(364,INT((Q45 - DATE(YEAR(Q45),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="V45" s="204">
-        <f>MIN(364,INT((R45 - DATE(YEAR(R45),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="W45" s="2"/>
@@ -29524,11 +29540,11 @@
       <c r="M46" s="211"/>
       <c r="N46" s="211"/>
       <c r="O46" s="203">
-        <f t="shared" ref="O46:O47" si="2">$K46+91+126/2</f>
+        <f t="shared" ref="O46:O47" si="3">$K46+91+126/2</f>
         <v>43788</v>
       </c>
       <c r="P46" s="203">
-        <f t="shared" ref="P46:P47" si="3">O46+126/4</f>
+        <f t="shared" ref="P46:P47" si="4">O46+126/4</f>
         <v>43819.5</v>
       </c>
       <c r="Q46" s="203">
@@ -29536,23 +29552,23 @@
         <v>43613</v>
       </c>
       <c r="R46" s="203">
-        <f t="shared" ref="R46:R47" si="4">$K46-150+35</f>
+        <f t="shared" ref="R46:R47" si="5">$K46-150+35</f>
         <v>43519</v>
       </c>
       <c r="S46" s="204">
-        <f>MIN(364,INT((O46 - DATE(YEAR(O46),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="T46" s="204">
-        <f>MIN(364,INT((P46 - DATE(YEAR(P46),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>353</v>
       </c>
       <c r="U46" s="204">
-        <f>MIN(364,INT((Q46 - DATE(YEAR(Q46),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="V46" s="204">
-        <f>MIN(364,INT((R46 - DATE(YEAR(R46),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="W46" s="2"/>
@@ -29585,11 +29601,11 @@
       <c r="M47" s="211"/>
       <c r="N47" s="211"/>
       <c r="O47" s="203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43823</v>
       </c>
       <c r="P47" s="203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43854.5</v>
       </c>
       <c r="Q47" s="203">
@@ -29597,23 +29613,23 @@
         <v>43648</v>
       </c>
       <c r="R47" s="203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43554</v>
       </c>
       <c r="S47" s="204">
-        <f>MIN(364,INT((O47 - DATE(YEAR(O47),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>357</v>
       </c>
       <c r="T47" s="204">
-        <f>MIN(364,INT((P47 - DATE(YEAR(P47),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="U47" s="204">
-        <f>MIN(364,INT((Q47 - DATE(YEAR(Q47),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="V47" s="204">
-        <f>MIN(364,INT((R47 - DATE(YEAR(R47),1,1))))</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="W47" s="2"/>
@@ -29904,11 +29920,11 @@
         <v>13</v>
       </c>
       <c r="Q54" s="204">
-        <f t="shared" ref="Q54:Q56" si="5">MIN(364,INT((N54 - DATE(YEAR(N54),1,1))))</f>
+        <f t="shared" ref="Q54:Q56" si="6">MIN(364,INT((N54 - DATE(YEAR(N54),1,1))))</f>
         <v>134</v>
       </c>
       <c r="R54" s="204">
-        <f t="shared" ref="R54:R56" si="6">MIN(364,INT((O54 - DATE(YEAR(O54),1,1))))</f>
+        <f t="shared" ref="R54:R56" si="7">MIN(364,INT((O54 - DATE(YEAR(O54),1,1))))</f>
         <v>255</v>
       </c>
       <c r="S54" s="2"/>
@@ -29951,11 +29967,11 @@
         <v>43</v>
       </c>
       <c r="Q55" s="204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="R55" s="204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>285</v>
       </c>
       <c r="S55" s="2"/>
@@ -29998,11 +30014,11 @@
         <v>74</v>
       </c>
       <c r="Q56" s="204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="R56" s="204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>316</v>
       </c>
       <c r="S56" s="2"/>
@@ -31332,7 +31348,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
-        <f t="shared" ref="C91:C94" si="7">INT(C$68+3)</f>
+        <f t="shared" ref="C91:C94" si="8">INT(C$68+3)</f>
         <v>4</v>
       </c>
       <c r="D91" s="4"/>
@@ -31381,7 +31397,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D92" s="4"/>
@@ -31430,7 +31446,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D93" s="4"/>
@@ -31479,7 +31495,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D94" s="4"/>
@@ -31696,7 +31712,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
-        <f t="shared" ref="C99:C102" si="8">INT($C$68)+3</f>
+        <f t="shared" ref="C99:C102" si="9">INT($C$68)+3</f>
         <v>4</v>
       </c>
       <c r="D99" s="4"/>
@@ -31757,7 +31773,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D100" s="4"/>
@@ -31810,7 +31826,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D101" s="4"/>
@@ -31863,7 +31879,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D102" s="4"/>
@@ -33029,7 +33045,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
-        <f t="shared" ref="C134:C136" si="9">INT(C$112+3)</f>
+        <f t="shared" ref="C134:C136" si="10">INT(C$112+3)</f>
         <v>4</v>
       </c>
       <c r="D134" s="4"/>
@@ -33068,7 +33084,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D135" s="4"/>
@@ -33107,7 +33123,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D136" s="4"/>
@@ -34517,8 +34533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3626F-D681-4ABD-B02A-5C870438CFCF}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -34970,24 +34986,27 @@
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
+        <v>387</v>
+      </c>
+      <c r="L16" s="192"/>
+      <c r="M16" s="193" t="s">
+        <v>388</v>
+      </c>
+      <c r="O16" s="193" t="s">
         <v>356</v>
       </c>
-      <c r="L16" s="191"/>
-      <c r="M16" s="193" t="s">
+      <c r="P16" s="191"/>
+      <c r="Q16" s="193" t="s">
         <v>357</v>
       </c>
-      <c r="N16" s="191"/>
-      <c r="O16" s="193" t="s">
+      <c r="R16" s="191"/>
+      <c r="S16" s="193" t="s">
         <v>358</v>
       </c>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="193" t="s">
+      <c r="T16" s="192"/>
+      <c r="U16" s="193" t="s">
         <v>363</v>
       </c>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192"/>
       <c r="V16" s="190"/>
       <c r="W16" s="176"/>
       <c r="X16" s="168"/>
@@ -35010,24 +35029,27 @@
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
+        <v>390</v>
+      </c>
+      <c r="L17" s="192"/>
+      <c r="M17" s="191" t="s">
+        <v>389</v>
+      </c>
+      <c r="O17" s="191" t="s">
         <v>360</v>
       </c>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191" t="s">
+      <c r="P17" s="191"/>
+      <c r="Q17" s="191" t="s">
         <v>361</v>
       </c>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191" t="s">
+      <c r="R17" s="191"/>
+      <c r="S17" s="191" t="s">
         <v>362</v>
       </c>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="191" t="s">
+      <c r="T17" s="192"/>
+      <c r="U17" s="191" t="s">
         <v>364</v>
       </c>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
       <c r="V17" s="190"/>
       <c r="W17" s="176"/>
       <c r="X17" s="168"/>
@@ -35051,22 +35073,25 @@
       <c r="K18" s="195" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="191"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="195" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="191"/>
+        <v>1</v>
+      </c>
       <c r="O18" s="195" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="192"/>
+      <c r="P18" s="191"/>
       <c r="Q18" s="195" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="191"/>
+      <c r="S18" s="195" t="b">
+        <v>0</v>
+      </c>
       <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
+      <c r="U18" s="195" t="b">
+        <v>1</v>
+      </c>
       <c r="V18" s="190"/>
       <c r="W18" s="176"/>
       <c r="X18" s="168"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3361026-BDDD-41AF-9EA0-899F32B84F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D209B64-8C0D-4B3F-8296-6FE455BFBDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="3" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="grazing_int" localSheetId="0">General!$I$49:$L$49</definedName>
     <definedName name="i_a0_pos">Stock!$I$43</definedName>
     <definedName name="i_a1_pos">Stock!$I$44</definedName>
-    <definedName name="i_a2_idx" localSheetId="0">General!$M$80</definedName>
+    <definedName name="i_a2_idx" localSheetId="0">General!$N$80</definedName>
     <definedName name="i_adjp_cfw_initial_w0" localSheetId="2">StructuralSA!$K$99</definedName>
     <definedName name="i_adjp_cfw_initial_w1" localSheetId="2">StructuralSA!$P$99:$P$101</definedName>
     <definedName name="i_adjp_cfw_initial_w3" localSheetId="2">StructuralSA!$U$99:$U$101</definedName>
@@ -83,12 +83,13 @@
     <definedName name="i_fvp_mask_dams">StructuralSA!$N$43:$R$43</definedName>
     <definedName name="i_fvp_mask_offs">StructuralSA!$J$52:$O$52</definedName>
     <definedName name="i_generate_with_t" localSheetId="2">StructuralSA!$P$121</definedName>
-    <definedName name="i_history4_req" localSheetId="0">General!$Q$80:$Q$115</definedName>
+    <definedName name="i_history4_req" localSheetId="0">General!$R$80:$R$115</definedName>
     <definedName name="i_i_pos">Stock!$I$50</definedName>
-    <definedName name="i_idx_k" localSheetId="0">General!$O$80:$O$115</definedName>
+    <definedName name="i_idx_k" localSheetId="0">General!$P$80:$P$115</definedName>
     <definedName name="i_idx_k1" localSheetId="0">General!$I$80:$I$96</definedName>
-    <definedName name="i_idx_k2" localSheetId="0">General!$K$80:$K$98</definedName>
+    <definedName name="i_idx_k2" localSheetId="0">General!$L$80:$L$98</definedName>
     <definedName name="i_initial_b1">Stock!$L$155:$V$155</definedName>
+    <definedName name="i_is_baled_k" localSheetId="0">General!$J$80:$J$96</definedName>
     <definedName name="i_is_dry_b1">Stock!$L$149:$V$149</definedName>
     <definedName name="i_k2_idx_dams">Stock!$L$202:$V$204</definedName>
     <definedName name="i_k2_pos">Stock!$I$51</definedName>
@@ -97,7 +98,7 @@
     <definedName name="i_k5_pos">Stock!$I$53</definedName>
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
-    <definedName name="i_landuse_is_dual" localSheetId="0">General!$P$80:$P$115</definedName>
+    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$80:$Q$115</definedName>
     <definedName name="i_len_f">StructuralSA!$I$157</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
@@ -401,7 +402,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="M79" authorId="0" shapeId="0" xr:uid="{40DF5727-F08F-40E0-9958-8A507CE17D1A}">
+    <comment ref="J79" authorId="0" shapeId="0" xr:uid="{FDA4D9B5-6EAD-41B3-8D7C-2C4ABEDC1C1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+is this landuse baled usually (all landuses can be tactically baled but this is to tell AFO which landuses are meant to be baled i.e. which landuses have yields that are entered at baled)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N79" authorId="0" shapeId="0" xr:uid="{40DF5727-F08F-40E0-9958-8A507CE17D1A}">
       <text>
         <r>
           <rPr>
@@ -425,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q79" authorId="0" shapeId="0" xr:uid="{88CDE5B0-F826-4C1C-BBBC-47E28308B927}">
+    <comment ref="R79" authorId="0" shapeId="0" xr:uid="{88CDE5B0-F826-4C1C-BBBC-47E28308B927}">
       <text>
         <r>
           <rPr>
@@ -2255,7 +2280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="392">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3550,6 +3575,9 @@
   <si>
     <t>store condition score</t>
   </si>
+  <si>
+    <t>is baled</t>
+  </si>
 </sst>
 </file>
 
@@ -3561,7 +3589,7 @@
     <numFmt numFmtId="166" formatCode="0.00_)"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3780,6 +3808,19 @@
       <color rgb="FF0000CC"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -7232,12 +7273,12 @@
   </sheetPr>
   <dimension ref="A1:AT128"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="M80" sqref="M80"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -7496,7 +7537,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -7535,7 +7576,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -7568,7 +7609,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -7605,7 +7646,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -7751,7 +7792,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -7790,7 +7831,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -7825,7 +7866,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -7860,7 +7901,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -7907,7 +7948,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -7944,7 +7985,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -7981,7 +8022,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -8018,7 +8059,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -8055,7 +8096,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -8090,7 +8131,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -10092,25 +10133,27 @@
       <c r="I79" s="161" t="s">
         <v>312</v>
       </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="161" t="s">
+      <c r="J79" s="161" t="s">
+        <v>391</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="161" t="s">
         <v>313</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="161" t="s">
+      <c r="M79" s="2"/>
+      <c r="N79" s="161" t="s">
         <v>377</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="161" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="161" t="s">
         <v>314</v>
       </c>
-      <c r="P79" s="161" t="s">
+      <c r="Q79" s="161" t="s">
         <v>375</v>
       </c>
-      <c r="Q79" s="161" t="s">
+      <c r="R79" s="161" t="s">
         <v>376</v>
       </c>
-      <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
@@ -10137,26 +10180,28 @@
       <c r="I80" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="J80" s="165"/>
-      <c r="K80" s="162" t="s">
+      <c r="J80" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="55"/>
+      <c r="L80" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="L80" s="165"/>
-      <c r="M80" s="210" t="s">
+      <c r="M80" s="165"/>
+      <c r="N80" s="210" t="s">
         <v>374</v>
       </c>
-      <c r="N80" s="165"/>
-      <c r="O80" s="162" t="s">
+      <c r="O80" s="165"/>
+      <c r="P80" s="162" t="s">
         <v>316</v>
       </c>
-      <c r="P80" s="162" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="206" t="str">
-        <f>O80</f>
+      <c r="Q80" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" s="206" t="str">
+        <f>P80</f>
         <v>a</v>
       </c>
-      <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -10180,24 +10225,26 @@
       <c r="I81" s="163" t="s">
         <v>317</v>
       </c>
-      <c r="J81" s="165"/>
-      <c r="K81" s="163" t="s">
+      <c r="J81" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="55"/>
+      <c r="L81" s="163" t="s">
         <v>318</v>
       </c>
-      <c r="L81" s="165"/>
-      <c r="M81" s="209"/>
-      <c r="N81" s="165"/>
-      <c r="O81" s="163" t="s">
+      <c r="M81" s="165"/>
+      <c r="N81" s="209"/>
+      <c r="O81" s="165"/>
+      <c r="P81" s="163" t="s">
         <v>318</v>
       </c>
-      <c r="P81" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="207" t="str">
-        <f t="shared" ref="Q81:Q115" si="4">O81</f>
+      <c r="Q81" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R81" s="207" t="str">
+        <f t="shared" ref="R81:R115" si="4">P81</f>
         <v>ar</v>
       </c>
-      <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -10221,24 +10268,26 @@
       <c r="I82" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="J82" s="165"/>
-      <c r="K82" s="163" t="s">
+      <c r="J82" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="55"/>
+      <c r="L82" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="L82" s="165"/>
       <c r="M82" s="165"/>
       <c r="N82" s="165"/>
-      <c r="O82" s="163" t="s">
+      <c r="O82" s="165"/>
+      <c r="P82" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="P82" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="207" t="str">
+      <c r="Q82" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R82" s="207" t="str">
         <f t="shared" si="4"/>
         <v>a2</v>
       </c>
-      <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
@@ -10262,24 +10311,26 @@
       <c r="I83" s="163" t="s">
         <v>321</v>
       </c>
-      <c r="J83" s="165"/>
-      <c r="K83" s="163" t="s">
+      <c r="J83" s="163" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" s="55"/>
+      <c r="L83" s="163" t="s">
         <v>320</v>
       </c>
-      <c r="L83" s="165"/>
       <c r="M83" s="165"/>
       <c r="N83" s="165"/>
-      <c r="O83" s="163" t="s">
+      <c r="O83" s="165"/>
+      <c r="P83" s="163" t="s">
         <v>315</v>
       </c>
-      <c r="P83" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="207" t="str">
+      <c r="Q83" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" s="207" t="str">
         <f t="shared" si="4"/>
         <v>b</v>
       </c>
-      <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
@@ -10303,24 +10354,26 @@
       <c r="I84" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="J84" s="165"/>
-      <c r="K84" s="163" t="s">
+      <c r="J84" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="55"/>
+      <c r="L84" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="L84" s="165"/>
       <c r="M84" s="165"/>
       <c r="N84" s="165"/>
-      <c r="O84" s="163" t="s">
+      <c r="O84" s="165"/>
+      <c r="P84" s="163" t="s">
         <v>317</v>
       </c>
-      <c r="P84" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="207" t="str">
+      <c r="Q84" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" s="207" t="str">
         <f t="shared" si="4"/>
         <v>bd</v>
       </c>
-      <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
@@ -10344,24 +10397,26 @@
       <c r="I85" s="163" t="s">
         <v>325</v>
       </c>
-      <c r="J85" s="165"/>
-      <c r="K85" s="163" t="s">
+      <c r="J85" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" s="55"/>
+      <c r="L85" s="163" t="s">
         <v>324</v>
       </c>
-      <c r="L85" s="165"/>
       <c r="M85" s="165"/>
       <c r="N85" s="165"/>
-      <c r="O85" s="163" t="s">
+      <c r="O85" s="165"/>
+      <c r="P85" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="P85" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="207" t="str">
+      <c r="Q85" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" s="207" t="str">
         <f t="shared" si="4"/>
         <v>f</v>
       </c>
-      <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
@@ -10385,24 +10440,26 @@
       <c r="I86" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="J86" s="165"/>
-      <c r="K86" s="163" t="s">
+      <c r="J86" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="55"/>
+      <c r="L86" s="163" t="s">
         <v>326</v>
       </c>
-      <c r="L86" s="165"/>
       <c r="M86" s="165"/>
       <c r="N86" s="165"/>
-      <c r="O86" s="163" t="s">
+      <c r="O86" s="165"/>
+      <c r="P86" s="163" t="s">
         <v>321</v>
       </c>
-      <c r="P86" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="207" t="str">
+      <c r="Q86" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R86" s="207" t="str">
         <f t="shared" si="4"/>
         <v>h</v>
       </c>
-      <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -10426,24 +10483,26 @@
       <c r="I87" s="163" t="s">
         <v>329</v>
       </c>
-      <c r="J87" s="165"/>
-      <c r="K87" s="163" t="s">
+      <c r="J87" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="55"/>
+      <c r="L87" s="163" t="s">
         <v>328</v>
       </c>
-      <c r="L87" s="165"/>
       <c r="M87" s="165"/>
       <c r="N87" s="165"/>
-      <c r="O87" s="163" t="s">
+      <c r="O87" s="165"/>
+      <c r="P87" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="P87" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="207" t="str">
+      <c r="Q87" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" s="207" t="str">
         <f t="shared" si="4"/>
         <v>i</v>
       </c>
-      <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
@@ -10467,24 +10526,26 @@
       <c r="I88" s="163" t="s">
         <v>331</v>
       </c>
-      <c r="J88" s="165"/>
-      <c r="K88" s="163" t="s">
+      <c r="J88" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="55"/>
+      <c r="L88" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="L88" s="165"/>
       <c r="M88" s="165"/>
       <c r="N88" s="165"/>
-      <c r="O88" s="163" t="s">
+      <c r="O88" s="165"/>
+      <c r="P88" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="P88" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="207" t="str">
+      <c r="Q88" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R88" s="207" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
@@ -10508,24 +10569,26 @@
       <c r="I89" s="163" t="s">
         <v>333</v>
       </c>
-      <c r="J89" s="165"/>
-      <c r="K89" s="163" t="s">
+      <c r="J89" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" s="55"/>
+      <c r="L89" s="163" t="s">
         <v>330</v>
       </c>
-      <c r="L89" s="165"/>
       <c r="M89" s="165"/>
       <c r="N89" s="165"/>
-      <c r="O89" s="163" t="s">
+      <c r="O89" s="165"/>
+      <c r="P89" s="163" t="s">
         <v>324</v>
       </c>
-      <c r="P89" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="207" t="str">
+      <c r="Q89" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" s="207" t="str">
         <f t="shared" si="4"/>
         <v>jc</v>
       </c>
-      <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
@@ -10549,24 +10612,26 @@
       <c r="I90" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="J90" s="165"/>
-      <c r="K90" s="163" t="s">
+      <c r="J90" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="55"/>
+      <c r="L90" s="163" t="s">
         <v>332</v>
       </c>
-      <c r="L90" s="165"/>
       <c r="M90" s="165"/>
       <c r="N90" s="165"/>
-      <c r="O90" s="163" t="s">
+      <c r="O90" s="165"/>
+      <c r="P90" s="163" t="s">
         <v>326</v>
       </c>
-      <c r="P90" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="207" t="str">
+      <c r="Q90" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" s="207" t="str">
         <f t="shared" si="4"/>
         <v>jr</v>
       </c>
-      <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
@@ -10590,24 +10655,26 @@
       <c r="I91" s="163" t="s">
         <v>337</v>
       </c>
-      <c r="J91" s="165"/>
-      <c r="K91" s="163" t="s">
+      <c r="J91" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="55"/>
+      <c r="L91" s="163" t="s">
         <v>334</v>
       </c>
-      <c r="L91" s="165"/>
       <c r="M91" s="165"/>
       <c r="N91" s="165"/>
-      <c r="O91" s="163" t="s">
+      <c r="O91" s="165"/>
+      <c r="P91" s="163" t="s">
         <v>325</v>
       </c>
-      <c r="P91" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="207" t="str">
+      <c r="Q91" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" s="207" t="str">
         <f t="shared" si="4"/>
         <v>k</v>
       </c>
-      <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
@@ -10631,24 +10698,26 @@
       <c r="I92" s="163" t="s">
         <v>339</v>
       </c>
-      <c r="J92" s="165"/>
-      <c r="K92" s="163" t="s">
+      <c r="J92" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="55"/>
+      <c r="L92" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="L92" s="165"/>
       <c r="M92" s="165"/>
       <c r="N92" s="165"/>
-      <c r="O92" s="163" t="s">
+      <c r="O92" s="165"/>
+      <c r="P92" s="163" t="s">
         <v>327</v>
       </c>
-      <c r="P92" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="207" t="str">
+      <c r="Q92" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" s="207" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
@@ -10672,24 +10741,26 @@
       <c r="I93" s="163" t="s">
         <v>341</v>
       </c>
-      <c r="J93" s="165"/>
-      <c r="K93" s="163" t="s">
+      <c r="J93" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" s="55"/>
+      <c r="L93" s="163" t="s">
         <v>338</v>
       </c>
-      <c r="L93" s="165"/>
       <c r="M93" s="165"/>
       <c r="N93" s="165"/>
-      <c r="O93" s="163" t="s">
+      <c r="O93" s="165"/>
+      <c r="P93" s="163" t="s">
         <v>320</v>
       </c>
-      <c r="P93" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="207" t="str">
+      <c r="Q93" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R93" s="207" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
@@ -10713,24 +10784,26 @@
       <c r="I94" s="163" t="s">
         <v>343</v>
       </c>
-      <c r="J94" s="165"/>
-      <c r="K94" s="163" t="s">
+      <c r="J94" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" s="55"/>
+      <c r="L94" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="L94" s="165"/>
       <c r="M94" s="165"/>
       <c r="N94" s="165"/>
-      <c r="O94" s="163" t="s">
+      <c r="O94" s="165"/>
+      <c r="P94" s="163" t="s">
         <v>329</v>
       </c>
-      <c r="P94" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="207" t="str">
+      <c r="Q94" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" s="207" t="str">
         <f t="shared" si="4"/>
         <v>o</v>
       </c>
-      <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -10754,24 +10827,26 @@
       <c r="I95" s="163" t="s">
         <v>345</v>
       </c>
-      <c r="J95" s="165"/>
-      <c r="K95" s="163" t="s">
+      <c r="J95" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" s="55"/>
+      <c r="L95" s="163" t="s">
         <v>342</v>
       </c>
-      <c r="L95" s="165"/>
       <c r="M95" s="165"/>
       <c r="N95" s="165"/>
-      <c r="O95" s="163" t="s">
+      <c r="O95" s="165"/>
+      <c r="P95" s="163" t="s">
         <v>331</v>
       </c>
-      <c r="P95" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="207" t="str">
+      <c r="Q95" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R95" s="207" t="str">
         <f t="shared" si="4"/>
         <v>od</v>
       </c>
-      <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
@@ -10795,24 +10870,26 @@
       <c r="I96" s="164" t="s">
         <v>347</v>
       </c>
-      <c r="J96" s="165"/>
-      <c r="K96" s="163" t="s">
+      <c r="J96" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" s="55"/>
+      <c r="L96" s="163" t="s">
         <v>344</v>
       </c>
-      <c r="L96" s="165"/>
       <c r="M96" s="165"/>
       <c r="N96" s="165"/>
-      <c r="O96" s="163" t="s">
+      <c r="O96" s="165"/>
+      <c r="P96" s="163" t="s">
         <v>333</v>
       </c>
-      <c r="P96" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="207" t="str">
+      <c r="Q96" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R96" s="207" t="str">
         <f t="shared" si="4"/>
         <v>of</v>
       </c>
-      <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
@@ -10834,24 +10911,24 @@
       <c r="G97" s="4"/>
       <c r="H97" s="2"/>
       <c r="I97" s="53"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="163" t="s">
+      <c r="J97" s="53"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="163" t="s">
         <v>346</v>
       </c>
-      <c r="L97" s="165"/>
       <c r="M97" s="165"/>
       <c r="N97" s="165"/>
-      <c r="O97" s="163" t="s">
+      <c r="O97" s="165"/>
+      <c r="P97" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="P97" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="207" t="str">
+      <c r="Q97" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R97" s="207" t="str">
         <f t="shared" si="4"/>
         <v>r</v>
       </c>
-      <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
@@ -10874,23 +10951,23 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="164" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="164" t="s">
         <v>348</v>
       </c>
-      <c r="L98" s="148"/>
       <c r="M98" s="148"/>
       <c r="N98" s="148"/>
-      <c r="O98" s="163" t="s">
+      <c r="O98" s="148"/>
+      <c r="P98" s="163" t="s">
         <v>337</v>
       </c>
-      <c r="P98" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="207" t="str">
+      <c r="Q98" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R98" s="207" t="str">
         <f t="shared" si="4"/>
         <v>rd</v>
       </c>
-      <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
@@ -10913,21 +10990,21 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="148"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="53"/>
       <c r="M99" s="148"/>
       <c r="N99" s="148"/>
-      <c r="O99" s="163" t="s">
+      <c r="O99" s="148"/>
+      <c r="P99" s="163" t="s">
         <v>328</v>
       </c>
-      <c r="P99" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="207" t="str">
+      <c r="Q99" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="207" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
@@ -10950,21 +11027,21 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="148"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="53"/>
       <c r="M100" s="148"/>
       <c r="N100" s="148"/>
-      <c r="O100" s="163" t="s">
+      <c r="O100" s="148"/>
+      <c r="P100" s="163" t="s">
         <v>366</v>
       </c>
-      <c r="P100" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="207" t="str">
+      <c r="Q100" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" s="207" t="str">
         <f t="shared" si="4"/>
         <v>sp</v>
       </c>
-      <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
@@ -10988,20 +11065,20 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="148"/>
+      <c r="L101" s="2"/>
       <c r="M101" s="148"/>
       <c r="N101" s="148"/>
-      <c r="O101" s="163" t="s">
+      <c r="O101" s="148"/>
+      <c r="P101" s="163" t="s">
         <v>330</v>
       </c>
-      <c r="P101" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="207" t="str">
+      <c r="Q101" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R101" s="207" t="str">
         <f t="shared" si="4"/>
         <v>sr</v>
       </c>
-      <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
@@ -11025,20 +11102,20 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="148"/>
+      <c r="L102" s="2"/>
       <c r="M102" s="148"/>
       <c r="N102" s="148"/>
-      <c r="O102" s="163" t="s">
+      <c r="O102" s="148"/>
+      <c r="P102" s="163" t="s">
         <v>332</v>
       </c>
-      <c r="P102" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="207" t="str">
+      <c r="Q102" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R102" s="207" t="str">
         <f t="shared" si="4"/>
         <v>t</v>
       </c>
-      <c r="R102" s="2"/>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
@@ -11062,20 +11139,20 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="148"/>
+      <c r="L103" s="2"/>
       <c r="M103" s="148"/>
       <c r="N103" s="148"/>
-      <c r="O103" s="163" t="s">
+      <c r="O103" s="148"/>
+      <c r="P103" s="163" t="s">
         <v>334</v>
       </c>
-      <c r="P103" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="207" t="str">
+      <c r="Q103" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="207" t="str">
         <f t="shared" si="4"/>
         <v>tc</v>
       </c>
-      <c r="R103" s="2"/>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
@@ -11099,20 +11176,20 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="148"/>
+      <c r="L104" s="2"/>
       <c r="M104" s="148"/>
       <c r="N104" s="148"/>
-      <c r="O104" s="163" t="s">
+      <c r="O104" s="148"/>
+      <c r="P104" s="163" t="s">
         <v>336</v>
       </c>
-      <c r="P104" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="207" t="str">
+      <c r="Q104" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" s="207" t="str">
         <f t="shared" si="4"/>
         <v>tr</v>
       </c>
-      <c r="R104" s="2"/>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -11136,20 +11213,20 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="148"/>
+      <c r="L105" s="2"/>
       <c r="M105" s="148"/>
       <c r="N105" s="148"/>
-      <c r="O105" s="163" t="s">
+      <c r="O105" s="148"/>
+      <c r="P105" s="163" t="s">
         <v>338</v>
       </c>
-      <c r="P105" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="207" t="str">
+      <c r="Q105" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" s="207" t="str">
         <f t="shared" si="4"/>
         <v>u</v>
       </c>
-      <c r="R105" s="2"/>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
@@ -11173,20 +11250,20 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="148"/>
+      <c r="L106" s="2"/>
       <c r="M106" s="148"/>
       <c r="N106" s="148"/>
-      <c r="O106" s="163" t="s">
+      <c r="O106" s="148"/>
+      <c r="P106" s="163" t="s">
         <v>340</v>
       </c>
-      <c r="P106" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="207" t="str">
+      <c r="Q106" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" s="207" t="str">
         <f t="shared" si="4"/>
         <v>uc</v>
       </c>
-      <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
@@ -11210,20 +11287,20 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="148"/>
+      <c r="L107" s="2"/>
       <c r="M107" s="148"/>
       <c r="N107" s="148"/>
-      <c r="O107" s="163" t="s">
+      <c r="O107" s="148"/>
+      <c r="P107" s="163" t="s">
         <v>342</v>
       </c>
-      <c r="P107" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="207" t="str">
+      <c r="Q107" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="207" t="str">
         <f t="shared" si="4"/>
         <v>ur</v>
       </c>
-      <c r="R107" s="2"/>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
@@ -11247,20 +11324,20 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="148"/>
+      <c r="L108" s="2"/>
       <c r="M108" s="148"/>
       <c r="N108" s="148"/>
-      <c r="O108" s="163" t="s">
+      <c r="O108" s="148"/>
+      <c r="P108" s="163" t="s">
         <v>339</v>
       </c>
-      <c r="P108" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="207" t="str">
+      <c r="Q108" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R108" s="207" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="R108" s="2"/>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
@@ -11284,20 +11361,20 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="148"/>
+      <c r="L109" s="2"/>
       <c r="M109" s="148"/>
       <c r="N109" s="148"/>
-      <c r="O109" s="163" t="s">
+      <c r="O109" s="148"/>
+      <c r="P109" s="163" t="s">
         <v>341</v>
       </c>
-      <c r="P109" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="207" t="str">
+      <c r="Q109" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R109" s="207" t="str">
         <f t="shared" si="4"/>
         <v>w</v>
       </c>
-      <c r="R109" s="2"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -11321,20 +11398,20 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="148"/>
+      <c r="L110" s="2"/>
       <c r="M110" s="148"/>
       <c r="N110" s="148"/>
-      <c r="O110" s="163" t="s">
+      <c r="O110" s="148"/>
+      <c r="P110" s="163" t="s">
         <v>343</v>
       </c>
-      <c r="P110" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="207" t="str">
+      <c r="Q110" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R110" s="207" t="str">
         <f t="shared" si="4"/>
         <v>wd</v>
       </c>
-      <c r="R110" s="2"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -11361,20 +11438,20 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="148"/>
+      <c r="L111" s="2"/>
       <c r="M111" s="148"/>
       <c r="N111" s="148"/>
-      <c r="O111" s="163" t="s">
+      <c r="O111" s="148"/>
+      <c r="P111" s="163" t="s">
         <v>344</v>
       </c>
-      <c r="P111" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="207" t="str">
+      <c r="Q111" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R111" s="207" t="str">
         <f t="shared" si="4"/>
         <v>x</v>
       </c>
-      <c r="R111" s="2"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
@@ -11401,20 +11478,20 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="148"/>
+      <c r="L112" s="2"/>
       <c r="M112" s="148"/>
       <c r="N112" s="148"/>
-      <c r="O112" s="163" t="s">
+      <c r="O112" s="148"/>
+      <c r="P112" s="163" t="s">
         <v>346</v>
       </c>
-      <c r="P112" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="207" t="str">
+      <c r="Q112" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R112" s="207" t="str">
         <f t="shared" si="4"/>
         <v>xc</v>
       </c>
-      <c r="R112" s="2"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -11441,20 +11518,20 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="148"/>
+      <c r="L113" s="2"/>
       <c r="M113" s="148"/>
       <c r="N113" s="148"/>
-      <c r="O113" s="163" t="s">
+      <c r="O113" s="148"/>
+      <c r="P113" s="163" t="s">
         <v>348</v>
       </c>
-      <c r="P113" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="207" t="str">
+      <c r="Q113" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R113" s="207" t="str">
         <f t="shared" si="4"/>
         <v>xr</v>
       </c>
-      <c r="R113" s="2"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -11481,20 +11558,20 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="148"/>
+      <c r="L114" s="2"/>
       <c r="M114" s="148"/>
       <c r="N114" s="148"/>
-      <c r="O114" s="163" t="s">
+      <c r="O114" s="148"/>
+      <c r="P114" s="163" t="s">
         <v>345</v>
       </c>
-      <c r="P114" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="207" t="str">
+      <c r="Q114" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R114" s="207" t="str">
         <f t="shared" si="4"/>
         <v>z</v>
       </c>
-      <c r="R114" s="2"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -11521,20 +11598,20 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="148"/>
+      <c r="L115" s="2"/>
       <c r="M115" s="148"/>
       <c r="N115" s="148"/>
-      <c r="O115" s="164" t="s">
+      <c r="O115" s="148"/>
+      <c r="P115" s="164" t="s">
         <v>347</v>
       </c>
-      <c r="P115" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="208" t="str">
+      <c r="Q115" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="R115" s="208" t="str">
         <f t="shared" si="4"/>
         <v>zd</v>
       </c>
-      <c r="R115" s="2"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -34533,7 +34610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3626F-D681-4ABD-B02A-5C870438CFCF}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D209B64-8C0D-4B3F-8296-6FE455BFBDA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C181A69-6433-40B2-B06A-1EEBCCDC9425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -19,11 +19,6 @@
     <sheet name="Report Settings" sheetId="26" r:id="rId4"/>
     <sheet name="Admin" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Admin!$E$13:$Y$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$E$10:$W$22</definedName>
@@ -31,13 +26,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StructuralSA!$E$10:$W$22</definedName>
     <definedName name="a_nfoet_b1">Stock!$L$153:$V$153</definedName>
     <definedName name="a_nyatf_b1">Stock!$L$154:$V$154</definedName>
-    <definedName name="dry_groups" localSheetId="0">General!$I$48:$J$48</definedName>
-    <definedName name="foo_levels" localSheetId="0">General!$I$50:$K$50</definedName>
+    <definedName name="dry_groups" localSheetId="0">General!$I$47:$J$47</definedName>
+    <definedName name="foo_levels" localSheetId="0">General!$I$49:$K$49</definedName>
     <definedName name="grain_pools" localSheetId="0">General!$I$44:$J$44</definedName>
-    <definedName name="grazing_int" localSheetId="0">General!$I$49:$L$49</definedName>
+    <definedName name="grazing_int" localSheetId="0">General!$I$48:$L$48</definedName>
     <definedName name="i_a0_pos">Stock!$I$43</definedName>
     <definedName name="i_a1_pos">Stock!$I$44</definedName>
-    <definedName name="i_a2_idx" localSheetId="0">General!$N$80</definedName>
+    <definedName name="i_a2_idx" localSheetId="0">General!$N$79</definedName>
     <definedName name="i_adjp_cfw_initial_w0" localSheetId="2">StructuralSA!$K$99</definedName>
     <definedName name="i_adjp_cfw_initial_w1" localSheetId="2">StructuralSA!$P$99:$P$101</definedName>
     <definedName name="i_adjp_cfw_initial_w3" localSheetId="2">StructuralSA!$U$99:$U$101</definedName>
@@ -54,8 +49,6 @@
     <definedName name="i_age_max_offs">Stock!$I$64</definedName>
     <definedName name="i_b0_pos">Stock!$I$45</definedName>
     <definedName name="i_b1_pos">Stock!$I$46</definedName>
-    <definedName name="i_break">[1]General!$Z$104:$Z$113</definedName>
-    <definedName name="i_break_date">[2]General!$R$104:$R$113</definedName>
     <definedName name="i_btrt_idx_offs">Stock!$L$268:$Q$268</definedName>
     <definedName name="i_chill_adj_b1">Stock!$L$156:$V$156</definedName>
     <definedName name="i_confinement_n0">StructuralSA!$K$87</definedName>
@@ -64,7 +57,6 @@
     <definedName name="i_core_dvp_types_f1" localSheetId="1">Stock!$J$313:$L$313</definedName>
     <definedName name="i_d_pos">Stock!$I$47</definedName>
     <definedName name="i_dams_user_fvp_date_iu">StructuralSA!$S$45:$V$47</definedName>
-    <definedName name="i_date_node_zm">[2]General!$T$104:$V$113</definedName>
     <definedName name="i_density_n0" localSheetId="2">StructuralSA!$L$87</definedName>
     <definedName name="i_density_n1" localSheetId="2">StructuralSA!$O$87:$O$94</definedName>
     <definedName name="i_density_n3" localSheetId="2">StructuralSA!$U$87:$U$94</definedName>
@@ -72,7 +64,7 @@
     <definedName name="i_dvp_mask_f3">StructuralSA!$J$53:$O$53</definedName>
     <definedName name="i_e0_pos">Stock!$I$48</definedName>
     <definedName name="i_e1_pos">Stock!$I$49</definedName>
-    <definedName name="i_enterprises_c0" localSheetId="0">General!$I$56:$J$56</definedName>
+    <definedName name="i_enterprises_c0" localSheetId="0">General!$I$55:$J$55</definedName>
     <definedName name="i_feedsupply_itn_max">Stock!$I$72</definedName>
     <definedName name="i_fixed_dvp_mask_f1">Stock!$J$314:$L$314</definedName>
     <definedName name="i_fixed_fvp_mask_dams">Stock!$J$312:$L$312</definedName>
@@ -83,13 +75,13 @@
     <definedName name="i_fvp_mask_dams">StructuralSA!$N$43:$R$43</definedName>
     <definedName name="i_fvp_mask_offs">StructuralSA!$J$52:$O$52</definedName>
     <definedName name="i_generate_with_t" localSheetId="2">StructuralSA!$P$121</definedName>
-    <definedName name="i_history4_req" localSheetId="0">General!$R$80:$R$115</definedName>
+    <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$114</definedName>
     <definedName name="i_i_pos">Stock!$I$50</definedName>
-    <definedName name="i_idx_k" localSheetId="0">General!$P$80:$P$115</definedName>
-    <definedName name="i_idx_k1" localSheetId="0">General!$I$80:$I$96</definedName>
-    <definedName name="i_idx_k2" localSheetId="0">General!$L$80:$L$98</definedName>
+    <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$114</definedName>
+    <definedName name="i_idx_k1" localSheetId="0">General!$I$79:$I$95</definedName>
+    <definedName name="i_idx_k2" localSheetId="0">General!$L$79:$L$97</definedName>
     <definedName name="i_initial_b1">Stock!$L$155:$V$155</definedName>
-    <definedName name="i_is_baled_k" localSheetId="0">General!$J$80:$J$96</definedName>
+    <definedName name="i_is_baled_k" localSheetId="0">General!$J$79:$J$95</definedName>
     <definedName name="i_is_dry_b1">Stock!$L$149:$V$149</definedName>
     <definedName name="i_k2_idx_dams">Stock!$L$202:$V$204</definedName>
     <definedName name="i_k2_pos">Stock!$I$51</definedName>
@@ -98,7 +90,7 @@
     <definedName name="i_k5_pos">Stock!$I$53</definedName>
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
-    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$80:$Q$115</definedName>
+    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$114</definedName>
     <definedName name="i_len_f">StructuralSA!$I$157</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
@@ -131,7 +123,6 @@
     <definedName name="i_nv_upper_p6">StructuralSA!$J$161:$S$161</definedName>
     <definedName name="i_offs_user_fvp_date_iu" localSheetId="2">StructuralSA!$P$54:$R$56</definedName>
     <definedName name="i_p_pos">Stock!$I$55</definedName>
-    <definedName name="i_pasture_stage_p6z">[2]Annual!$K$20:$T$29</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$66</definedName>
     <definedName name="i_progeny_w2_len">StructuralSA!$Q$79</definedName>
     <definedName name="i_r2adjust_inc">StructuralSA!$U$120</definedName>
@@ -139,7 +130,6 @@
     <definedName name="i_rev_number" localSheetId="2">StructuralSA!$I$122</definedName>
     <definedName name="i_rev_trait_inc" localSheetId="2">StructuralSA!$I$129:$I$136</definedName>
     <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$136</definedName>
-    <definedName name="i_sim_periods_year" localSheetId="3">[2]FeedSupply!$P$28</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
     <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
     <definedName name="i_store_feedbud" localSheetId="3">'Report Settings'!$U$18</definedName>
@@ -168,14 +158,11 @@
     <definedName name="ia_prepost_b1">Stock!$L$152:$V$152</definedName>
     <definedName name="ia_sire_dsegroup">Stock!$L$144</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$146:$V$146</definedName>
-    <definedName name="labour_period_len" localSheetId="0">General!$I$54</definedName>
+    <definedName name="labour_period_len" localSheetId="0">General!$I$53</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$46:$L$46</definedName>
-    <definedName name="pastures_exist" localSheetId="0">General!$I$47:$L$47</definedName>
-    <definedName name="phase_len" localSheetId="0">General!$I$52</definedName>
+    <definedName name="phase_len" localSheetId="0">General!$I$51</definedName>
     <definedName name="rdvp_type_r">Stock!$J$318:$L$318</definedName>
     <definedName name="worker_levels" localSheetId="0">General!$I$42:$K$42</definedName>
-    <definedName name="YieldBySoil.i">[3]Rotation!$J$47:$V$59</definedName>
-    <definedName name="YieldBySoil.n">[3]Rotation!$H$47:$H$59</definedName>
     <definedName name="ZA.Gridlines" localSheetId="4">Admin!$L$29</definedName>
     <definedName name="ZA.Headers" localSheetId="4">Admin!$L$30</definedName>
     <definedName name="ZA.HeightRow" localSheetId="4">Admin!$J$26</definedName>
@@ -278,35 +265,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-annual must be first in the list</t>
+annual must be first in the list. Define which pastures exist in pinp.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{5C8A94C4-3AA8-470F-98DB-74504D6919F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-define which pastures exist (inputs must exist). SA can be used to adjust which pastures included in a given trial (property input).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{EE762646-B744-4CD9-A953-31EA528567F4}">
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{EE762646-B744-4CD9-A953-31EA528567F4}">
       <text>
         <r>
           <rPr>
@@ -330,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{13AA60DC-F1B5-4C6A-9480-13EBF4BC7B06}">
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{13AA60DC-F1B5-4C6A-9480-13EBF4BC7B06}">
       <text>
         <r>
           <rPr>
@@ -354,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{46711F29-44B1-4DAE-8B05-697DCE7A28E8}">
+    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{46711F29-44B1-4DAE-8B05-697DCE7A28E8}">
       <text>
         <r>
           <rPr>
@@ -378,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{A77A1A40-0F21-448B-8603-3590BB2B7FCC}">
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{A77A1A40-0F21-448B-8603-3590BB2B7FCC}">
       <text>
         <r>
           <rPr>
@@ -402,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J79" authorId="0" shapeId="0" xr:uid="{FDA4D9B5-6EAD-41B3-8D7C-2C4ABEDC1C1E}">
+    <comment ref="J78" authorId="0" shapeId="0" xr:uid="{FDA4D9B5-6EAD-41B3-8D7C-2C4ABEDC1C1E}">
       <text>
         <r>
           <rPr>
@@ -426,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N79" authorId="0" shapeId="0" xr:uid="{40DF5727-F08F-40E0-9958-8A507CE17D1A}">
+    <comment ref="N78" authorId="0" shapeId="0" xr:uid="{40DF5727-F08F-40E0-9958-8A507CE17D1A}">
       <text>
         <r>
           <rPr>
@@ -450,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R79" authorId="0" shapeId="0" xr:uid="{88CDE5B0-F826-4C1C-BBBC-47E28308B927}">
+    <comment ref="R78" authorId="0" shapeId="0" xr:uid="{88CDE5B0-F826-4C1C-BBBC-47E28308B927}">
       <text>
         <r>
           <rPr>
@@ -2280,7 +2243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="391">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3279,9 +3242,6 @@
   </si>
   <si>
     <t>generate with t axis</t>
-  </si>
-  <si>
-    <t>pastures inputs exist</t>
   </si>
   <si>
     <t>Landuses</t>
@@ -5877,1100 +5837,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Home"/>
-      <sheetName val="General"/>
-      <sheetName val="Sup Feed"/>
-      <sheetName val="Crop"/>
-      <sheetName val="CropGrazing"/>
-      <sheetName val="Saltbush"/>
-      <sheetName val="Periods"/>
-      <sheetName val="Labour"/>
-      <sheetName val="Annual"/>
-      <sheetName val="Understory"/>
-      <sheetName val="Sheep"/>
-      <sheetName val="FeedSupply"/>
-      <sheetName val="Mach"/>
-      <sheetName val="CropResidue"/>
-      <sheetName val="Finance"/>
-      <sheetName val="MVEnergy"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>b</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="Z105" t="str">
-            <v>Break of season</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="Z107">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="Z108">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="Z109">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="Z110">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="Z111">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="Z112">
-            <v>126</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="Z113">
-            <v>126</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="266">
-          <cell r="I266">
-            <v>2019</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="266">
-          <cell r="I266" t="str">
-            <v>4th cycle</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Home"/>
-      <sheetName val="General"/>
-      <sheetName val="Sup Feed"/>
-      <sheetName val="Crop"/>
-      <sheetName val="CropGrazing"/>
-      <sheetName val="Saltbush"/>
-      <sheetName val="Periods"/>
-      <sheetName val="Labour"/>
-      <sheetName val="Annual"/>
-      <sheetName val="Understory"/>
-      <sheetName val="Sheep"/>
-      <sheetName val="FeedSupply"/>
-      <sheetName val="Mach"/>
-      <sheetName val="CropResidue"/>
-      <sheetName val="Finance"/>
-      <sheetName val="MVEnergy"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="104">
-          <cell r="R104">
-            <v>43595</v>
-          </cell>
-          <cell r="T104">
-            <v>105</v>
-          </cell>
-          <cell r="U104">
-            <v>217</v>
-          </cell>
-          <cell r="V104">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="R105">
-            <v>43572</v>
-          </cell>
-          <cell r="T105">
-            <v>105</v>
-          </cell>
-          <cell r="U105">
-            <v>217</v>
-          </cell>
-          <cell r="V105">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="R106">
-            <v>43572</v>
-          </cell>
-          <cell r="T106" t="str">
-            <v>Early brk</v>
-          </cell>
-          <cell r="U106" t="str">
-            <v>Med brk</v>
-          </cell>
-          <cell r="V106" t="str">
-            <v>Spring</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="R107">
-            <v>43595</v>
-          </cell>
-          <cell r="T107">
-            <v>105</v>
-          </cell>
-          <cell r="U107">
-            <v>217</v>
-          </cell>
-          <cell r="V107">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="R108">
-            <v>43572</v>
-          </cell>
-          <cell r="T108">
-            <v>105</v>
-          </cell>
-          <cell r="U108">
-            <v>217</v>
-          </cell>
-          <cell r="V108">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="R109">
-            <v>43572</v>
-          </cell>
-          <cell r="T109">
-            <v>105</v>
-          </cell>
-          <cell r="U109">
-            <v>217</v>
-          </cell>
-          <cell r="V109">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="R110">
-            <v>43572</v>
-          </cell>
-          <cell r="T110">
-            <v>105</v>
-          </cell>
-          <cell r="U110">
-            <v>217</v>
-          </cell>
-          <cell r="V110">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="R111">
-            <v>43593</v>
-          </cell>
-          <cell r="T111">
-            <v>105</v>
-          </cell>
-          <cell r="U111">
-            <v>217</v>
-          </cell>
-          <cell r="V111">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="R112">
-            <v>43593</v>
-          </cell>
-          <cell r="T112">
-            <v>105</v>
-          </cell>
-          <cell r="U112">
-            <v>217</v>
-          </cell>
-          <cell r="V112">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="R113">
-            <v>43593</v>
-          </cell>
-          <cell r="T113">
-            <v>105</v>
-          </cell>
-          <cell r="U113">
-            <v>217</v>
-          </cell>
-          <cell r="V113">
-            <v>287</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="20">
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>0</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>0</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-          <cell r="S20">
-            <v>0</v>
-          </cell>
-          <cell r="T20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>1</v>
-          </cell>
-          <cell r="L22">
-            <v>1</v>
-          </cell>
-          <cell r="M22">
-            <v>1</v>
-          </cell>
-          <cell r="N22">
-            <v>1</v>
-          </cell>
-          <cell r="O22">
-            <v>1</v>
-          </cell>
-          <cell r="P22">
-            <v>1</v>
-          </cell>
-          <cell r="Q22">
-            <v>1</v>
-          </cell>
-          <cell r="R22">
-            <v>1</v>
-          </cell>
-          <cell r="S22">
-            <v>1</v>
-          </cell>
-          <cell r="T22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>1</v>
-          </cell>
-          <cell r="L23">
-            <v>1</v>
-          </cell>
-          <cell r="M23">
-            <v>1</v>
-          </cell>
-          <cell r="N23">
-            <v>1</v>
-          </cell>
-          <cell r="O23">
-            <v>1</v>
-          </cell>
-          <cell r="P23">
-            <v>1</v>
-          </cell>
-          <cell r="Q23">
-            <v>1</v>
-          </cell>
-          <cell r="R23">
-            <v>1</v>
-          </cell>
-          <cell r="S23">
-            <v>1</v>
-          </cell>
-          <cell r="T23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>1</v>
-          </cell>
-          <cell r="L24">
-            <v>1</v>
-          </cell>
-          <cell r="M24">
-            <v>1</v>
-          </cell>
-          <cell r="N24">
-            <v>1</v>
-          </cell>
-          <cell r="O24">
-            <v>1</v>
-          </cell>
-          <cell r="P24">
-            <v>1</v>
-          </cell>
-          <cell r="Q24">
-            <v>1</v>
-          </cell>
-          <cell r="R24">
-            <v>1</v>
-          </cell>
-          <cell r="S24">
-            <v>1</v>
-          </cell>
-          <cell r="T24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>1</v>
-          </cell>
-          <cell r="L25">
-            <v>1</v>
-          </cell>
-          <cell r="M25">
-            <v>1</v>
-          </cell>
-          <cell r="N25">
-            <v>1</v>
-          </cell>
-          <cell r="O25">
-            <v>1</v>
-          </cell>
-          <cell r="P25">
-            <v>1</v>
-          </cell>
-          <cell r="Q25">
-            <v>1</v>
-          </cell>
-          <cell r="R25">
-            <v>1</v>
-          </cell>
-          <cell r="S25">
-            <v>1</v>
-          </cell>
-          <cell r="T25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>1</v>
-          </cell>
-          <cell r="L26">
-            <v>1</v>
-          </cell>
-          <cell r="M26">
-            <v>1</v>
-          </cell>
-          <cell r="N26">
-            <v>1</v>
-          </cell>
-          <cell r="O26">
-            <v>1</v>
-          </cell>
-          <cell r="P26">
-            <v>1</v>
-          </cell>
-          <cell r="Q26">
-            <v>1</v>
-          </cell>
-          <cell r="R26">
-            <v>1</v>
-          </cell>
-          <cell r="S26">
-            <v>1</v>
-          </cell>
-          <cell r="T26">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>1</v>
-          </cell>
-          <cell r="L27">
-            <v>1</v>
-          </cell>
-          <cell r="M27">
-            <v>1</v>
-          </cell>
-          <cell r="N27">
-            <v>1</v>
-          </cell>
-          <cell r="O27">
-            <v>1</v>
-          </cell>
-          <cell r="P27">
-            <v>1</v>
-          </cell>
-          <cell r="Q27">
-            <v>1</v>
-          </cell>
-          <cell r="R27">
-            <v>1</v>
-          </cell>
-          <cell r="S27">
-            <v>1</v>
-          </cell>
-          <cell r="T27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>1</v>
-          </cell>
-          <cell r="L28">
-            <v>1</v>
-          </cell>
-          <cell r="M28">
-            <v>1</v>
-          </cell>
-          <cell r="N28">
-            <v>1</v>
-          </cell>
-          <cell r="O28">
-            <v>1</v>
-          </cell>
-          <cell r="P28">
-            <v>1</v>
-          </cell>
-          <cell r="Q28">
-            <v>1</v>
-          </cell>
-          <cell r="R28">
-            <v>1</v>
-          </cell>
-          <cell r="S28">
-            <v>1</v>
-          </cell>
-          <cell r="T28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>1</v>
-          </cell>
-          <cell r="L29">
-            <v>1</v>
-          </cell>
-          <cell r="M29">
-            <v>1</v>
-          </cell>
-          <cell r="N29">
-            <v>1</v>
-          </cell>
-          <cell r="O29">
-            <v>1</v>
-          </cell>
-          <cell r="P29">
-            <v>1</v>
-          </cell>
-          <cell r="Q29">
-            <v>1</v>
-          </cell>
-          <cell r="R29">
-            <v>1</v>
-          </cell>
-          <cell r="S29">
-            <v>1</v>
-          </cell>
-          <cell r="T29">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="28">
-          <cell r="P28">
-            <v>52</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Controls"/>
-      <sheetName val="Gloss"/>
-      <sheetName val="MPS"/>
-      <sheetName val="FullRepStd"/>
-      <sheetName val="Names"/>
-      <sheetName val="GenData"/>
-      <sheetName val="Mach"/>
-      <sheetName val="Rotation"/>
-      <sheetName val="FullRep callibration"/>
-      <sheetName val="MRY callibration"/>
-      <sheetName val="Table Fill"/>
-      <sheetName val="Summ-MRY (2)"/>
-      <sheetName val="Sum-MRY"/>
-      <sheetName val="EL-Std"/>
-      <sheetName val="Summ-Std"/>
-      <sheetName val="Sheep"/>
-      <sheetName val="Grazingcrop"/>
-      <sheetName val="LabourSheep"/>
-      <sheetName val="Labour"/>
-      <sheetName val="LabourCrop"/>
-      <sheetName val="Emissions"/>
-      <sheetName val="EmPast1"/>
-      <sheetName val="Annual"/>
-      <sheetName val="Lucerne"/>
-      <sheetName val="TederaP"/>
-      <sheetName val="TederaM"/>
-      <sheetName val="Stubble"/>
-      <sheetName val="ChaffPiles"/>
-      <sheetName val="FodCrop"/>
-      <sheetName val="Saltbush"/>
-      <sheetName val="Sheep$"/>
-      <sheetName val="Luc Structural"/>
-      <sheetName val="LucRotnData"/>
-      <sheetName val="Luc Rotn Inputs"/>
-      <sheetName val="LucFertMPS"/>
-      <sheetName val="Blank"/>
-      <sheetName val="Starter"/>
-      <sheetName val="MinROE"/>
-      <sheetName val="MVEnergy"/>
-      <sheetName val="ExpLib"/>
-      <sheetName val="Chart2"/>
-      <sheetName val="Rep-MVP"/>
-      <sheetName val="RepLib"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="47">
-          <cell r="H47"/>
-          <cell r="J47"/>
-          <cell r="K47"/>
-          <cell r="L47"/>
-          <cell r="M47"/>
-          <cell r="N47"/>
-          <cell r="O47"/>
-          <cell r="P47"/>
-          <cell r="Q47"/>
-          <cell r="R47"/>
-          <cell r="S47"/>
-          <cell r="T47"/>
-          <cell r="U47"/>
-          <cell r="V47"/>
-        </row>
-        <row r="48">
-          <cell r="H48" t="str">
-            <v>T</v>
-          </cell>
-          <cell r="J48">
-            <v>0.54</v>
-          </cell>
-          <cell r="K48">
-            <v>0.68</v>
-          </cell>
-          <cell r="L48">
-            <v>0.78</v>
-          </cell>
-          <cell r="M48">
-            <v>1</v>
-          </cell>
-          <cell r="N48">
-            <v>0</v>
-          </cell>
-          <cell r="O48">
-            <v>0</v>
-          </cell>
-          <cell r="P48">
-            <v>0</v>
-          </cell>
-          <cell r="Q48"/>
-          <cell r="R48"/>
-          <cell r="S48"/>
-          <cell r="T48"/>
-          <cell r="U48"/>
-          <cell r="V48"/>
-        </row>
-        <row r="49">
-          <cell r="H49" t="str">
-            <v>R</v>
-          </cell>
-          <cell r="J49">
-            <v>0</v>
-          </cell>
-          <cell r="K49">
-            <v>0</v>
-          </cell>
-          <cell r="L49">
-            <v>0</v>
-          </cell>
-          <cell r="M49">
-            <v>1</v>
-          </cell>
-          <cell r="N49">
-            <v>0</v>
-          </cell>
-          <cell r="O49">
-            <v>0</v>
-          </cell>
-          <cell r="P49">
-            <v>0</v>
-          </cell>
-          <cell r="Q49"/>
-          <cell r="R49"/>
-          <cell r="S49"/>
-          <cell r="T49"/>
-          <cell r="U49"/>
-          <cell r="V49"/>
-        </row>
-        <row r="50">
-          <cell r="H50" t="str">
-            <v>W</v>
-          </cell>
-          <cell r="J50">
-            <v>0.67</v>
-          </cell>
-          <cell r="K50">
-            <v>0.77</v>
-          </cell>
-          <cell r="L50">
-            <v>0.85</v>
-          </cell>
-          <cell r="M50">
-            <v>1</v>
-          </cell>
-          <cell r="N50">
-            <v>0</v>
-          </cell>
-          <cell r="O50">
-            <v>0</v>
-          </cell>
-          <cell r="P50">
-            <v>0</v>
-          </cell>
-          <cell r="Q50"/>
-          <cell r="R50"/>
-          <cell r="S50"/>
-          <cell r="T50"/>
-          <cell r="U50"/>
-          <cell r="V50"/>
-        </row>
-        <row r="51">
-          <cell r="H51" t="str">
-            <v>F</v>
-          </cell>
-          <cell r="J51">
-            <v>0</v>
-          </cell>
-          <cell r="K51">
-            <v>0</v>
-          </cell>
-          <cell r="L51">
-            <v>0</v>
-          </cell>
-          <cell r="M51">
-            <v>0</v>
-          </cell>
-          <cell r="N51">
-            <v>0</v>
-          </cell>
-          <cell r="O51">
-            <v>0</v>
-          </cell>
-          <cell r="P51">
-            <v>0</v>
-          </cell>
-          <cell r="Q51"/>
-          <cell r="R51"/>
-          <cell r="S51"/>
-          <cell r="T51"/>
-          <cell r="U51"/>
-          <cell r="V51"/>
-        </row>
-        <row r="52">
-          <cell r="H52" t="str">
-            <v>O</v>
-          </cell>
-          <cell r="J52">
-            <v>0.7</v>
-          </cell>
-          <cell r="K52">
-            <v>0.8</v>
-          </cell>
-          <cell r="L52">
-            <v>0.87</v>
-          </cell>
-          <cell r="M52">
-            <v>1</v>
-          </cell>
-          <cell r="N52">
-            <v>0</v>
-          </cell>
-          <cell r="O52">
-            <v>0</v>
-          </cell>
-          <cell r="P52">
-            <v>0</v>
-          </cell>
-          <cell r="Q52"/>
-          <cell r="R52"/>
-          <cell r="S52"/>
-          <cell r="T52"/>
-          <cell r="U52"/>
-          <cell r="V52"/>
-        </row>
-        <row r="53">
-          <cell r="H53" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="J53">
-            <v>0.63</v>
-          </cell>
-          <cell r="K53">
-            <v>0.75</v>
-          </cell>
-          <cell r="L53">
-            <v>0.83</v>
-          </cell>
-          <cell r="M53">
-            <v>1</v>
-          </cell>
-          <cell r="N53">
-            <v>0</v>
-          </cell>
-          <cell r="O53">
-            <v>0</v>
-          </cell>
-          <cell r="P53">
-            <v>0</v>
-          </cell>
-          <cell r="Q53"/>
-          <cell r="R53"/>
-          <cell r="S53"/>
-          <cell r="T53"/>
-          <cell r="U53"/>
-          <cell r="V53"/>
-        </row>
-        <row r="54">
-          <cell r="H54" t="str">
-            <v>L</v>
-          </cell>
-          <cell r="J54">
-            <v>0</v>
-          </cell>
-          <cell r="K54">
-            <v>0.31</v>
-          </cell>
-          <cell r="L54">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="M54">
-            <v>1</v>
-          </cell>
-          <cell r="N54">
-            <v>0</v>
-          </cell>
-          <cell r="O54">
-            <v>0</v>
-          </cell>
-          <cell r="P54">
-            <v>0</v>
-          </cell>
-          <cell r="Q54"/>
-          <cell r="R54"/>
-          <cell r="S54"/>
-          <cell r="T54"/>
-          <cell r="U54"/>
-          <cell r="V54"/>
-        </row>
-        <row r="55">
-          <cell r="H55" t="str">
-            <v>H</v>
-          </cell>
-          <cell r="J55">
-            <v>0.86</v>
-          </cell>
-          <cell r="K55">
-            <v>0.9</v>
-          </cell>
-          <cell r="L55">
-            <v>0.94</v>
-          </cell>
-          <cell r="M55">
-            <v>1</v>
-          </cell>
-          <cell r="N55">
-            <v>0</v>
-          </cell>
-          <cell r="O55">
-            <v>0</v>
-          </cell>
-          <cell r="P55">
-            <v>0</v>
-          </cell>
-          <cell r="Q55"/>
-          <cell r="R55"/>
-          <cell r="S55"/>
-          <cell r="T55"/>
-          <cell r="U55"/>
-          <cell r="V55"/>
-        </row>
-        <row r="56">
-          <cell r="H56" t="str">
-            <v>D</v>
-          </cell>
-          <cell r="J56">
-            <v>0</v>
-          </cell>
-          <cell r="K56">
-            <v>0</v>
-          </cell>
-          <cell r="L56">
-            <v>0</v>
-          </cell>
-          <cell r="M56">
-            <v>0</v>
-          </cell>
-          <cell r="N56">
-            <v>0</v>
-          </cell>
-          <cell r="O56">
-            <v>0</v>
-          </cell>
-          <cell r="P56">
-            <v>0</v>
-          </cell>
-          <cell r="Q56"/>
-          <cell r="R56"/>
-          <cell r="S56"/>
-          <cell r="T56"/>
-          <cell r="U56"/>
-          <cell r="V56"/>
-        </row>
-        <row r="57">
-          <cell r="H57" t="str">
-            <v>Z</v>
-          </cell>
-          <cell r="J57">
-            <v>0</v>
-          </cell>
-          <cell r="K57">
-            <v>0</v>
-          </cell>
-          <cell r="L57">
-            <v>0</v>
-          </cell>
-          <cell r="M57">
-            <v>0</v>
-          </cell>
-          <cell r="N57">
-            <v>0</v>
-          </cell>
-          <cell r="O57">
-            <v>0</v>
-          </cell>
-          <cell r="P57">
-            <v>0</v>
-          </cell>
-          <cell r="Q57"/>
-          <cell r="R57"/>
-          <cell r="S57"/>
-          <cell r="T57"/>
-          <cell r="U57"/>
-          <cell r="V57"/>
-        </row>
-        <row r="58">
-          <cell r="H58" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="J58">
-            <v>0</v>
-          </cell>
-          <cell r="K58">
-            <v>0</v>
-          </cell>
-          <cell r="L58">
-            <v>0</v>
-          </cell>
-          <cell r="M58">
-            <v>0</v>
-          </cell>
-          <cell r="N58">
-            <v>0</v>
-          </cell>
-          <cell r="O58">
-            <v>0</v>
-          </cell>
-          <cell r="P58">
-            <v>0</v>
-          </cell>
-          <cell r="Q58"/>
-          <cell r="R58"/>
-          <cell r="S58"/>
-          <cell r="T58"/>
-          <cell r="U58"/>
-          <cell r="V58"/>
-        </row>
-        <row r="59">
-          <cell r="H59"/>
-          <cell r="J59"/>
-          <cell r="K59"/>
-          <cell r="L59"/>
-          <cell r="M59"/>
-          <cell r="N59"/>
-          <cell r="O59"/>
-          <cell r="P59"/>
-          <cell r="Q59"/>
-          <cell r="R59"/>
-          <cell r="S59"/>
-          <cell r="T59"/>
-          <cell r="U59"/>
-          <cell r="V59"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7271,14 +6137,14 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT128"/>
+  <dimension ref="A1:AT127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80:J96"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -7810,7 +6676,7 @@
         <v>44719.411846643503</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -8370,7 +7236,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
-        <f>INT(MAX($C$41:$C$57))+1</f>
+        <f>INT(MAX($C$41:$C$56))+1</f>
         <v>4</v>
       </c>
       <c r="D30" s="3"/>
@@ -8784,7 +7650,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
-        <f t="shared" ref="C42:C56" si="1">INT($C$31)+2</f>
+        <f t="shared" ref="C42:C55" si="1">INT($C$31)+2</f>
         <v>3</v>
       </c>
       <c r="D42" s="4"/>
@@ -8950,7 +7816,7 @@
         <v>176</v>
       </c>
       <c r="L46" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8981,20 +7847,16 @@
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I47" s="97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="97" t="b">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I47" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -9024,16 +7886,20 @@
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I48" s="97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J48" s="97" t="s">
-        <v>178</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K48" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" s="97" t="s">
+        <v>181</v>
+      </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -9063,20 +7929,18 @@
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I49" s="97" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J49" s="97" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K49" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="L49" s="97" t="s">
-        <v>181</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -9105,18 +7969,10 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I50" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="J50" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="K50" s="97" t="s">
-        <v>184</v>
-      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -9146,8 +8002,12 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="97">
+        <v>6</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -9179,12 +8039,8 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I52" s="97">
-        <v>6</v>
-      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -9216,8 +8072,12 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="97">
+        <v>1</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -9249,12 +8109,8 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" s="97">
-        <v>1</v>
-      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -9286,9 +8142,15 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="J55" s="97" t="s">
+        <v>305</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -9307,62 +8169,58 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-    </row>
-    <row r="56" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="81"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+    </row>
+    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
-        <f t="shared" si="1"/>
+        <f>INT($C$31)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I56" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="J56" s="97" t="s">
-        <v>305</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="4"/>
       <c r="Y56" s="16"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="81"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
     </row>
     <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -9391,111 +8249,109 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
-      <c r="X57" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="X57" s="4"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="73">
-        <f>INT($C$31)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="16"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="76">
+        <f>INT($C$31)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="76">
-        <f>INT($C$31)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="77">
+        <f>INT($C$31)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="77">
-        <f>INT($C$31)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="73">
+        <f>INT($C$31)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -9533,243 +8389,243 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="73">
-        <f>INT($C$31)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="74">
+        <f>INT($C$31)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="74">
-        <f>INT($C$31)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
+      <c r="B63" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="75">
+        <f>INT($C$31)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="15"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="75">
-        <f>INT($C$31)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="15"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="73">
+        <f>INT(MAX($C$41:$C$56))+1</f>
+        <v>4</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="16"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
-        <f>INT(MAX($C$41:$C$57))+1</f>
-        <v>4</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="3"/>
+        <v>1.02</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="44" t="str">
+        <f>COUNTIFS($B$1:$B65, "«")&amp;" Structural: Landuse sets"</f>
+        <v>3 Structural: Landuse sets</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="10"/>
       <c r="Y65" s="16"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
-        <v>1.02</v>
+        <f>INT($C$31)+1.02</f>
+        <v>2.02</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="44" t="str">
-        <f>COUNTIFS($B$1:$B66, "«")&amp;" Structural: Landuse sets"</f>
-        <v>3 Structural: Landuse sets</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F66" s="28">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="11"/>
       <c r="Y66" s="16"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
-        <f>INT($C$31)+1.02</f>
-        <v>2.02</v>
-      </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="28">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="11"/>
+        <f>INT($C$31)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
       <c r="Y67" s="16"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
-        <f>INT($C$31)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f>INT($C$31)+3</f>
+        <v>4</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="16"/>
       <c r="Z68" s="1"/>
@@ -9780,29 +8636,29 @@
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
-        <f>INT($C$31)+3</f>
+        <f t="shared" ref="C69:C71" si="2">INT($C$31)+3</f>
         <v>4</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="16"/>
       <c r="Z69" s="1"/>
@@ -9813,7 +8669,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
-        <f t="shared" ref="C70:C72" si="2">INT($C$31)+3</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D70" s="3"/>
@@ -9875,16 +8731,18 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="C72" s="73">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>INT($C$31)+2.01</f>
+        <v>3.01</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
@@ -9908,36 +8766,34 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="B73" s="33"/>
       <c r="C73" s="73">
-        <f>INT($C$31)+2.01</f>
-        <v>3.01</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="3"/>
+        <f>$C$30</f>
+        <v>4</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="4"/>
       <c r="Y73" s="16"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -9945,16 +8801,20 @@
     </row>
     <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="C74" s="73">
         <f>$C$30</f>
         <v>4</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="120"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -9976,72 +8836,72 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="B75" s="33"/>
       <c r="C75" s="73">
-        <f>$C$30</f>
-        <v>4</v>
+        <f>INT($C$31)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="120"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="58"/>
+      <c r="W75" s="58"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="16"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
-        <f>INT($C$31)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+        <f t="shared" ref="C76:C114" si="3">INT($C$31)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="58"/>
-      <c r="S76" s="58"/>
-      <c r="T76" s="58"/>
-      <c r="U76" s="58"/>
-      <c r="V76" s="58"/>
-      <c r="W76" s="58"/>
+      <c r="H76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="16"/>
       <c r="Z76" s="1"/>
@@ -10052,20 +8912,16 @@
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
-        <f t="shared" ref="C77:C115" si="3">INT($C$31)+2</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -10097,16 +8953,30 @@
       <c r="F78" s="5"/>
       <c r="G78" s="4"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
+      <c r="I78" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="J78" s="161" t="s">
+        <v>390</v>
+      </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="161" t="s">
+        <v>312</v>
+      </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="161" t="s">
+        <v>376</v>
+      </c>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="P78" s="161" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q78" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="R78" s="161" t="s">
+        <v>375</v>
+      </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
@@ -10129,30 +8999,31 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="161" t="s">
-        <v>312</v>
-      </c>
-      <c r="J79" s="161" t="s">
-        <v>391</v>
-      </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="161" t="s">
-        <v>313</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="161" t="s">
-        <v>377</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" s="161" t="s">
+      <c r="H79" s="148"/>
+      <c r="I79" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="Q79" s="161" t="s">
-        <v>375</v>
-      </c>
-      <c r="R79" s="161" t="s">
-        <v>376</v>
+      <c r="J79" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="55"/>
+      <c r="L79" s="162" t="s">
+        <v>315</v>
+      </c>
+      <c r="M79" s="165"/>
+      <c r="N79" s="210" t="s">
+        <v>373</v>
+      </c>
+      <c r="O79" s="165"/>
+      <c r="P79" s="162" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q79" s="162" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" s="206" t="str">
+        <f>P79</f>
+        <v>a</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
@@ -10168,39 +9039,34 @@
     <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
-      <c r="C80" s="73">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+      <c r="C80" s="73"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="4"/>
       <c r="H80" s="148"/>
-      <c r="I80" s="162" t="s">
-        <v>315</v>
-      </c>
-      <c r="J80" s="162" t="b">
+      <c r="I80" s="163" t="s">
+        <v>316</v>
+      </c>
+      <c r="J80" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K80" s="55"/>
-      <c r="L80" s="162" t="s">
-        <v>316</v>
+      <c r="L80" s="163" t="s">
+        <v>317</v>
       </c>
       <c r="M80" s="165"/>
-      <c r="N80" s="210" t="s">
-        <v>374</v>
-      </c>
+      <c r="N80" s="209"/>
       <c r="O80" s="165"/>
-      <c r="P80" s="162" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q80" s="162" t="b">
-        <v>0</v>
-      </c>
-      <c r="R80" s="206" t="str">
-        <f>P80</f>
-        <v>a</v>
+      <c r="P80" s="163" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q80" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" s="207" t="str">
+        <f t="shared" ref="R80:R114" si="4">P80</f>
+        <v>ar</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -10223,27 +9089,27 @@
       <c r="G81" s="4"/>
       <c r="H81" s="148"/>
       <c r="I81" s="163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J81" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K81" s="55"/>
       <c r="L81" s="163" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="M81" s="165"/>
-      <c r="N81" s="209"/>
+      <c r="N81" s="165"/>
       <c r="O81" s="165"/>
       <c r="P81" s="163" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="Q81" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R81" s="207" t="str">
-        <f t="shared" ref="R81:R115" si="4">P81</f>
-        <v>ar</v>
+        <f t="shared" si="4"/>
+        <v>a2</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -10266,27 +9132,27 @@
       <c r="G82" s="4"/>
       <c r="H82" s="148"/>
       <c r="I82" s="163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J82" s="163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="55"/>
       <c r="L82" s="163" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="M82" s="165"/>
       <c r="N82" s="165"/>
       <c r="O82" s="165"/>
       <c r="P82" s="163" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="Q82" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R82" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>a2</v>
+        <v>b</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -10309,27 +9175,27 @@
       <c r="G83" s="4"/>
       <c r="H83" s="148"/>
       <c r="I83" s="163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J83" s="163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="55"/>
       <c r="L83" s="163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M83" s="165"/>
       <c r="N83" s="165"/>
       <c r="O83" s="165"/>
       <c r="P83" s="163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q83" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R83" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>b</v>
+        <v>bd</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -10352,27 +9218,27 @@
       <c r="G84" s="4"/>
       <c r="H84" s="148"/>
       <c r="I84" s="163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J84" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K84" s="55"/>
       <c r="L84" s="163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M84" s="165"/>
       <c r="N84" s="165"/>
       <c r="O84" s="165"/>
       <c r="P84" s="163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q84" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R84" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>bd</v>
+        <v>f</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -10395,27 +9261,27 @@
       <c r="G85" s="4"/>
       <c r="H85" s="148"/>
       <c r="I85" s="163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J85" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K85" s="55"/>
       <c r="L85" s="163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M85" s="165"/>
       <c r="N85" s="165"/>
       <c r="O85" s="165"/>
       <c r="P85" s="163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q85" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R85" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>f</v>
+        <v>h</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -10438,27 +9304,27 @@
       <c r="G86" s="4"/>
       <c r="H86" s="148"/>
       <c r="I86" s="163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J86" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K86" s="55"/>
       <c r="L86" s="163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M86" s="165"/>
       <c r="N86" s="165"/>
       <c r="O86" s="165"/>
       <c r="P86" s="163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q86" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R86" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>h</v>
+        <v>i</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -10481,27 +9347,27 @@
       <c r="G87" s="4"/>
       <c r="H87" s="148"/>
       <c r="I87" s="163" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J87" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K87" s="55"/>
       <c r="L87" s="163" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M87" s="165"/>
       <c r="N87" s="165"/>
       <c r="O87" s="165"/>
       <c r="P87" s="163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q87" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R87" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>i</v>
+        <v>j</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -10524,27 +9390,27 @@
       <c r="G88" s="4"/>
       <c r="H88" s="148"/>
       <c r="I88" s="163" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J88" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K88" s="55"/>
       <c r="L88" s="163" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="M88" s="165"/>
       <c r="N88" s="165"/>
       <c r="O88" s="165"/>
       <c r="P88" s="163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q88" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R88" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>jc</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -10567,27 +9433,27 @@
       <c r="G89" s="4"/>
       <c r="H89" s="148"/>
       <c r="I89" s="163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J89" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K89" s="55"/>
       <c r="L89" s="163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M89" s="165"/>
       <c r="N89" s="165"/>
       <c r="O89" s="165"/>
       <c r="P89" s="163" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q89" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R89" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>jc</v>
+        <v>jr</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -10610,27 +9476,27 @@
       <c r="G90" s="4"/>
       <c r="H90" s="148"/>
       <c r="I90" s="163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J90" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K90" s="55"/>
       <c r="L90" s="163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M90" s="165"/>
       <c r="N90" s="165"/>
       <c r="O90" s="165"/>
       <c r="P90" s="163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q90" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R90" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>jr</v>
+        <v>k</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -10653,27 +9519,27 @@
       <c r="G91" s="4"/>
       <c r="H91" s="148"/>
       <c r="I91" s="163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J91" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="55"/>
       <c r="L91" s="163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M91" s="165"/>
       <c r="N91" s="165"/>
       <c r="O91" s="165"/>
       <c r="P91" s="163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q91" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R91" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>k</v>
+        <v>l</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -10696,27 +9562,27 @@
       <c r="G92" s="4"/>
       <c r="H92" s="148"/>
       <c r="I92" s="163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J92" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K92" s="55"/>
       <c r="L92" s="163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M92" s="165"/>
       <c r="N92" s="165"/>
       <c r="O92" s="165"/>
       <c r="P92" s="163" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="Q92" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R92" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
@@ -10739,27 +9605,27 @@
       <c r="G93" s="4"/>
       <c r="H93" s="148"/>
       <c r="I93" s="163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J93" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K93" s="55"/>
       <c r="L93" s="163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M93" s="165"/>
       <c r="N93" s="165"/>
       <c r="O93" s="165"/>
       <c r="P93" s="163" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q93" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R93" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>o</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -10782,27 +9648,27 @@
       <c r="G94" s="4"/>
       <c r="H94" s="148"/>
       <c r="I94" s="163" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J94" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K94" s="55"/>
       <c r="L94" s="163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M94" s="165"/>
       <c r="N94" s="165"/>
       <c r="O94" s="165"/>
       <c r="P94" s="163" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q94" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R94" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>o</v>
+        <v>od</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
@@ -10824,28 +9690,28 @@
       <c r="F95" s="5"/>
       <c r="G95" s="4"/>
       <c r="H95" s="148"/>
-      <c r="I95" s="163" t="s">
-        <v>345</v>
-      </c>
-      <c r="J95" s="163" t="b">
+      <c r="I95" s="164" t="s">
+        <v>346</v>
+      </c>
+      <c r="J95" s="164" t="b">
         <v>0</v>
       </c>
       <c r="K95" s="55"/>
       <c r="L95" s="163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M95" s="165"/>
       <c r="N95" s="165"/>
       <c r="O95" s="165"/>
       <c r="P95" s="163" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q95" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R95" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>od</v>
+        <v>of</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
@@ -10866,29 +9732,25 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="148"/>
-      <c r="I96" s="164" t="s">
-        <v>347</v>
-      </c>
-      <c r="J96" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" s="55"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="2"/>
       <c r="L96" s="163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M96" s="165"/>
       <c r="N96" s="165"/>
       <c r="O96" s="165"/>
       <c r="P96" s="163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q96" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R96" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>of</v>
+        <v>r</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -10910,24 +9772,24 @@
       <c r="F97" s="5"/>
       <c r="G97" s="4"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="163" t="s">
-        <v>346</v>
-      </c>
-      <c r="M97" s="165"/>
-      <c r="N97" s="165"/>
-      <c r="O97" s="165"/>
+      <c r="L97" s="164" t="s">
+        <v>347</v>
+      </c>
+      <c r="M97" s="148"/>
+      <c r="N97" s="148"/>
+      <c r="O97" s="148"/>
       <c r="P97" s="163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q97" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R97" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>r</v>
+        <v>rd</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -10952,21 +9814,19 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="164" t="s">
-        <v>348</v>
-      </c>
+      <c r="L98" s="53"/>
       <c r="M98" s="148"/>
       <c r="N98" s="148"/>
       <c r="O98" s="148"/>
       <c r="P98" s="163" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q98" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R98" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>rd</v>
+        <v>s</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -10996,14 +9856,14 @@
       <c r="N99" s="148"/>
       <c r="O99" s="148"/>
       <c r="P99" s="163" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Q99" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R99" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>sp</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -11028,19 +9888,19 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="53"/>
+      <c r="L100" s="2"/>
       <c r="M100" s="148"/>
       <c r="N100" s="148"/>
       <c r="O100" s="148"/>
       <c r="P100" s="163" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="Q100" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R100" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>sp</v>
+        <v>sr</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -11070,14 +9930,14 @@
       <c r="N101" s="148"/>
       <c r="O101" s="148"/>
       <c r="P101" s="163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q101" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R101" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>sr</v>
+        <v>t</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -11107,14 +9967,14 @@
       <c r="N102" s="148"/>
       <c r="O102" s="148"/>
       <c r="P102" s="163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q102" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R102" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>t</v>
+        <v>tc</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -11144,14 +10004,14 @@
       <c r="N103" s="148"/>
       <c r="O103" s="148"/>
       <c r="P103" s="163" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q103" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R103" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>tc</v>
+        <v>tr</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -11181,14 +10041,14 @@
       <c r="N104" s="148"/>
       <c r="O104" s="148"/>
       <c r="P104" s="163" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q104" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R104" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>tr</v>
+        <v>u</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -11218,14 +10078,14 @@
       <c r="N105" s="148"/>
       <c r="O105" s="148"/>
       <c r="P105" s="163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q105" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R105" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>u</v>
+        <v>uc</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -11255,14 +10115,14 @@
       <c r="N106" s="148"/>
       <c r="O106" s="148"/>
       <c r="P106" s="163" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q106" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R106" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>uc</v>
+        <v>ur</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -11292,14 +10152,14 @@
       <c r="N107" s="148"/>
       <c r="O107" s="148"/>
       <c r="P107" s="163" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q107" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R107" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>ur</v>
+        <v>v</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -11329,14 +10189,14 @@
       <c r="N108" s="148"/>
       <c r="O108" s="148"/>
       <c r="P108" s="163" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q108" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R108" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>w</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -11366,14 +10226,14 @@
       <c r="N109" s="148"/>
       <c r="O109" s="148"/>
       <c r="P109" s="163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q109" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R109" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>w</v>
+        <v>wd</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -11389,7 +10249,10 @@
     <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
-      <c r="C110" s="73"/>
+      <c r="C110" s="73">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -11410,7 +10273,7 @@
       </c>
       <c r="R110" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>wd</v>
+        <v>x</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -11443,14 +10306,14 @@
       <c r="N111" s="148"/>
       <c r="O111" s="148"/>
       <c r="P111" s="163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q111" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R111" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>x</v>
+        <v>xc</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -11483,14 +10346,14 @@
       <c r="N112" s="148"/>
       <c r="O112" s="148"/>
       <c r="P112" s="163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q112" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R112" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>xc</v>
+        <v>xr</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -11523,14 +10386,14 @@
       <c r="N113" s="148"/>
       <c r="O113" s="148"/>
       <c r="P113" s="163" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q113" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R113" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>xr</v>
+        <v>z</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -11562,15 +10425,15 @@
       <c r="M114" s="148"/>
       <c r="N114" s="148"/>
       <c r="O114" s="148"/>
-      <c r="P114" s="163" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q114" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R114" s="207" t="str">
+      <c r="P114" s="164" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q114" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="R114" s="208" t="str">
         <f t="shared" si="4"/>
-        <v>z</v>
+        <v>zd</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -11582,63 +10445,58 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
-    </row>
-    <row r="115" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="4"/>
+      <c r="AQ114" s="81"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+    </row>
+    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
-        <f t="shared" si="3"/>
+        <f>INT($C$31)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="148"/>
-      <c r="N115" s="148"/>
-      <c r="O115" s="148"/>
-      <c r="P115" s="164" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q115" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="R115" s="208" t="str">
-        <f t="shared" si="4"/>
-        <v>zd</v>
-      </c>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="4"/>
       <c r="Y115" s="16"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="2"/>
-      <c r="AF115" s="2"/>
-      <c r="AG115" s="2"/>
-      <c r="AH115" s="2"/>
-      <c r="AI115" s="2"/>
-      <c r="AJ115" s="2"/>
-      <c r="AK115" s="2"/>
-      <c r="AL115" s="2"/>
-      <c r="AM115" s="2"/>
-      <c r="AN115" s="2"/>
-      <c r="AO115" s="2"/>
-      <c r="AP115" s="4"/>
-      <c r="AQ115" s="81"/>
-      <c r="AR115" s="1"/>
-      <c r="AS115" s="1"/>
-      <c r="AT115" s="1"/>
     </row>
     <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -11667,111 +10525,109 @@
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
-      <c r="X116" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="X116" s="4"/>
       <c r="Y116" s="16"/>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="73">
-        <f>INT($C$31)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="16"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="76">
+        <f>INT($C$31)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="76">
-        <f>INT($C$31)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="77">
+        <f>INT($C$31)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="19"/>
+      <c r="X118" s="19"/>
+      <c r="Y118" s="19"/>
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="77">
-        <f>INT($C$31)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
-      <c r="V119" s="19"/>
-      <c r="W119" s="19"/>
-      <c r="X119" s="19"/>
-      <c r="Y119" s="19"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="73">
+        <f>INT($C$31)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
@@ -11809,13 +10665,10 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="73">
-        <f>INT($C$31)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C121" s="66"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -11993,37 +10846,7 @@
       <c r="AB126" s="1"/>
     </row>
     <row r="127" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-    </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="C128" s="72" t="s">
+      <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12046,12 +10869,12 @@
   </sheetPr>
   <dimension ref="A1:AB334"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="9" ySplit="10" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="N156" sqref="N156"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -12544,7 +11367,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -12583,7 +11406,7 @@
         <v>44762.449343865701</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -18159,7 +16982,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
       <c r="H156" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -28365,7 +27188,7 @@
         <v>45076.548888773097</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -28404,7 +27227,7 @@
         <v>45073.683614236099</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -29156,7 +27979,7 @@
       <c r="M35" s="124"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P35" s="124" t="s">
         <v>44</v>
@@ -29232,24 +28055,24 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="156"/>
       <c r="N37" s="156" t="s">
+        <v>379</v>
+      </c>
+      <c r="O37" s="156" t="s">
         <v>380</v>
       </c>
-      <c r="O37" s="156" t="s">
+      <c r="P37" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="P37" s="156" t="s">
+      <c r="Q37" s="156" t="s">
         <v>382</v>
       </c>
-      <c r="Q37" s="156" t="s">
-        <v>383</v>
-      </c>
       <c r="R37" s="156" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -29858,7 +28681,7 @@
         <v>208</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -31971,7 +30794,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P102" s="2">
         <v>0.8</v>
@@ -32620,7 +31443,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U120" s="31" t="b">
         <v>0</v>
@@ -32649,7 +31472,7 @@
       <c r="J121" s="36"/>
       <c r="K121" s="36"/>
       <c r="L121" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M121" s="31">
         <v>0</v>
@@ -32731,7 +31554,7 @@
       <c r="J123" s="148"/>
       <c r="K123" s="148"/>
       <c r="L123" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M123" s="31">
         <v>0</v>
@@ -32795,7 +31618,7 @@
       <c r="J125" s="205"/>
       <c r="K125" s="205"/>
       <c r="L125" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M125" s="31" t="b">
         <v>0</v>
@@ -34608,6 +33431,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE3626F-D681-4ABD-B02A-5C870438CFCF}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34744,7 +33568,7 @@
       <c r="E5" s="172"/>
       <c r="F5" s="173"/>
       <c r="G5" s="174" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H5" s="173"/>
       <c r="I5" s="173"/>
@@ -34802,7 +33626,7 @@
       <c r="E7" s="177"/>
       <c r="F7" s="173"/>
       <c r="G7" s="179" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
@@ -35056,33 +33880,33 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O16" s="193" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P16" s="191"/>
       <c r="Q16" s="193" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R16" s="191"/>
       <c r="S16" s="193" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T16" s="192"/>
       <c r="U16" s="193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V16" s="190"/>
       <c r="W16" s="176"/>
@@ -35098,34 +33922,34 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O17" s="191" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P17" s="191"/>
       <c r="Q17" s="191" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R17" s="191"/>
       <c r="S17" s="191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T17" s="192"/>
       <c r="U17" s="191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V17" s="190"/>
       <c r="W17" s="176"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C181A69-6433-40B2-B06A-1EEBCCDC9425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4DAF90-CD6F-4E63-9AEB-4857997BFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="3" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -132,8 +132,8 @@
     <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$136</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
     <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
+    <definedName name="i_store_ebw_rep">'Report Settings'!$G$18</definedName>
     <definedName name="i_store_feedbud" localSheetId="3">'Report Settings'!$U$18</definedName>
-    <definedName name="i_store_ffcfw_rep">'Report Settings'!$G$18</definedName>
     <definedName name="i_store_fs_rep" localSheetId="3">'Report Settings'!$M$18</definedName>
     <definedName name="i_store_lw_rep">'Report Settings'!$I$18</definedName>
     <definedName name="i_store_mort" localSheetId="3">'Report Settings'!$S$18</definedName>
@@ -182,9 +182,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -373,7 +371,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -382,7 +380,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 is this landuse baled usually (all landuses can be tactically baled but this is to tell AFO which landuses are meant to be baled i.e. which landuses have yields that are entered at baled)</t>
@@ -2243,7 +2241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="392">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3376,9 +3374,6 @@
     <t>Some arrays used for reporting are vary big so the default is not to store them. This is the default settings which can be overwritten using sensitivity values</t>
   </si>
   <si>
-    <t>FFCFW</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
@@ -3465,17 +3460,6 @@
   </si>
   <si>
     <t>TOL</t>
-  </si>
-  <si>
-    <t>3May23: COnvert chill adjustment scalars for GBAL slices to a formula (still needs work on the 11, 22 &amp; 33 slices)
-17Jun22: Add a chill adjustment scalar with a b1 axis (to scale Property.xlsx!i_chill_adj)
-11Jul21: dvp/fvp updates 
-27Apr21: Split fvp inputs
-25Apr21: Deleted range names i_w1_len &amp; w3
-9Apr21: Fix formatting (box) around k2 cluster definition.
-30Mar21: Added inputs for % dry and number dams mated
-2: 17Jul20-Added structural inputs table
-1: 1Apr19-Created the version control table</t>
   </si>
   <si>
     <t>FVP3 / U0</t>
@@ -3538,6 +3522,23 @@
   <si>
     <t>is baled</t>
   </si>
+  <si>
+    <t>3May23: Convert chill adjustment scalars for GBAL slices to a formula (still needs work on the 11, 22 &amp; 33 slices)
+17Jun22: Add a chill adjustment scalar with a b1 axis (to scale Property.xlsx!i_chill_adj)
+11Jul21: dvp/fvp updates 
+27Apr21: Split fvp inputs
+25Apr21: Deleted range names i_w1_len &amp; w3
+9Apr21: Fix formatting (box) around k2 cluster definition.
+30Mar21: Added inputs for % dry and number dams mated
+2: 17Jul20-Added structural inputs table
+1: 1Apr19-Created the version control table</t>
+  </si>
+  <si>
+    <t>EBW</t>
+  </si>
+  <si>
+    <t>store ebw patterns</t>
+  </si>
 </sst>
 </file>
 
@@ -3549,7 +3550,7 @@
     <numFmt numFmtId="166" formatCode="0.00_)"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3768,19 +3769,6 @@
       <color rgb="FF0000CC"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -6676,7 +6664,7 @@
         <v>44719.411846643503</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -7816,7 +7804,7 @@
         <v>176</v>
       </c>
       <c r="L46" s="97" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8957,7 +8945,7 @@
         <v>311</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
@@ -8965,17 +8953,17 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="161" t="s">
         <v>313</v>
       </c>
       <c r="Q78" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="R78" s="161" t="s">
         <v>374</v>
-      </c>
-      <c r="R78" s="161" t="s">
-        <v>375</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -9012,7 +9000,7 @@
       </c>
       <c r="M79" s="165"/>
       <c r="N79" s="210" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O79" s="165"/>
       <c r="P79" s="162" t="s">
@@ -9096,13 +9084,13 @@
       </c>
       <c r="K81" s="55"/>
       <c r="L81" s="163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M81" s="165"/>
       <c r="N81" s="165"/>
       <c r="O81" s="165"/>
       <c r="P81" s="163" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q81" s="163" t="b">
         <v>0</v>
@@ -9354,7 +9342,7 @@
       </c>
       <c r="K87" s="55"/>
       <c r="L87" s="163" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M87" s="165"/>
       <c r="N87" s="165"/>
@@ -9856,7 +9844,7 @@
       <c r="N99" s="148"/>
       <c r="O99" s="148"/>
       <c r="P99" s="163" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q99" s="163" t="b">
         <v>0</v>
@@ -10869,12 +10857,12 @@
   </sheetPr>
   <dimension ref="A1:AB334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="9" ySplit="10" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -11367,7 +11355,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -11406,7 +11394,7 @@
         <v>44762.449343865701</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -16982,7 +16970,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
       <c r="H156" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -26686,11 +26674,11 @@
   <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
+      <selection pane="bottomRight" activeCell="O99" sqref="O99:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -27188,7 +27176,7 @@
         <v>45076.548888773097</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -27227,7 +27215,7 @@
         <v>45073.683614236099</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -27979,7 +27967,7 @@
       <c r="M35" s="124"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P35" s="124" t="s">
         <v>44</v>
@@ -28055,24 +28043,24 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="156"/>
       <c r="N37" s="156" t="s">
+        <v>377</v>
+      </c>
+      <c r="O37" s="156" t="s">
+        <v>378</v>
+      </c>
+      <c r="P37" s="156" t="s">
         <v>379</v>
       </c>
-      <c r="O37" s="156" t="s">
+      <c r="Q37" s="156" t="s">
         <v>380</v>
       </c>
-      <c r="P37" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q37" s="156" t="s">
+      <c r="R37" s="156" t="s">
         <v>382</v>
-      </c>
-      <c r="R37" s="156" t="s">
-        <v>384</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -28681,7 +28669,7 @@
         <v>208</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -30794,7 +30782,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P102" s="2">
         <v>0.8</v>
@@ -31618,7 +31606,7 @@
       <c r="J125" s="205"/>
       <c r="K125" s="205"/>
       <c r="L125" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M125" s="31" t="b">
         <v>0</v>
@@ -33434,8 +33422,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -33880,33 +33868,33 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O16" s="193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P16" s="191"/>
       <c r="Q16" s="193" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R16" s="191"/>
       <c r="S16" s="193" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T16" s="192"/>
       <c r="U16" s="193" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V16" s="190"/>
       <c r="W16" s="176"/>
@@ -33922,34 +33910,34 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O17" s="191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P17" s="191"/>
       <c r="Q17" s="191" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R17" s="191"/>
       <c r="S17" s="191" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T17" s="192"/>
       <c r="U17" s="191" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V17" s="190"/>
       <c r="W17" s="176"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4DAF90-CD6F-4E63-9AEB-4857997BFD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C1BD3-29B2-48A6-83F6-9C87790A508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="3" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-9405" yWindow="-16365" windowWidth="29040" windowHeight="15720" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -75,11 +75,11 @@
     <definedName name="i_fvp_mask_dams">StructuralSA!$N$43:$R$43</definedName>
     <definedName name="i_fvp_mask_offs">StructuralSA!$J$52:$O$52</definedName>
     <definedName name="i_generate_with_t" localSheetId="2">StructuralSA!$P$121</definedName>
-    <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$114</definedName>
+    <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$108</definedName>
     <definedName name="i_i_pos">Stock!$I$50</definedName>
-    <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$114</definedName>
+    <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$108</definedName>
     <definedName name="i_idx_k1" localSheetId="0">General!$I$79:$I$95</definedName>
-    <definedName name="i_idx_k2" localSheetId="0">General!$L$79:$L$97</definedName>
+    <definedName name="i_idx_k2" localSheetId="0">General!$L$79:$L$91</definedName>
     <definedName name="i_initial_b1">Stock!$L$155:$V$155</definedName>
     <definedName name="i_is_baled_k" localSheetId="0">General!$J$79:$J$95</definedName>
     <definedName name="i_is_dry_b1">Stock!$L$149:$V$149</definedName>
@@ -90,7 +90,7 @@
     <definedName name="i_k5_pos">Stock!$I$53</definedName>
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
-    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$114</definedName>
+    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$108</definedName>
     <definedName name="i_len_f">StructuralSA!$I$157</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
@@ -182,7 +182,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2241,7 +2246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="386">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3263,9 +3268,6 @@
     <t>bd</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -3287,9 +3289,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>jr</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -3299,9 +3298,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>sr</t>
-  </si>
-  <si>
     <t>od</t>
   </si>
   <si>
@@ -3317,9 +3313,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>tr</t>
-  </si>
-  <si>
     <t>rd</t>
   </si>
   <si>
@@ -3335,9 +3328,6 @@
     <t>w</t>
   </si>
   <si>
-    <t>ur</t>
-  </si>
-  <si>
     <t>wd</t>
   </si>
   <si>
@@ -3351,9 +3341,6 @@
   </si>
   <si>
     <t>zd</t>
-  </si>
-  <si>
-    <t>xr</t>
   </si>
   <si>
     <t xml:space="preserve">*These shoud match the landuse arrays in universal.xl and property.xl </t>
@@ -6127,31 +6114,31 @@
   </sheetPr>
   <dimension ref="A1:AT127"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6181,7 +6168,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6214,7 +6201,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6247,7 +6234,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6282,7 +6269,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6353,7 +6340,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6391,7 +6378,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6430,7 +6417,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6463,7 +6450,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6500,7 +6487,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6535,7 +6522,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6572,7 +6559,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6607,7 +6594,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6646,7 +6633,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6664,7 +6651,7 @@
         <v>44719.411846643503</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -6685,7 +6672,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6720,7 +6707,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -6755,7 +6742,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -6802,7 +6789,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -6839,7 +6826,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -6876,7 +6863,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -6913,7 +6900,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -6950,7 +6937,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -6985,7 +6972,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7018,7 +7005,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7053,7 +7040,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7086,7 +7073,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7119,7 +7106,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7152,7 +7139,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7185,7 +7172,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7220,7 +7207,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7253,7 +7240,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7290,7 +7277,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7329,7 +7316,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7362,7 +7349,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7395,7 +7382,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7428,7 +7415,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7461,7 +7448,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7494,7 +7481,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7529,7 +7516,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7562,7 +7549,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7599,7 +7586,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7634,7 +7621,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7675,7 +7662,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7708,7 +7695,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -7747,7 +7734,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -7780,7 +7767,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -7804,7 +7791,7 @@
         <v>176</v>
       </c>
       <c r="L46" s="97" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7823,7 +7810,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -7862,7 +7849,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -7905,7 +7892,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -7946,7 +7933,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -7979,7 +7966,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8016,7 +8003,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8049,7 +8036,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8086,7 +8073,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8119,7 +8106,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8175,7 +8162,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8210,7 +8197,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8243,7 +8230,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8278,7 +8265,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8311,7 +8298,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8344,7 +8331,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8377,7 +8364,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8410,7 +8397,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8445,7 +8432,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8478,7 +8465,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8515,7 +8502,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8554,7 +8541,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8587,7 +8574,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8620,7 +8607,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8653,7 +8640,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8686,7 +8673,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8719,7 +8706,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -8754,7 +8741,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -8787,7 +8774,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -8824,7 +8811,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -8859,7 +8846,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -8875,7 +8862,7 @@
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -8896,7 +8883,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -8929,7 +8916,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -8945,7 +8932,7 @@
         <v>311</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
@@ -8953,17 +8940,17 @@
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="161" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="161" t="s">
         <v>313</v>
       </c>
       <c r="Q78" s="161" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R78" s="161" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -8976,7 +8963,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -9000,7 +8987,7 @@
       </c>
       <c r="M79" s="165"/>
       <c r="N79" s="210" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O79" s="165"/>
       <c r="P79" s="162" t="s">
@@ -9024,7 +9011,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9041,20 +9028,20 @@
       </c>
       <c r="K80" s="55"/>
       <c r="L80" s="163" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="M80" s="165"/>
       <c r="N80" s="209"/>
       <c r="O80" s="165"/>
       <c r="P80" s="163" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="Q80" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R80" s="207" t="str">
-        <f t="shared" ref="R80:R114" si="4">P80</f>
-        <v>ar</v>
+        <f t="shared" ref="R80:R108" si="4">P80</f>
+        <v>a2</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
@@ -9067,7 +9054,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9077,27 +9064,27 @@
       <c r="G81" s="4"/>
       <c r="H81" s="148"/>
       <c r="I81" s="163" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J81" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K81" s="55"/>
       <c r="L81" s="163" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="M81" s="165"/>
       <c r="N81" s="165"/>
       <c r="O81" s="165"/>
       <c r="P81" s="163" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="Q81" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R81" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>a2</v>
+        <v>b</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -9110,7 +9097,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9120,27 +9107,27 @@
       <c r="G82" s="4"/>
       <c r="H82" s="148"/>
       <c r="I82" s="163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J82" s="163" t="b">
         <v>1</v>
       </c>
       <c r="K82" s="55"/>
       <c r="L82" s="163" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M82" s="165"/>
       <c r="N82" s="165"/>
       <c r="O82" s="165"/>
       <c r="P82" s="163" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q82" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R82" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>b</v>
+        <v>bd</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
@@ -9153,7 +9140,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9163,27 +9150,27 @@
       <c r="G83" s="4"/>
       <c r="H83" s="148"/>
       <c r="I83" s="163" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J83" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K83" s="55"/>
       <c r="L83" s="163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M83" s="165"/>
       <c r="N83" s="165"/>
       <c r="O83" s="165"/>
       <c r="P83" s="163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q83" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R83" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>bd</v>
+        <v>f</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -9196,7 +9183,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9206,27 +9193,27 @@
       <c r="G84" s="4"/>
       <c r="H84" s="148"/>
       <c r="I84" s="163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J84" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K84" s="55"/>
       <c r="L84" s="163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M84" s="165"/>
       <c r="N84" s="165"/>
       <c r="O84" s="165"/>
       <c r="P84" s="163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q84" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R84" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>f</v>
+        <v>h</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -9239,7 +9226,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9249,27 +9236,27 @@
       <c r="G85" s="4"/>
       <c r="H85" s="148"/>
       <c r="I85" s="163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J85" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K85" s="55"/>
       <c r="L85" s="163" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M85" s="165"/>
       <c r="N85" s="165"/>
       <c r="O85" s="165"/>
       <c r="P85" s="163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q85" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R85" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>h</v>
+        <v>i</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -9282,7 +9269,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9292,27 +9279,27 @@
       <c r="G86" s="4"/>
       <c r="H86" s="148"/>
       <c r="I86" s="163" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J86" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K86" s="55"/>
       <c r="L86" s="163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M86" s="165"/>
       <c r="N86" s="165"/>
       <c r="O86" s="165"/>
       <c r="P86" s="163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q86" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R86" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>i</v>
+        <v>j</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -9325,7 +9312,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9335,27 +9322,27 @@
       <c r="G87" s="4"/>
       <c r="H87" s="148"/>
       <c r="I87" s="163" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J87" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K87" s="55"/>
       <c r="L87" s="163" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="M87" s="165"/>
       <c r="N87" s="165"/>
       <c r="O87" s="165"/>
       <c r="P87" s="163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q87" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R87" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>j</v>
+        <v>jc</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -9368,7 +9355,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9378,14 +9365,14 @@
       <c r="G88" s="4"/>
       <c r="H88" s="148"/>
       <c r="I88" s="163" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J88" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K88" s="55"/>
       <c r="L88" s="163" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M88" s="165"/>
       <c r="N88" s="165"/>
@@ -9398,7 +9385,7 @@
       </c>
       <c r="R88" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>jc</v>
+        <v>k</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
@@ -9411,7 +9398,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9421,27 +9408,27 @@
       <c r="G89" s="4"/>
       <c r="H89" s="148"/>
       <c r="I89" s="163" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J89" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K89" s="55"/>
       <c r="L89" s="163" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M89" s="165"/>
       <c r="N89" s="165"/>
       <c r="O89" s="165"/>
       <c r="P89" s="163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q89" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R89" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>jr</v>
+        <v>l</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -9454,7 +9441,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9464,27 +9451,27 @@
       <c r="G90" s="4"/>
       <c r="H90" s="148"/>
       <c r="I90" s="163" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J90" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K90" s="55"/>
       <c r="L90" s="163" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M90" s="165"/>
       <c r="N90" s="165"/>
       <c r="O90" s="165"/>
       <c r="P90" s="163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q90" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R90" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>k</v>
+        <v>m</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -9497,7 +9484,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9507,14 +9494,14 @@
       <c r="G91" s="4"/>
       <c r="H91" s="148"/>
       <c r="I91" s="163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J91" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="55"/>
       <c r="L91" s="163" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M91" s="165"/>
       <c r="N91" s="165"/>
@@ -9527,7 +9514,7 @@
       </c>
       <c r="R91" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>o</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9540,7 +9527,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9550,27 +9537,25 @@
       <c r="G92" s="4"/>
       <c r="H92" s="148"/>
       <c r="I92" s="163" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J92" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K92" s="55"/>
-      <c r="L92" s="163" t="s">
-        <v>337</v>
-      </c>
+      <c r="L92" s="53"/>
       <c r="M92" s="165"/>
       <c r="N92" s="165"/>
       <c r="O92" s="165"/>
       <c r="P92" s="163" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q92" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R92" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>od</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
@@ -9583,7 +9568,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9593,27 +9578,25 @@
       <c r="G93" s="4"/>
       <c r="H93" s="148"/>
       <c r="I93" s="163" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J93" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K93" s="55"/>
-      <c r="L93" s="163" t="s">
-        <v>339</v>
-      </c>
+      <c r="L93" s="53"/>
       <c r="M93" s="165"/>
       <c r="N93" s="165"/>
       <c r="O93" s="165"/>
       <c r="P93" s="163" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q93" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R93" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>o</v>
+        <v>of</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -9626,7 +9609,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9636,27 +9619,25 @@
       <c r="G94" s="4"/>
       <c r="H94" s="148"/>
       <c r="I94" s="163" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J94" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K94" s="55"/>
-      <c r="L94" s="163" t="s">
-        <v>341</v>
-      </c>
+      <c r="L94" s="53"/>
       <c r="M94" s="165"/>
       <c r="N94" s="165"/>
       <c r="O94" s="165"/>
       <c r="P94" s="163" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q94" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R94" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>od</v>
+        <v>r</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
@@ -9669,7 +9650,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9679,15 +9660,13 @@
       <c r="G95" s="4"/>
       <c r="H95" s="148"/>
       <c r="I95" s="164" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J95" s="164" t="b">
         <v>0</v>
       </c>
       <c r="K95" s="55"/>
-      <c r="L95" s="163" t="s">
-        <v>343</v>
-      </c>
+      <c r="L95" s="53"/>
       <c r="M95" s="165"/>
       <c r="N95" s="165"/>
       <c r="O95" s="165"/>
@@ -9699,7 +9678,7 @@
       </c>
       <c r="R95" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>of</v>
+        <v>rd</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
@@ -9712,7 +9691,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -9724,21 +9703,19 @@
       <c r="I96" s="53"/>
       <c r="J96" s="53"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="163" t="s">
-        <v>345</v>
-      </c>
+      <c r="L96" s="53"/>
       <c r="M96" s="165"/>
       <c r="N96" s="165"/>
       <c r="O96" s="165"/>
       <c r="P96" s="163" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q96" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R96" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>r</v>
+        <v>s</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -9751,7 +9728,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -9763,21 +9740,19 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="164" t="s">
-        <v>347</v>
-      </c>
+      <c r="L97" s="53"/>
       <c r="M97" s="148"/>
       <c r="N97" s="148"/>
       <c r="O97" s="148"/>
       <c r="P97" s="163" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="Q97" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R97" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>rd</v>
+        <v>sp</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -9790,7 +9765,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -9807,14 +9782,14 @@
       <c r="N98" s="148"/>
       <c r="O98" s="148"/>
       <c r="P98" s="163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q98" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R98" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -9827,7 +9802,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -9844,14 +9819,14 @@
       <c r="N99" s="148"/>
       <c r="O99" s="148"/>
       <c r="P99" s="163" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="Q99" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R99" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>sp</v>
+        <v>tc</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -9864,7 +9839,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -9881,14 +9856,14 @@
       <c r="N100" s="148"/>
       <c r="O100" s="148"/>
       <c r="P100" s="163" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q100" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R100" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>sr</v>
+        <v>u</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -9901,7 +9876,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -9918,14 +9893,14 @@
       <c r="N101" s="148"/>
       <c r="O101" s="148"/>
       <c r="P101" s="163" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q101" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R101" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>t</v>
+        <v>uc</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -9938,7 +9913,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -9955,14 +9930,14 @@
       <c r="N102" s="148"/>
       <c r="O102" s="148"/>
       <c r="P102" s="163" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q102" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R102" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>tc</v>
+        <v>v</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -9975,7 +9950,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -9992,14 +9967,14 @@
       <c r="N103" s="148"/>
       <c r="O103" s="148"/>
       <c r="P103" s="163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q103" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R103" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>tr</v>
+        <v>w</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -10012,7 +9987,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10036,7 +10011,7 @@
       </c>
       <c r="R104" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>u</v>
+        <v>wd</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -10049,7 +10024,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10066,14 +10041,14 @@
       <c r="N105" s="148"/>
       <c r="O105" s="148"/>
       <c r="P105" s="163" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q105" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R105" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>uc</v>
+        <v>x</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -10086,7 +10061,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10103,14 +10078,14 @@
       <c r="N106" s="148"/>
       <c r="O106" s="148"/>
       <c r="P106" s="163" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q106" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R106" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>ur</v>
+        <v>xc</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -10123,7 +10098,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10140,14 +10115,14 @@
       <c r="N107" s="148"/>
       <c r="O107" s="148"/>
       <c r="P107" s="163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q107" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R107" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>z</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -10160,7 +10135,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10176,15 +10151,15 @@
       <c r="M108" s="148"/>
       <c r="N108" s="148"/>
       <c r="O108" s="148"/>
-      <c r="P108" s="163" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q108" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R108" s="207" t="str">
+      <c r="P108" s="164" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q108" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="R108" s="208" t="str">
         <f t="shared" si="4"/>
-        <v>w</v>
+        <v>zd</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10197,7 +10172,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10213,16 +10188,9 @@
       <c r="M109" s="148"/>
       <c r="N109" s="148"/>
       <c r="O109" s="148"/>
-      <c r="P109" s="163" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q109" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R109" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>wd</v>
-      </c>
+      <c r="P109" s="205"/>
+      <c r="Q109" s="205"/>
+      <c r="R109" s="205"/>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -10234,7 +10202,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10253,16 +10221,9 @@
       <c r="M110" s="148"/>
       <c r="N110" s="148"/>
       <c r="O110" s="148"/>
-      <c r="P110" s="163" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q110" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R110" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>x</v>
-      </c>
+      <c r="P110" s="205"/>
+      <c r="Q110" s="205"/>
+      <c r="R110" s="205"/>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
@@ -10274,7 +10235,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10293,16 +10254,9 @@
       <c r="M111" s="148"/>
       <c r="N111" s="148"/>
       <c r="O111" s="148"/>
-      <c r="P111" s="163" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q111" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R111" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>xc</v>
-      </c>
+      <c r="P111" s="205"/>
+      <c r="Q111" s="205"/>
+      <c r="R111" s="205"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
@@ -10314,7 +10268,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10333,16 +10287,9 @@
       <c r="M112" s="148"/>
       <c r="N112" s="148"/>
       <c r="O112" s="148"/>
-      <c r="P112" s="163" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q112" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R112" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>xr</v>
-      </c>
+      <c r="P112" s="205"/>
+      <c r="Q112" s="205"/>
+      <c r="R112" s="205"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
@@ -10354,7 +10301,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10373,16 +10320,9 @@
       <c r="M113" s="148"/>
       <c r="N113" s="148"/>
       <c r="O113" s="148"/>
-      <c r="P113" s="163" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q113" s="163" t="b">
-        <v>0</v>
-      </c>
-      <c r="R113" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>z</v>
-      </c>
+      <c r="P113" s="205"/>
+      <c r="Q113" s="205"/>
+      <c r="R113" s="205"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -10394,7 +10334,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10413,16 +10353,9 @@
       <c r="M114" s="148"/>
       <c r="N114" s="148"/>
       <c r="O114" s="148"/>
-      <c r="P114" s="164" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q114" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="R114" s="208" t="str">
-        <f t="shared" si="4"/>
-        <v>zd</v>
-      </c>
+      <c r="P114" s="205"/>
+      <c r="Q114" s="205"/>
+      <c r="R114" s="205"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -10451,7 +10384,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10486,7 +10419,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10519,7 +10452,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10554,7 +10487,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10587,7 +10520,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10620,7 +10553,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10653,7 +10586,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10683,7 +10616,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10713,7 +10646,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10743,7 +10676,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10773,7 +10706,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -10803,7 +10736,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -10833,7 +10766,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -10865,23 +10798,23 @@
       <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -10911,7 +10844,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -10944,7 +10877,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -10977,7 +10910,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -11012,7 +10945,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11083,7 +11016,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11121,7 +11054,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11160,7 +11093,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11193,7 +11126,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11230,7 +11163,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11265,7 +11198,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11302,7 +11235,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11337,7 +11270,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11355,7 +11288,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -11376,7 +11309,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11394,7 +11327,7 @@
         <v>44762.449343865701</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -11415,7 +11348,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11450,7 +11383,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11485,7 +11418,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11532,7 +11465,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11569,7 +11502,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11606,7 +11539,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11643,7 +11576,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11680,7 +11613,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11715,7 +11648,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11748,7 +11681,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -11783,7 +11716,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -11816,7 +11749,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -11849,7 +11782,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -11882,7 +11815,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -11915,7 +11848,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -11950,7 +11883,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -11983,7 +11916,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -12020,7 +11953,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -12057,7 +11990,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12090,7 +12023,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12123,7 +12056,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12156,7 +12089,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12189,7 +12122,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12222,7 +12155,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12257,7 +12190,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12290,7 +12223,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12327,7 +12260,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12362,7 +12295,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12401,7 +12334,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12438,7 +12371,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12475,7 +12408,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12512,7 +12445,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12549,7 +12482,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12586,7 +12519,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12623,7 +12556,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12660,7 +12593,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12697,7 +12630,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12734,7 +12667,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12771,7 +12704,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -12808,7 +12741,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -12845,7 +12778,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -12882,7 +12815,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -12921,7 +12854,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -12958,7 +12891,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -12995,7 +12928,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -13032,7 +12965,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -13065,7 +12998,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13102,7 +13035,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13139,7 +13072,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13180,7 +13113,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13221,7 +13154,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13254,7 +13187,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13293,7 +13226,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13326,7 +13259,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13361,7 +13294,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13402,7 +13335,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13443,7 +13376,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13476,7 +13409,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13513,7 +13446,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13546,7 +13479,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13581,7 +13514,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13614,7 +13547,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13649,7 +13582,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13682,7 +13615,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13715,7 +13648,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13748,7 +13681,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13781,7 +13714,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -13816,7 +13749,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -13849,7 +13782,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -13886,7 +13819,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -13923,7 +13856,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -13956,7 +13889,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -13989,7 +13922,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -14022,7 +13955,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -14061,7 +13994,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14110,7 +14043,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14145,7 +14078,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14178,7 +14111,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14215,7 +14148,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14250,7 +14183,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14303,7 +14236,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14354,7 +14287,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14405,7 +14338,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14438,7 +14371,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14489,7 +14422,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14538,7 +14471,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14587,7 +14520,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14636,7 +14569,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14669,7 +14602,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14720,7 +14653,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14769,7 +14702,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -14818,7 +14751,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -14867,7 +14800,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -14900,7 +14833,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -14951,7 +14884,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -15000,7 +14933,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -15049,7 +14982,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15098,7 +15031,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15131,7 +15064,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15166,7 +15099,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15207,7 +15140,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15255,7 +15188,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15301,7 +15234,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15344,7 +15277,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15377,7 +15310,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15424,7 +15357,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15469,7 +15402,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15512,7 +15445,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15545,7 +15478,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15580,7 +15513,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15613,7 +15546,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15648,7 +15581,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15681,7 +15614,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15714,7 +15647,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15747,7 +15680,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15780,7 +15713,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -15815,7 +15748,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -15848,7 +15781,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -15885,7 +15818,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -15922,7 +15855,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -15955,7 +15888,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -15988,7 +15921,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -16023,7 +15956,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -16058,7 +15991,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16113,7 +16046,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16148,7 +16081,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16203,7 +16136,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16240,7 +16173,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16275,7 +16208,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16310,7 +16243,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16349,7 +16282,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16408,7 +16341,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16465,7 +16398,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16502,7 +16435,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16559,7 +16492,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16616,7 +16549,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16673,7 +16606,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16730,7 +16663,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -16787,7 +16720,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -16844,7 +16777,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -16901,7 +16834,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -16958,7 +16891,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -16970,7 +16903,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
       <c r="H156" s="64" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -17021,7 +16954,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -17054,7 +16987,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -17114,7 +17047,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17149,7 +17082,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17200,7 +17133,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17263,7 +17196,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17324,7 +17257,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17383,7 +17316,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17442,7 +17375,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17501,7 +17434,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17562,7 +17495,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17623,7 +17556,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17682,7 +17615,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17741,7 +17674,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -17800,7 +17733,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -17861,7 +17794,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -17922,7 +17855,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -17981,7 +17914,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -18038,7 +17971,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -18097,7 +18030,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18158,7 +18091,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18219,7 +18152,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18278,7 +18211,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18337,7 +18270,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18396,7 +18329,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18459,7 +18392,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18518,7 +18451,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18577,7 +18510,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18634,7 +18567,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18691,7 +18624,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18750,7 +18683,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -18807,7 +18740,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -18864,7 +18797,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -18921,7 +18854,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -18978,7 +18911,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -19037,7 +18970,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19094,7 +19027,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19151,7 +19084,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19208,7 +19141,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19265,7 +19198,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19324,7 +19257,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19381,7 +19314,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19438,7 +19371,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19495,7 +19428,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19552,7 +19485,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19585,7 +19518,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19645,7 +19578,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19713,7 +19646,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19781,7 +19714,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -19816,7 +19749,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -19867,7 +19800,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -19939,7 +19872,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -20012,7 +19945,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20079,7 +20012,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20148,7 +20081,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20217,7 +20150,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20288,7 +20221,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20359,7 +20292,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20426,7 +20359,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20493,7 +20426,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20560,7 +20493,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20629,7 +20562,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20698,7 +20631,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20765,7 +20698,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -20832,7 +20765,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -20899,7 +20832,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -20968,7 +20901,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -21037,7 +20970,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21104,7 +21037,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21171,7 +21104,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21238,7 +21171,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21308,7 +21241,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21375,7 +21308,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21438,7 +21371,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21501,7 +21434,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21568,7 +21501,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21637,7 +21570,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21704,7 +21637,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21771,7 +21704,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -21838,7 +21771,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -21905,7 +21838,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -21974,7 +21907,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -22041,7 +21974,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22108,7 +22041,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22175,7 +22108,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22242,7 +22175,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22311,7 +22244,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22378,7 +22311,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22445,7 +22378,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22512,7 +22445,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22579,7 +22512,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22650,7 +22583,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22719,7 +22652,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -22786,7 +22719,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -22853,7 +22786,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -22920,7 +22853,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -22989,7 +22922,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -23056,7 +22989,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23123,7 +23056,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23190,7 +23123,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23257,7 +23190,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23316,7 +23249,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23378,7 +23311,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23439,7 +23372,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23499,7 +23432,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23566,7 +23499,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23631,7 +23564,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23693,7 +23626,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23753,7 +23686,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -23810,7 +23743,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -23877,7 +23810,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -23910,7 +23843,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -23966,7 +23899,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -24019,7 +23952,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24072,7 +24005,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24107,7 +24040,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24157,7 +24090,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24215,7 +24148,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24273,7 +24206,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24326,7 +24259,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24378,7 +24311,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24433,7 +24366,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24487,7 +24420,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24541,7 +24474,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24591,7 +24524,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24641,7 +24574,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24694,7 +24627,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24748,7 +24681,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -24802,7 +24735,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -24852,7 +24785,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -24902,7 +24835,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -24955,7 +24888,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -25007,7 +24940,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -25059,7 +24992,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25108,7 +25041,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25155,7 +25088,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25208,7 +25141,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25241,7 +25174,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25274,7 +25207,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25309,7 +25242,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25342,7 +25275,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25375,7 +25308,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25410,7 +25343,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25443,7 +25376,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25480,7 +25413,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25517,7 +25450,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25550,7 +25483,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25583,7 +25516,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25628,7 +25561,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25667,7 +25600,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25706,7 +25639,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25755,7 +25688,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -25788,7 +25721,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -25825,7 +25758,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -25860,7 +25793,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -25895,7 +25828,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -25936,7 +25869,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -25977,7 +25910,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -26018,7 +25951,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -26051,7 +25984,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26084,7 +26017,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26123,7 +26056,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26167,7 +26100,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26200,7 +26133,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26233,7 +26166,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26266,7 +26199,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26301,7 +26234,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="73">
@@ -26334,7 +26267,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="76">
@@ -26369,7 +26302,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="19"/>
       <c r="C325" s="77">
@@ -26402,7 +26335,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26435,7 +26368,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="73">
@@ -26468,7 +26401,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26498,7 +26431,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26528,7 +26461,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26558,7 +26491,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26588,7 +26521,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26618,7 +26551,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="66"/>
@@ -26648,7 +26581,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C334" s="72" t="s">
         <v>4</v>
       </c>
@@ -26681,28 +26614,28 @@
       <selection pane="bottomRight" activeCell="O99" sqref="O99:O101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="14" width="11.26953125" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26732,7 +26665,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26765,7 +26698,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26798,7 +26731,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -26833,7 +26766,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -26904,7 +26837,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -26942,7 +26875,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -26981,7 +26914,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -27014,7 +26947,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -27051,7 +26984,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27086,7 +27019,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27123,7 +27056,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27158,7 +27091,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27176,7 +27109,7 @@
         <v>45076.548888773097</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -27197,7 +27130,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27215,7 +27148,7 @@
         <v>45073.683614236099</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -27236,7 +27169,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27271,7 +27204,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27306,7 +27239,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27353,7 +27286,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27390,7 +27323,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27427,7 +27360,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27464,7 +27397,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27501,7 +27434,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27536,7 +27469,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27569,7 +27502,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27604,7 +27537,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27637,7 +27570,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27670,7 +27603,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27703,7 +27636,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27736,7 +27669,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27771,7 +27704,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27804,7 +27737,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -27841,7 +27774,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -27878,7 +27811,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -27911,7 +27844,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -27944,7 +27877,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -27967,7 +27900,7 @@
       <c r="M35" s="124"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P35" s="124" t="s">
         <v>44</v>
@@ -27985,7 +27918,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -28028,7 +27961,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28043,24 +27976,24 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="156"/>
       <c r="N37" s="156" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="O37" s="156" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P37" s="156" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q37" s="156" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="R37" s="156" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -28073,7 +28006,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28114,7 +28047,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28147,7 +28080,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28184,7 +28117,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28219,7 +28152,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28254,7 +28187,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28299,7 +28232,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28344,7 +28277,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28405,7 +28338,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28466,7 +28399,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28527,7 +28460,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28560,7 +28493,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28593,7 +28526,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28640,7 +28573,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28669,7 +28602,7 @@
         <v>208</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -28685,7 +28618,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -28732,7 +28665,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -28779,7 +28712,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73"/>
@@ -28826,7 +28759,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73"/>
@@ -28873,7 +28806,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73"/>
@@ -28920,7 +28853,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73"/>
@@ -28950,7 +28883,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28983,7 +28916,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -29018,7 +28951,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -29051,7 +28984,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="35"/>
       <c r="C61" s="76">
@@ -29086,7 +29019,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="77">
@@ -29119,7 +29052,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="73">
@@ -29152,7 +29085,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="73">
@@ -29185,7 +29118,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="20"/>
       <c r="C65" s="74">
@@ -29218,7 +29151,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="34" t="s">
         <v>21</v>
@@ -29253,7 +29186,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29286,7 +29219,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -29323,7 +29256,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29360,7 +29293,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29393,7 +29326,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29426,7 +29359,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29465,7 +29398,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29504,7 +29437,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29547,7 +29480,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33" t="s">
         <v>20</v>
@@ -29588,7 +29521,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29621,7 +29554,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33" t="s">
         <v>19</v>
@@ -29658,7 +29591,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29693,7 +29626,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29740,7 +29673,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29782,7 +29715,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29823,7 +29756,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -29866,7 +29799,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -29907,7 +29840,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -29942,7 +29875,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -29977,7 +29910,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -30030,7 +29963,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30085,7 +30018,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30134,7 +30067,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -30183,7 +30116,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73">
@@ -30232,7 +30165,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -30281,7 +30214,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73">
@@ -30330,7 +30263,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -30379,7 +30312,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -30428,7 +30361,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30463,7 +30396,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30498,7 +30431,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30539,7 +30472,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30596,7 +30529,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30657,7 +30590,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30710,7 +30643,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30763,7 +30696,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30782,7 +30715,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P102" s="2">
         <v>0.8</v>
@@ -30810,7 +30743,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -30845,7 +30778,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30878,7 +30811,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="35"/>
       <c r="C105" s="76">
@@ -30913,7 +30846,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="19"/>
       <c r="C106" s="77">
@@ -30946,7 +30879,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="73">
@@ -30979,7 +30912,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="73">
@@ -31012,7 +30945,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="20"/>
       <c r="C109" s="74">
@@ -31045,7 +30978,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="34" t="s">
         <v>21</v>
@@ -31080,7 +31013,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31113,7 +31046,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31150,7 +31083,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31187,7 +31120,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31220,7 +31153,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -31253,7 +31186,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33" t="s">
         <v>20</v>
@@ -31294,7 +31227,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -31327,7 +31260,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33" t="s">
         <v>19</v>
@@ -31364,7 +31297,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -31399,7 +31332,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -31431,7 +31364,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="26" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="U120" s="31" t="b">
         <v>0</v>
@@ -31444,7 +31377,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -31460,7 +31393,7 @@
       <c r="J121" s="36"/>
       <c r="K121" s="36"/>
       <c r="L121" s="26" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M121" s="31">
         <v>0</v>
@@ -31485,7 +31418,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -31526,7 +31459,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -31542,7 +31475,7 @@
       <c r="J123" s="148"/>
       <c r="K123" s="148"/>
       <c r="L123" s="26" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M123" s="31">
         <v>0</v>
@@ -31563,7 +31496,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73"/>
@@ -31593,7 +31526,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="73"/>
@@ -31606,7 +31539,7 @@
       <c r="J125" s="205"/>
       <c r="K125" s="205"/>
       <c r="L125" s="26" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M125" s="31" t="b">
         <v>0</v>
@@ -31627,7 +31560,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="73">
@@ -31662,7 +31595,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
@@ -31697,7 +31630,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
@@ -31734,7 +31667,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
@@ -31773,7 +31706,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
@@ -31812,7 +31745,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -31851,7 +31784,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -31890,7 +31823,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -31929,7 +31862,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -31968,7 +31901,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -32007,7 +31940,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -32046,7 +31979,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -32079,7 +32012,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -32112,7 +32045,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
@@ -32147,7 +32080,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -32180,7 +32113,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="35"/>
       <c r="C141" s="76">
@@ -32215,7 +32148,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="19"/>
       <c r="C142" s="77">
@@ -32248,7 +32181,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="73">
@@ -32281,7 +32214,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="73">
@@ -32314,7 +32247,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="20"/>
       <c r="C145" s="74">
@@ -32347,7 +32280,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="34" t="s">
         <v>21</v>
@@ -32382,7 +32315,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -32415,7 +32348,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -32452,7 +32385,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -32491,7 +32424,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -32524,7 +32457,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -32559,7 +32492,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -32612,7 +32545,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33" t="s">
         <v>20</v>
@@ -32647,7 +32580,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -32680,7 +32613,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33" t="s">
         <v>19</v>
@@ -32717,7 +32650,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -32752,7 +32685,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -32791,7 +32724,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -32824,7 +32757,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -32859,7 +32792,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -32914,7 +32847,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -32969,7 +32902,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -33002,7 +32935,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -33035,7 +32968,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -33070,7 +33003,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -33103,7 +33036,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="35"/>
       <c r="C166" s="76">
@@ -33138,7 +33071,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="19"/>
       <c r="C167" s="77">
@@ -33171,7 +33104,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="73">
@@ -33204,7 +33137,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="66"/>
@@ -33234,7 +33167,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="66"/>
@@ -33264,7 +33197,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="66"/>
@@ -33294,7 +33227,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="66"/>
@@ -33324,7 +33257,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="66"/>
@@ -33354,7 +33287,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="66"/>
@@ -33384,7 +33317,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C175" s="72" t="s">
         <v>4</v>
       </c>
@@ -33422,21 +33355,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="166"/>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -33464,7 +33397,7 @@
       <c r="Y1" s="168"/>
       <c r="Z1" s="168"/>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="166"/>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -33492,7 +33425,7 @@
       <c r="Y2" s="167"/>
       <c r="Z2" s="167"/>
     </row>
-    <row r="3" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="166"/>
       <c r="B3" s="167"/>
       <c r="C3" s="167"/>
@@ -33520,7 +33453,7 @@
       <c r="Y3" s="167"/>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="169"/>
@@ -33548,7 +33481,7 @@
       <c r="Y4" s="168"/>
       <c r="Z4" s="168"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="166"/>
       <c r="B5" s="167"/>
       <c r="C5" s="172"/>
@@ -33556,7 +33489,7 @@
       <c r="E5" s="172"/>
       <c r="F5" s="173"/>
       <c r="G5" s="174" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H5" s="173"/>
       <c r="I5" s="173"/>
@@ -33578,7 +33511,7 @@
       <c r="Y5" s="168"/>
       <c r="Z5" s="168"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="166"/>
       <c r="B6" s="167"/>
       <c r="C6" s="172"/>
@@ -33606,7 +33539,7 @@
       <c r="Y6" s="168"/>
       <c r="Z6" s="168"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="166"/>
       <c r="B7" s="167"/>
       <c r="C7" s="177"/>
@@ -33614,7 +33547,7 @@
       <c r="E7" s="177"/>
       <c r="F7" s="173"/>
       <c r="G7" s="179" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
@@ -33636,7 +33569,7 @@
       <c r="Y7" s="168"/>
       <c r="Z7" s="168"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="180"/>
@@ -33664,7 +33597,7 @@
       <c r="Y8" s="168"/>
       <c r="Z8" s="168"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="166"/>
       <c r="B9" s="167"/>
       <c r="C9" s="177"/>
@@ -33692,7 +33625,7 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="168"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="177"/>
@@ -33720,7 +33653,7 @@
       <c r="Y10" s="168"/>
       <c r="Z10" s="168"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="177"/>
@@ -33748,7 +33681,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="177"/>
@@ -33776,7 +33709,7 @@
       <c r="Y12" s="168"/>
       <c r="Z12" s="168"/>
     </row>
-    <row r="13" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="177"/>
@@ -33804,7 +33737,7 @@
       <c r="Y13" s="168"/>
       <c r="Z13" s="168"/>
     </row>
-    <row r="14" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="177"/>
@@ -33832,7 +33765,7 @@
       <c r="Y14" s="168"/>
       <c r="Z14" s="168"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="177"/>
@@ -33860,7 +33793,7 @@
       <c r="Y15" s="168"/>
       <c r="Z15" s="168"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="177"/>
@@ -33868,33 +33801,33 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O16" s="193" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P16" s="191"/>
       <c r="Q16" s="193" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="R16" s="191"/>
       <c r="S16" s="193" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="T16" s="192"/>
       <c r="U16" s="193" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="V16" s="190"/>
       <c r="W16" s="176"/>
@@ -33902,7 +33835,7 @@
       <c r="Y16" s="168"/>
       <c r="Z16" s="168"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="177"/>
@@ -33910,34 +33843,34 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O17" s="191" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P17" s="191"/>
       <c r="Q17" s="191" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="R17" s="191"/>
       <c r="S17" s="191" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="T17" s="192"/>
       <c r="U17" s="191" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="V17" s="190"/>
       <c r="W17" s="176"/>
@@ -33945,7 +33878,7 @@
       <c r="Y17" s="168"/>
       <c r="Z17" s="168"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="166"/>
       <c r="B18" s="167"/>
       <c r="C18" s="177"/>
@@ -33987,7 +33920,7 @@
       <c r="Y18" s="168"/>
       <c r="Z18" s="168"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="177"/>
@@ -34015,7 +33948,7 @@
       <c r="Y19" s="168"/>
       <c r="Z19" s="168"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="166"/>
       <c r="B20" s="167"/>
       <c r="C20" s="177"/>
@@ -34043,7 +33976,7 @@
       <c r="Y20" s="168"/>
       <c r="Z20" s="168"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="177"/>
@@ -34071,7 +34004,7 @@
       <c r="Y21" s="168"/>
       <c r="Z21" s="168"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="177"/>
@@ -34099,7 +34032,7 @@
       <c r="Y22" s="168"/>
       <c r="Z22" s="168"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="177"/>
@@ -34127,7 +34060,7 @@
       <c r="Y23" s="168"/>
       <c r="Z23" s="168"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="177"/>
@@ -34155,7 +34088,7 @@
       <c r="Y24" s="168"/>
       <c r="Z24" s="168"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="177"/>
@@ -34183,7 +34116,7 @@
       <c r="Y25" s="168"/>
       <c r="Z25" s="168"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="177"/>
@@ -34211,7 +34144,7 @@
       <c r="Y26" s="168"/>
       <c r="Z26" s="168"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="177"/>
@@ -34239,7 +34172,7 @@
       <c r="Y27" s="168"/>
       <c r="Z27" s="168"/>
     </row>
-    <row r="28" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="177"/>
@@ -34267,7 +34200,7 @@
       <c r="Y28" s="168"/>
       <c r="Z28" s="168"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="200"/>
@@ -34295,7 +34228,7 @@
       <c r="Y29" s="168"/>
       <c r="Z29" s="168"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -34323,7 +34256,7 @@
       <c r="Y30" s="168"/>
       <c r="Z30" s="168"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -34369,22 +34302,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="28" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -34416,7 +34349,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -34451,7 +34384,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -34486,7 +34419,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -34523,7 +34456,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -34600,7 +34533,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -34640,7 +34573,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -34681,7 +34614,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -34716,7 +34649,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -34751,7 +34684,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -34786,7 +34719,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -34821,7 +34754,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -34860,7 +34793,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -34897,7 +34830,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -34932,7 +34865,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -34971,7 +34904,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -35008,7 +34941,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -35045,7 +34978,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -35086,7 +35019,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -35121,7 +35054,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -35156,7 +35089,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -35197,7 +35130,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -35232,7 +35165,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -35267,7 +35200,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -35304,7 +35237,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -35341,7 +35274,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -35390,7 +35323,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -35429,7 +35362,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -35468,7 +35401,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -35507,7 +35440,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -35546,7 +35479,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -35583,7 +35516,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -35620,7 +35553,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="67">
@@ -35681,7 +35614,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="67">
@@ -35746,7 +35679,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="67">
@@ -35781,7 +35714,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="67">
@@ -35816,7 +35749,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="67">
@@ -35851,7 +35784,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="67">
@@ -35888,7 +35821,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="67">
@@ -35923,7 +35856,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="70">
@@ -35960,7 +35893,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="71">
@@ -35995,7 +35928,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="67">
@@ -36030,7 +35963,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="66"/>
@@ -36062,7 +35995,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="66"/>
@@ -36094,7 +36027,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="66"/>
@@ -36126,7 +36059,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="66"/>
@@ -36158,7 +36091,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="66"/>
@@ -36190,7 +36123,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="66"/>
@@ -36222,7 +36155,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="72" t="s">
         <v>4</v>
       </c>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C1BD3-29B2-48A6-83F6-9C87790A508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045A229-DE11-4F79-8576-24430D5323F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9405" yWindow="-16365" windowWidth="29040" windowHeight="15720" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -126,10 +126,10 @@
     <definedName name="i_prejoin_offset">Stock!$I$66</definedName>
     <definedName name="i_progeny_w2_len">StructuralSA!$Q$79</definedName>
     <definedName name="i_r2adjust_inc">StructuralSA!$U$120</definedName>
-    <definedName name="i_rev_create" localSheetId="2">StructuralSA!$I$120</definedName>
     <definedName name="i_rev_number" localSheetId="2">StructuralSA!$I$122</definedName>
-    <definedName name="i_rev_trait_inc" localSheetId="2">StructuralSA!$I$129:$I$136</definedName>
     <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$136</definedName>
+    <definedName name="i_rev_trait_scenario" localSheetId="2">StructuralSA!$I$129:$I$136</definedName>
+    <definedName name="i_rev_update" localSheetId="2">StructuralSA!$I$120</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
     <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
     <definedName name="i_store_ebw_rep">'Report Settings'!$G$18</definedName>
@@ -174,7 +174,7 @@
     <definedName name="ZA.WidthCol" localSheetId="4">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="4">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,12 +182,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1874,7 +1871,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Michael Young (21512438):</t>
+          <t>Michael Young:</t>
         </r>
         <r>
           <rPr>
@@ -1884,7 +1881,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This is to colntrol which trial generates the std rev values.</t>
+This is to control whether a trial is used to update the standard variable values in the specified REV scenario.</t>
         </r>
       </text>
     </comment>
@@ -2093,7 +2090,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Michael Young (21512438):</t>
+          <t>Michael Young:</t>
         </r>
         <r>
           <rPr>
@@ -2103,7 +2100,34 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-These can be controlled using SAV. When true these traits will be updated with the values from the std trial.</t>
+These are the traits that can be held constant for REV calculations. Production levels can be defined for multiple scenarios and held at these levels when calculating REV of other traits. 
+The scenario can be controlled using SAV. 
+A scenario value of 0 is don't use or update the value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I128" authorId="1" shapeId="0" xr:uid="{533029ED-41A1-487B-BDF7-AC2146E10D21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Scenario = 0 is don't override the production value, and don't update if rev_update is TRUE.
+A value other than 0 is hold production as stored for that scenario, or update the scenario if rev_update is TRUE.</t>
         </r>
       </text>
     </comment>
@@ -3037,13 +3061,7 @@
     <t>Initial lw 3</t>
   </si>
   <si>
-    <t>rev_create</t>
-  </si>
-  <si>
     <t>rev_number</t>
-  </si>
-  <si>
-    <t>Trait included in REV</t>
   </si>
   <si>
     <t>Trait name</t>
@@ -3472,7 +3490,46 @@
     <t>FVP7 / U4</t>
   </si>
   <si>
-    <t>30May23: Add extra user FVP to represent the preg tox period.
+    <t>CS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>store fat score</t>
+  </si>
+  <si>
+    <t>store condition score</t>
+  </si>
+  <si>
+    <t>is baled</t>
+  </si>
+  <si>
+    <t>3May23: Convert chill adjustment scalars for GBAL slices to a formula (still needs work on the 11, 22 &amp; 33 slices)
+17Jun22: Add a chill adjustment scalar with a b1 axis (to scale Property.xlsx!i_chill_adj)
+11Jul21: dvp/fvp updates 
+27Apr21: Split fvp inputs
+25Apr21: Deleted range names i_w1_len &amp; w3
+9Apr21: Fix formatting (box) around k2 cluster definition.
+30Mar21: Added inputs for % dry and number dams mated
+2: 17Jul20-Added structural inputs table
+1: 1Apr19-Created the version control table</t>
+  </si>
+  <si>
+    <t>EBW</t>
+  </si>
+  <si>
+    <t>store ebw patterns</t>
+  </si>
+  <si>
+    <t>rev_update</t>
+  </si>
+  <si>
+    <t>REV scenario</t>
+  </si>
+  <si>
+    <t>22Jan24: Change rev_create to rev_update, and rev_trait_inc to rev_trait_scenario
+30May23: Add extra user FVP to represent the preg tox period.
 27May23: Fix the FVP period numbers defining U0 as weaning
 20Jun22: Add extra user defined FVPs
 17Mar22: Add fs_create_number so that the fs optimisatin steps can be examined
@@ -3494,38 +3551,6 @@
                    Moved FVP &amp; N inputs from Stock
 1: 1Apr19-Created the version control table</t>
   </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>store fat score</t>
-  </si>
-  <si>
-    <t>store condition score</t>
-  </si>
-  <si>
-    <t>is baled</t>
-  </si>
-  <si>
-    <t>3May23: Convert chill adjustment scalars for GBAL slices to a formula (still needs work on the 11, 22 &amp; 33 slices)
-17Jun22: Add a chill adjustment scalar with a b1 axis (to scale Property.xlsx!i_chill_adj)
-11Jul21: dvp/fvp updates 
-27Apr21: Split fvp inputs
-25Apr21: Deleted range names i_w1_len &amp; w3
-9Apr21: Fix formatting (box) around k2 cluster definition.
-30Mar21: Added inputs for % dry and number dams mated
-2: 17Jul20-Added structural inputs table
-1: 1Apr19-Created the version control table</t>
-  </si>
-  <si>
-    <t>EBW</t>
-  </si>
-  <si>
-    <t>store ebw patterns</t>
-  </si>
 </sst>
 </file>
 
@@ -3537,7 +3562,7 @@
     <numFmt numFmtId="166" formatCode="0.00_)"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3756,6 +3781,19 @@
       <color rgb="FF0000CC"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -6114,7 +6152,7 @@
   </sheetPr>
   <dimension ref="A1:AT127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="9" ySplit="10" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
@@ -6122,23 +6160,23 @@
       <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6168,7 +6206,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6201,7 +6239,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6234,7 +6272,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6269,7 +6307,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6340,7 +6378,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6378,7 +6416,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6417,7 +6455,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6450,7 +6488,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6463,7 +6501,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>5</v>
@@ -6487,7 +6525,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6522,7 +6560,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6559,7 +6597,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6594,7 +6632,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6612,7 +6650,7 @@
         <v>44371.659649305599</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -6633,7 +6671,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6651,7 +6689,7 @@
         <v>44719.411846643503</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -6672,7 +6710,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6707,7 +6745,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -6742,7 +6780,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -6789,7 +6827,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -6826,7 +6864,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -6863,7 +6901,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -6900,7 +6938,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -6937,7 +6975,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -6972,7 +7010,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7005,7 +7043,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7040,7 +7078,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7073,7 +7111,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7106,7 +7144,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7139,7 +7177,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7172,7 +7210,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7207,7 +7245,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7240,7 +7278,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7277,7 +7315,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7316,7 +7354,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7349,7 +7387,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7382,7 +7420,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7415,7 +7453,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7448,7 +7486,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7481,7 +7519,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7516,7 +7554,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7549,7 +7587,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7586,7 +7624,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7621,7 +7659,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7662,7 +7700,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7695,7 +7733,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -7734,7 +7772,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -7767,7 +7805,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -7791,7 +7829,7 @@
         <v>176</v>
       </c>
       <c r="L46" s="97" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7810,7 +7848,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -7849,7 +7887,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -7870,7 +7908,7 @@
         <v>180</v>
       </c>
       <c r="K48" s="97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L48" s="97" t="s">
         <v>181</v>
@@ -7892,7 +7930,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -7933,7 +7971,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -7966,7 +8004,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8003,7 +8041,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8036,7 +8074,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8073,7 +8111,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8106,7 +8144,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8118,13 +8156,13 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I55" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="J55" s="97" t="s">
         <v>303</v>
-      </c>
-      <c r="I55" s="97" t="s">
-        <v>304</v>
-      </c>
-      <c r="J55" s="97" t="s">
-        <v>305</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -8162,7 +8200,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8197,7 +8235,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8230,7 +8268,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8265,7 +8303,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8298,7 +8336,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8331,7 +8369,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8364,7 +8402,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8397,7 +8435,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8432,7 +8470,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8465,7 +8503,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8502,7 +8540,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8541,7 +8579,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8574,7 +8612,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8607,7 +8645,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8640,7 +8678,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8673,7 +8711,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8706,7 +8744,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -8741,7 +8779,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -8774,7 +8812,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -8811,7 +8849,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -8846,7 +8884,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -8858,11 +8896,11 @@
       <c r="F76" s="5"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -8883,7 +8921,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -8916,7 +8954,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -8929,28 +8967,28 @@
       <c r="G78" s="4"/>
       <c r="H78" s="2"/>
       <c r="I78" s="161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="161" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q78" s="161" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R78" s="161" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
@@ -8963,7 +9001,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -8976,22 +9014,22 @@
       <c r="G79" s="4"/>
       <c r="H79" s="148"/>
       <c r="I79" s="162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J79" s="162" t="b">
         <v>0</v>
       </c>
       <c r="K79" s="55"/>
       <c r="L79" s="162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M79" s="165"/>
       <c r="N79" s="210" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O79" s="165"/>
       <c r="P79" s="162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q79" s="162" t="b">
         <v>0</v>
@@ -9011,7 +9049,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9021,20 +9059,20 @@
       <c r="G80" s="4"/>
       <c r="H80" s="148"/>
       <c r="I80" s="163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J80" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K80" s="55"/>
       <c r="L80" s="163" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M80" s="165"/>
       <c r="N80" s="209"/>
       <c r="O80" s="165"/>
       <c r="P80" s="163" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q80" s="163" t="b">
         <v>0</v>
@@ -9054,7 +9092,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9064,20 +9102,20 @@
       <c r="G81" s="4"/>
       <c r="H81" s="148"/>
       <c r="I81" s="163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J81" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K81" s="55"/>
       <c r="L81" s="163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M81" s="165"/>
       <c r="N81" s="165"/>
       <c r="O81" s="165"/>
       <c r="P81" s="163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q81" s="163" t="b">
         <v>0</v>
@@ -9097,7 +9135,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9107,20 +9145,20 @@
       <c r="G82" s="4"/>
       <c r="H82" s="148"/>
       <c r="I82" s="163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J82" s="163" t="b">
         <v>1</v>
       </c>
       <c r="K82" s="55"/>
       <c r="L82" s="163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M82" s="165"/>
       <c r="N82" s="165"/>
       <c r="O82" s="165"/>
       <c r="P82" s="163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q82" s="163" t="b">
         <v>0</v>
@@ -9140,7 +9178,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9150,20 +9188,20 @@
       <c r="G83" s="4"/>
       <c r="H83" s="148"/>
       <c r="I83" s="163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J83" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K83" s="55"/>
       <c r="L83" s="163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M83" s="165"/>
       <c r="N83" s="165"/>
       <c r="O83" s="165"/>
       <c r="P83" s="163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q83" s="163" t="b">
         <v>0</v>
@@ -9183,7 +9221,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9193,20 +9231,20 @@
       <c r="G84" s="4"/>
       <c r="H84" s="148"/>
       <c r="I84" s="163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J84" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K84" s="55"/>
       <c r="L84" s="163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M84" s="165"/>
       <c r="N84" s="165"/>
       <c r="O84" s="165"/>
       <c r="P84" s="163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q84" s="163" t="b">
         <v>0</v>
@@ -9226,7 +9264,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9236,20 +9274,20 @@
       <c r="G85" s="4"/>
       <c r="H85" s="148"/>
       <c r="I85" s="163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J85" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K85" s="55"/>
       <c r="L85" s="163" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M85" s="165"/>
       <c r="N85" s="165"/>
       <c r="O85" s="165"/>
       <c r="P85" s="163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q85" s="163" t="b">
         <v>0</v>
@@ -9269,7 +9307,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9279,20 +9317,20 @@
       <c r="G86" s="4"/>
       <c r="H86" s="148"/>
       <c r="I86" s="163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J86" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K86" s="55"/>
       <c r="L86" s="163" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M86" s="165"/>
       <c r="N86" s="165"/>
       <c r="O86" s="165"/>
       <c r="P86" s="163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q86" s="163" t="b">
         <v>0</v>
@@ -9312,7 +9350,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9322,20 +9360,20 @@
       <c r="G87" s="4"/>
       <c r="H87" s="148"/>
       <c r="I87" s="163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J87" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K87" s="55"/>
       <c r="L87" s="163" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M87" s="165"/>
       <c r="N87" s="165"/>
       <c r="O87" s="165"/>
       <c r="P87" s="163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q87" s="163" t="b">
         <v>0</v>
@@ -9355,7 +9393,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9365,20 +9403,20 @@
       <c r="G88" s="4"/>
       <c r="H88" s="148"/>
       <c r="I88" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J88" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K88" s="55"/>
       <c r="L88" s="163" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M88" s="165"/>
       <c r="N88" s="165"/>
       <c r="O88" s="165"/>
       <c r="P88" s="163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q88" s="163" t="b">
         <v>0</v>
@@ -9398,7 +9436,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9408,20 +9446,20 @@
       <c r="G89" s="4"/>
       <c r="H89" s="148"/>
       <c r="I89" s="163" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J89" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K89" s="55"/>
       <c r="L89" s="163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M89" s="165"/>
       <c r="N89" s="165"/>
       <c r="O89" s="165"/>
       <c r="P89" s="163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q89" s="163" t="b">
         <v>0</v>
@@ -9441,7 +9479,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9451,20 +9489,20 @@
       <c r="G90" s="4"/>
       <c r="H90" s="148"/>
       <c r="I90" s="163" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J90" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K90" s="55"/>
       <c r="L90" s="163" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M90" s="165"/>
       <c r="N90" s="165"/>
       <c r="O90" s="165"/>
       <c r="P90" s="163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q90" s="163" t="b">
         <v>0</v>
@@ -9484,7 +9522,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9494,20 +9532,20 @@
       <c r="G91" s="4"/>
       <c r="H91" s="148"/>
       <c r="I91" s="163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J91" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="55"/>
       <c r="L91" s="163" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M91" s="165"/>
       <c r="N91" s="165"/>
       <c r="O91" s="165"/>
       <c r="P91" s="163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q91" s="163" t="b">
         <v>0</v>
@@ -9527,7 +9565,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9537,7 +9575,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="148"/>
       <c r="I92" s="163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J92" s="163" t="b">
         <v>0</v>
@@ -9548,7 +9586,7 @@
       <c r="N92" s="165"/>
       <c r="O92" s="165"/>
       <c r="P92" s="163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q92" s="163" t="b">
         <v>0</v>
@@ -9568,7 +9606,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9578,7 +9616,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="148"/>
       <c r="I93" s="163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J93" s="163" t="b">
         <v>0</v>
@@ -9589,7 +9627,7 @@
       <c r="N93" s="165"/>
       <c r="O93" s="165"/>
       <c r="P93" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q93" s="163" t="b">
         <v>0</v>
@@ -9609,7 +9647,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9619,7 +9657,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="148"/>
       <c r="I94" s="163" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J94" s="163" t="b">
         <v>0</v>
@@ -9630,7 +9668,7 @@
       <c r="N94" s="165"/>
       <c r="O94" s="165"/>
       <c r="P94" s="163" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q94" s="163" t="b">
         <v>0</v>
@@ -9650,7 +9688,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9660,7 +9698,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="148"/>
       <c r="I95" s="164" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J95" s="164" t="b">
         <v>0</v>
@@ -9671,7 +9709,7 @@
       <c r="N95" s="165"/>
       <c r="O95" s="165"/>
       <c r="P95" s="163" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q95" s="163" t="b">
         <v>0</v>
@@ -9691,7 +9729,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -9708,7 +9746,7 @@
       <c r="N96" s="165"/>
       <c r="O96" s="165"/>
       <c r="P96" s="163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q96" s="163" t="b">
         <v>0</v>
@@ -9728,7 +9766,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -9745,7 +9783,7 @@
       <c r="N97" s="148"/>
       <c r="O97" s="148"/>
       <c r="P97" s="163" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q97" s="163" t="b">
         <v>0</v>
@@ -9765,7 +9803,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -9782,7 +9820,7 @@
       <c r="N98" s="148"/>
       <c r="O98" s="148"/>
       <c r="P98" s="163" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q98" s="163" t="b">
         <v>0</v>
@@ -9802,7 +9840,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -9819,7 +9857,7 @@
       <c r="N99" s="148"/>
       <c r="O99" s="148"/>
       <c r="P99" s="163" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q99" s="163" t="b">
         <v>0</v>
@@ -9839,7 +9877,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -9856,7 +9894,7 @@
       <c r="N100" s="148"/>
       <c r="O100" s="148"/>
       <c r="P100" s="163" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q100" s="163" t="b">
         <v>0</v>
@@ -9876,7 +9914,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -9893,7 +9931,7 @@
       <c r="N101" s="148"/>
       <c r="O101" s="148"/>
       <c r="P101" s="163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q101" s="163" t="b">
         <v>0</v>
@@ -9913,7 +9951,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -9930,7 +9968,7 @@
       <c r="N102" s="148"/>
       <c r="O102" s="148"/>
       <c r="P102" s="163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q102" s="163" t="b">
         <v>0</v>
@@ -9950,7 +9988,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -9967,7 +10005,7 @@
       <c r="N103" s="148"/>
       <c r="O103" s="148"/>
       <c r="P103" s="163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q103" s="163" t="b">
         <v>0</v>
@@ -9987,7 +10025,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10004,7 +10042,7 @@
       <c r="N104" s="148"/>
       <c r="O104" s="148"/>
       <c r="P104" s="163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q104" s="163" t="b">
         <v>0</v>
@@ -10024,7 +10062,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10041,7 +10079,7 @@
       <c r="N105" s="148"/>
       <c r="O105" s="148"/>
       <c r="P105" s="163" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q105" s="163" t="b">
         <v>0</v>
@@ -10061,7 +10099,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10078,7 +10116,7 @@
       <c r="N106" s="148"/>
       <c r="O106" s="148"/>
       <c r="P106" s="163" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q106" s="163" t="b">
         <v>0</v>
@@ -10098,7 +10136,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10115,7 +10153,7 @@
       <c r="N107" s="148"/>
       <c r="O107" s="148"/>
       <c r="P107" s="163" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q107" s="163" t="b">
         <v>0</v>
@@ -10135,7 +10173,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10152,7 +10190,7 @@
       <c r="N108" s="148"/>
       <c r="O108" s="148"/>
       <c r="P108" s="164" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q108" s="164" t="b">
         <v>0</v>
@@ -10172,7 +10210,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10202,7 +10240,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10235,7 +10273,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10268,7 +10306,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10301,7 +10339,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10334,7 +10372,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10384,7 +10422,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10419,7 +10457,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10452,7 +10490,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10487,7 +10525,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10520,7 +10558,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10553,7 +10591,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10586,7 +10624,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10616,7 +10654,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10646,7 +10684,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10676,7 +10714,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10706,7 +10744,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -10736,7 +10774,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -10766,7 +10804,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -10798,23 +10836,23 @@
       <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -10844,7 +10882,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -10877,7 +10915,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -10910,7 +10948,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -10945,7 +10983,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11016,7 +11054,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11054,7 +11092,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11093,7 +11131,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11126,7 +11164,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11139,7 +11177,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>5</v>
@@ -11163,7 +11201,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11198,7 +11236,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11235,7 +11273,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11270,7 +11308,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11288,7 +11326,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -11309,7 +11347,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11327,7 +11365,7 @@
         <v>44762.449343865701</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -11348,7 +11386,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11383,7 +11421,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11418,7 +11456,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11465,7 +11503,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11502,7 +11540,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11539,7 +11577,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11576,7 +11614,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11613,7 +11651,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11648,7 +11686,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11681,7 +11719,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -11716,7 +11754,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -11749,7 +11787,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -11782,7 +11820,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -11815,7 +11853,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -11848,7 +11886,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -11883,7 +11921,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -11916,7 +11954,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -11953,7 +11991,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -11990,7 +12028,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12023,7 +12061,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12056,7 +12094,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12089,7 +12127,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12122,7 +12160,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12155,7 +12193,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12190,7 +12228,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12223,7 +12261,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12260,7 +12298,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12295,7 +12333,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12307,13 +12345,13 @@
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -12334,7 +12372,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12371,7 +12409,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12408,7 +12446,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12445,7 +12483,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12482,7 +12520,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12519,7 +12557,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12556,7 +12594,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12593,7 +12631,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12630,7 +12668,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12642,7 +12680,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I51" s="31">
         <v>-17</v>
@@ -12667,7 +12705,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12679,7 +12717,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="105" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I52" s="31">
         <v>-18</v>
@@ -12704,7 +12742,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -12716,7 +12754,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I53" s="31">
         <v>-17</v>
@@ -12741,7 +12779,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -12778,7 +12816,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -12815,7 +12853,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -12854,7 +12892,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -12891,7 +12929,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -12928,7 +12966,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -12965,7 +13003,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -12998,7 +13036,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13010,10 +13048,10 @@
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
       <c r="H61" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -13035,7 +13073,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13072,7 +13110,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13113,7 +13151,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13154,7 +13192,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13187,7 +13225,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13226,7 +13264,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13259,7 +13297,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13294,7 +13332,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13335,7 +13373,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13376,7 +13414,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13409,7 +13447,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13446,7 +13484,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13479,7 +13517,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13514,7 +13552,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13547,7 +13585,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13582,7 +13620,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13615,7 +13653,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13648,7 +13686,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13681,7 +13719,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13714,7 +13752,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -13749,7 +13787,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -13782,7 +13820,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -13819,7 +13857,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -13856,7 +13894,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -13889,7 +13927,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -13922,7 +13960,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -13955,7 +13993,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -13994,7 +14032,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14043,7 +14081,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14078,7 +14116,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14111,7 +14149,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14148,7 +14186,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14183,7 +14221,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14236,7 +14274,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14287,7 +14325,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14338,7 +14376,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14371,7 +14409,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14422,7 +14460,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14471,7 +14509,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14520,7 +14558,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14569,7 +14607,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14602,7 +14640,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14653,7 +14691,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14702,7 +14740,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -14751,7 +14789,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -14800,7 +14838,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -14833,7 +14871,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -14884,7 +14922,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -14933,7 +14971,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -14982,7 +15020,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15031,7 +15069,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15064,7 +15102,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15099,7 +15137,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15140,7 +15178,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15188,7 +15226,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15234,7 +15272,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15277,7 +15315,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15310,7 +15348,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15357,7 +15395,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15402,7 +15440,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15445,7 +15483,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15478,7 +15516,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15513,7 +15551,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15546,7 +15584,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15581,7 +15619,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15614,7 +15652,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15647,7 +15685,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15680,7 +15718,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15713,7 +15751,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -15748,7 +15786,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -15781,7 +15819,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -15818,7 +15856,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -15855,7 +15893,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -15888,7 +15926,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -15921,7 +15959,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -15956,7 +15994,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -15991,7 +16029,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16046,7 +16084,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16081,7 +16119,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16136,7 +16174,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16173,7 +16211,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16208,7 +16246,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16243,7 +16281,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16282,7 +16320,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16341,7 +16379,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16398,7 +16436,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16435,7 +16473,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16492,7 +16530,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16549,7 +16587,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16606,7 +16644,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16663,7 +16701,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -16720,7 +16758,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -16777,7 +16815,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -16834,7 +16872,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -16891,7 +16929,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -16903,7 +16941,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
       <c r="H156" s="64" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -16954,7 +16992,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -16987,7 +17025,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -16999,7 +17037,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="4"/>
       <c r="H158" s="59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I158" s="60" t="str">
         <f>"("&amp;ROWS(ia_k2_mlsb1)-2&amp;","&amp;COLUMNS(ia_k2_mlsb1)-1&amp;"): ia_k2_mlsb1(pointers) = input"</f>
@@ -17047,7 +17085,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17082,7 +17120,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17133,7 +17171,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17196,7 +17234,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17257,7 +17295,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17316,7 +17354,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17375,7 +17413,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17434,7 +17472,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17495,7 +17533,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17556,7 +17594,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17615,7 +17653,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17674,7 +17712,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -17733,7 +17771,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -17794,7 +17832,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -17855,7 +17893,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -17914,7 +17952,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -17971,7 +18009,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -17983,7 +18021,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="4"/>
       <c r="H175" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I175" s="36"/>
       <c r="J175" s="63"/>
@@ -18030,7 +18068,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18042,7 +18080,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="4"/>
       <c r="H176" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="61">
@@ -18091,7 +18129,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18103,7 +18141,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="4"/>
       <c r="H177" s="105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="56" t="s">
@@ -18152,7 +18190,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18164,7 +18202,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="4"/>
       <c r="H178" s="105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="56"/>
@@ -18211,7 +18249,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18223,7 +18261,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
       <c r="H179" s="105" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="56"/>
@@ -18270,7 +18308,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18282,7 +18320,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="4"/>
       <c r="H180" s="105" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I180" s="62"/>
       <c r="J180" s="63"/>
@@ -18329,7 +18367,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18341,7 +18379,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="4"/>
       <c r="H181" s="105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I181" s="104">
         <v>1</v>
@@ -18392,7 +18430,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18404,7 +18442,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="4"/>
       <c r="H182" s="105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I182" s="36"/>
       <c r="J182" s="36"/>
@@ -18451,7 +18489,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18463,7 +18501,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="4"/>
       <c r="H183" s="105" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I183" s="36"/>
       <c r="J183" s="36"/>
@@ -18510,7 +18548,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18567,7 +18605,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18624,7 +18662,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18683,7 +18721,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -18740,7 +18778,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -18797,7 +18835,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -18854,7 +18892,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -18911,7 +18949,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -18970,7 +19008,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19027,7 +19065,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19084,7 +19122,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19141,7 +19179,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19198,7 +19236,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19257,7 +19295,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19314,7 +19352,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19371,7 +19409,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19428,7 +19466,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19485,7 +19523,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19518,7 +19556,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19530,7 +19568,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="4"/>
       <c r="H202" s="59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I202" s="60" t="str">
         <f>"("&amp;ROWS(ia_ppk2g1_rlsb1)-2&amp;","&amp;COLUMNS(ia_ppk2g1_rlsb1)-1&amp;"): ia_ppk2_vlsb1(pointers) = input"</f>
@@ -19578,7 +19616,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19646,7 +19684,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19714,7 +19752,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -19749,7 +19787,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -19800,7 +19838,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -19872,7 +19910,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -19945,7 +19983,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20012,7 +20050,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20081,7 +20119,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20150,7 +20188,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20221,7 +20259,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20292,7 +20330,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20359,7 +20397,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20426,7 +20464,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20493,7 +20531,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20562,7 +20600,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20631,7 +20669,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20698,7 +20736,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -20765,7 +20803,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -20832,7 +20870,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -20901,7 +20939,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -20970,7 +21008,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21037,7 +21075,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21104,7 +21142,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21171,7 +21209,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21241,7 +21279,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21308,7 +21346,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21371,7 +21409,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21434,7 +21472,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21501,7 +21539,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21570,7 +21608,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21637,7 +21675,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21704,7 +21742,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -21771,7 +21809,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -21838,7 +21876,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -21907,7 +21945,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -21974,7 +22012,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22041,7 +22079,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22108,7 +22146,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22175,7 +22213,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22244,7 +22282,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22311,7 +22349,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22378,7 +22416,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22445,7 +22483,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22512,7 +22550,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22583,7 +22621,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22652,7 +22690,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -22719,7 +22757,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -22786,7 +22824,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -22853,7 +22891,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -22922,7 +22960,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -22989,7 +23027,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23056,7 +23094,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23123,7 +23161,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23190,7 +23228,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23249,7 +23287,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23311,7 +23349,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23372,7 +23410,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23432,7 +23470,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23499,7 +23537,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23564,7 +23602,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23626,7 +23664,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23686,7 +23724,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -23743,7 +23781,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -23810,7 +23848,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -23843,7 +23881,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -23899,7 +23937,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -23952,7 +23990,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24005,7 +24043,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24040,7 +24078,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24090,7 +24128,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24148,7 +24186,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24206,7 +24244,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24259,7 +24297,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24311,7 +24349,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24366,7 +24404,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24420,7 +24458,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24474,7 +24512,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24524,7 +24562,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24574,7 +24612,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24627,7 +24665,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24681,7 +24719,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -24735,7 +24773,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -24785,7 +24823,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -24835,7 +24873,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -24888,7 +24926,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -24940,7 +24978,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -24992,7 +25030,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25041,7 +25079,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25088,7 +25126,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25141,7 +25179,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25174,7 +25212,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25207,7 +25245,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25242,7 +25280,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25275,7 +25313,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25308,7 +25346,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25343,7 +25381,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25376,7 +25414,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25413,7 +25451,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25450,7 +25488,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25483,7 +25521,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25516,7 +25554,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25561,7 +25599,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25600,7 +25638,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25639,7 +25677,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25688,7 +25726,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -25721,7 +25759,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -25758,7 +25796,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -25793,7 +25831,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -25828,7 +25866,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -25840,7 +25878,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="4"/>
       <c r="H312" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I312" s="2"/>
       <c r="J312" s="31" t="b">
@@ -25869,7 +25907,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -25881,7 +25919,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="4"/>
       <c r="H313" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I313" s="2"/>
       <c r="J313" s="109">
@@ -25910,7 +25948,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -25922,7 +25960,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="4"/>
       <c r="H314" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I314" s="2"/>
       <c r="J314" s="31" t="b">
@@ -25951,7 +25989,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -25984,7 +26022,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26017,7 +26055,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26056,7 +26094,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26100,7 +26138,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26133,7 +26171,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26166,7 +26204,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26199,7 +26237,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26234,7 +26272,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="73">
@@ -26267,7 +26305,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="76">
@@ -26302,7 +26340,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="19"/>
       <c r="C325" s="77">
@@ -26335,7 +26373,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26368,7 +26406,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="73">
@@ -26401,7 +26439,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26431,7 +26469,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26461,7 +26499,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26491,7 +26529,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26521,7 +26559,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26551,7 +26589,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="66"/>
@@ -26581,7 +26619,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C334" s="72" t="s">
         <v>4</v>
       </c>
@@ -26606,36 +26644,36 @@
   </sheetPr>
   <dimension ref="A1:AB175"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="O99" sqref="O99:O101"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26665,7 +26703,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26698,7 +26736,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26731,7 +26769,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -26766,7 +26804,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -26837,7 +26875,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -26875,7 +26913,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -26914,7 +26952,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -26947,7 +26985,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -26960,7 +26998,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>5</v>
@@ -26984,7 +27022,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27019,7 +27057,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27056,7 +27094,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27091,7 +27129,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27106,10 +27144,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="126">
-        <v>45076.548888773097</v>
+        <v>45313.7148212963</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -27130,7 +27168,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27148,7 +27186,7 @@
         <v>45073.683614236099</v>
       </c>
       <c r="J14" s="215" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K14" s="216"/>
       <c r="L14" s="216"/>
@@ -27169,7 +27207,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27204,7 +27242,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27239,7 +27277,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27286,7 +27324,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27323,7 +27361,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27360,7 +27398,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27397,7 +27435,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27434,7 +27472,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27469,7 +27507,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27502,7 +27540,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27537,7 +27575,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27570,7 +27608,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27603,7 +27641,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27636,7 +27674,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27669,7 +27707,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27704,7 +27742,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27737,7 +27775,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -27774,7 +27812,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -27811,7 +27849,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -27844,7 +27882,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -27877,7 +27915,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -27900,7 +27938,7 @@
       <c r="M35" s="124"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P35" s="124" t="s">
         <v>44</v>
@@ -27918,7 +27956,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -27961,7 +27999,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -27976,24 +28014,24 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="156"/>
       <c r="N37" s="156" t="s">
+        <v>369</v>
+      </c>
+      <c r="O37" s="156" t="s">
+        <v>370</v>
+      </c>
+      <c r="P37" s="156" t="s">
         <v>371</v>
       </c>
-      <c r="O37" s="156" t="s">
+      <c r="Q37" s="156" t="s">
         <v>372</v>
       </c>
-      <c r="P37" s="156" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q37" s="156" t="s">
+      <c r="R37" s="156" t="s">
         <v>374</v>
-      </c>
-      <c r="R37" s="156" t="s">
-        <v>376</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -28006,7 +28044,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28047,7 +28085,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28080,7 +28118,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28117,7 +28155,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28152,7 +28190,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28187,7 +28225,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28199,7 +28237,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -28232,7 +28270,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28244,7 +28282,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -28277,7 +28315,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28289,7 +28327,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -28338,7 +28376,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28350,7 +28388,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -28399,7 +28437,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28411,7 +28449,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -28460,7 +28498,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28493,7 +28531,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28526,7 +28564,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28573,7 +28611,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28602,7 +28640,7 @@
         <v>208</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -28618,7 +28656,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -28665,7 +28703,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -28712,7 +28750,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73"/>
@@ -28721,7 +28759,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -28759,7 +28797,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73"/>
@@ -28768,7 +28806,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -28806,7 +28844,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73"/>
@@ -28815,7 +28853,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -28853,7 +28891,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73"/>
@@ -28883,7 +28921,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28916,7 +28954,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -28951,7 +28989,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -28984,7 +29022,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="35"/>
       <c r="C61" s="76">
@@ -29019,7 +29057,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
       <c r="C62" s="77">
@@ -29052,7 +29090,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="73">
@@ -29085,7 +29123,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="73">
@@ -29118,7 +29156,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="20"/>
       <c r="C65" s="74">
@@ -29151,7 +29189,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="34" t="s">
         <v>21</v>
@@ -29186,7 +29224,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29219,7 +29257,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -29256,7 +29294,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29293,7 +29331,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29326,7 +29364,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29359,7 +29397,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29398,7 +29436,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29437,7 +29475,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29480,7 +29518,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33" t="s">
         <v>20</v>
@@ -29521,7 +29559,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29554,7 +29592,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33" t="s">
         <v>19</v>
@@ -29591,7 +29629,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29626,7 +29664,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29673,7 +29711,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29715,7 +29753,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29756,7 +29794,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -29799,7 +29837,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -29840,7 +29878,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -29875,7 +29913,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -29910,7 +29948,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -29929,7 +29967,7 @@
         <v>237</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>238</v>
@@ -29938,7 +29976,7 @@
         <v>237</v>
       </c>
       <c r="N86" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>238</v>
@@ -29950,7 +29988,7 @@
         <v>237</v>
       </c>
       <c r="T86" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>238</v>
@@ -29963,7 +30001,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30018,7 +30056,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30067,7 +30105,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -30116,7 +30154,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73">
@@ -30165,7 +30203,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -30214,7 +30252,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73">
@@ -30263,7 +30301,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -30312,7 +30350,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -30361,7 +30399,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30396,7 +30434,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30431,7 +30469,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30472,7 +30510,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30529,7 +30567,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30590,7 +30628,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30643,7 +30681,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30696,7 +30734,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30715,7 +30753,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P102" s="2">
         <v>0.8</v>
@@ -30743,7 +30781,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -30778,7 +30816,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30811,7 +30849,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="35"/>
       <c r="C105" s="76">
@@ -30846,7 +30884,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="19"/>
       <c r="C106" s="77">
@@ -30879,7 +30917,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="73">
@@ -30912,7 +30950,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="73">
@@ -30945,7 +30983,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="20"/>
       <c r="C109" s="74">
@@ -30978,7 +31016,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="34" t="s">
         <v>21</v>
@@ -31013,7 +31051,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31046,7 +31084,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31083,7 +31121,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31120,7 +31158,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31153,7 +31191,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -31186,7 +31224,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33" t="s">
         <v>20</v>
@@ -31227,7 +31265,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -31260,7 +31298,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33" t="s">
         <v>19</v>
@@ -31297,7 +31335,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -31332,7 +31370,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -31344,7 +31382,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="4"/>
       <c r="H120" s="26" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="I120" s="31" t="b">
         <v>0</v>
@@ -31352,7 +31390,7 @@
       <c r="J120" s="36"/>
       <c r="K120" s="36"/>
       <c r="L120" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M120" s="31" t="b">
         <v>0</v>
@@ -31364,7 +31402,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
       <c r="T120" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="U120" s="31" t="b">
         <v>0</v>
@@ -31377,7 +31415,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -31393,14 +31431,14 @@
       <c r="J121" s="36"/>
       <c r="K121" s="36"/>
       <c r="L121" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M121" s="31">
         <v>0</v>
       </c>
       <c r="N121" s="36"/>
       <c r="O121" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P121" s="31" t="b">
         <v>1</v>
@@ -31418,7 +31456,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -31430,7 +31468,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="4"/>
       <c r="H122" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I122" s="31">
         <v>0</v>
@@ -31438,7 +31476,7 @@
       <c r="J122" s="36"/>
       <c r="K122" s="36"/>
       <c r="L122" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M122" s="31" t="b">
         <v>0</v>
@@ -31459,7 +31497,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -31475,7 +31513,7 @@
       <c r="J123" s="148"/>
       <c r="K123" s="148"/>
       <c r="L123" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M123" s="31">
         <v>0</v>
@@ -31496,7 +31534,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73"/>
@@ -31526,7 +31564,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="73"/>
@@ -31539,7 +31577,7 @@
       <c r="J125" s="205"/>
       <c r="K125" s="205"/>
       <c r="L125" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M125" s="31" t="b">
         <v>0</v>
@@ -31560,7 +31598,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="73">
@@ -31595,7 +31633,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
@@ -31630,7 +31668,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
@@ -31642,10 +31680,10 @@
       <c r="F128" s="5"/>
       <c r="G128" s="4"/>
       <c r="H128" s="64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I128" s="64" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -31667,7 +31705,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
@@ -31681,9 +31719,9 @@
       <c r="F129" s="5"/>
       <c r="G129" s="4"/>
       <c r="H129" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="I129" s="31" t="b">
+        <v>258</v>
+      </c>
+      <c r="I129" s="31">
         <v>0</v>
       </c>
       <c r="J129" s="148"/>
@@ -31706,7 +31744,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
@@ -31720,9 +31758,9 @@
       <c r="F130" s="5"/>
       <c r="G130" s="4"/>
       <c r="H130" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="I130" s="31" t="b">
+        <v>259</v>
+      </c>
+      <c r="I130" s="31">
         <v>0</v>
       </c>
       <c r="J130" s="148"/>
@@ -31745,7 +31783,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -31759,9 +31797,9 @@
       <c r="F131" s="5"/>
       <c r="G131" s="4"/>
       <c r="H131" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="I131" s="31" t="b">
+        <v>260</v>
+      </c>
+      <c r="I131" s="31">
         <v>0</v>
       </c>
       <c r="J131" s="148"/>
@@ -31784,7 +31822,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -31798,9 +31836,9 @@
       <c r="F132" s="5"/>
       <c r="G132" s="4"/>
       <c r="H132" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I132" s="31" t="b">
+        <v>261</v>
+      </c>
+      <c r="I132" s="31">
         <v>0</v>
       </c>
       <c r="J132" s="148"/>
@@ -31823,7 +31861,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -31837,9 +31875,9 @@
       <c r="F133" s="5"/>
       <c r="G133" s="4"/>
       <c r="H133" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I133" s="31" t="b">
+        <v>262</v>
+      </c>
+      <c r="I133" s="31">
         <v>0</v>
       </c>
       <c r="J133" s="148"/>
@@ -31862,7 +31900,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -31876,9 +31914,9 @@
       <c r="F134" s="5"/>
       <c r="G134" s="4"/>
       <c r="H134" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I134" s="31" t="b">
+        <v>263</v>
+      </c>
+      <c r="I134" s="31">
         <v>0</v>
       </c>
       <c r="J134" s="148"/>
@@ -31901,7 +31939,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -31915,9 +31953,9 @@
       <c r="F135" s="5"/>
       <c r="G135" s="4"/>
       <c r="H135" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I135" s="31" t="b">
+        <v>265</v>
+      </c>
+      <c r="I135" s="31">
         <v>0</v>
       </c>
       <c r="J135" s="148"/>
@@ -31940,7 +31978,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -31954,9 +31992,9 @@
       <c r="F136" s="5"/>
       <c r="G136" s="4"/>
       <c r="H136" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I136" s="31" t="b">
+        <v>266</v>
+      </c>
+      <c r="I136" s="31">
         <v>0</v>
       </c>
       <c r="J136" s="148"/>
@@ -31979,7 +32017,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -32012,7 +32050,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -32045,7 +32083,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
@@ -32080,7 +32118,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -32113,7 +32151,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="35"/>
       <c r="C141" s="76">
@@ -32148,7 +32186,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="19"/>
       <c r="C142" s="77">
@@ -32181,7 +32219,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="73">
@@ -32214,7 +32252,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="73">
@@ -32247,7 +32285,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="20"/>
       <c r="C145" s="74">
@@ -32280,7 +32318,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="34" t="s">
         <v>21</v>
@@ -32315,7 +32353,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -32348,7 +32386,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -32385,7 +32423,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -32401,7 +32439,7 @@
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -32424,7 +32462,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -32457,7 +32495,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -32471,7 +32509,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
       <c r="J151" s="65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K151" s="65"/>
       <c r="L151" s="65"/>
@@ -32492,7 +32530,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -32545,7 +32583,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33" t="s">
         <v>20</v>
@@ -32580,7 +32618,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -32613,7 +32651,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33" t="s">
         <v>19</v>
@@ -32650,7 +32688,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -32685,7 +32723,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -32697,13 +32735,13 @@
       <c r="F157" s="5"/>
       <c r="G157" s="4"/>
       <c r="H157" s="64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I157" s="31">
         <v>4</v>
       </c>
       <c r="J157" s="158" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
@@ -32724,7 +32762,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -32757,7 +32795,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -32769,7 +32807,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="H159" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -32792,7 +32830,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -32804,7 +32842,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="4"/>
       <c r="H160" s="159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="31">
@@ -32847,7 +32885,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -32859,7 +32897,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
       <c r="H161" s="159" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="31">
@@ -32902,7 +32940,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -32935,7 +32973,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -32968,7 +33006,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -33003,7 +33041,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -33036,7 +33074,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="35"/>
       <c r="C166" s="76">
@@ -33071,7 +33109,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="19"/>
       <c r="C167" s="77">
@@ -33104,7 +33142,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="73">
@@ -33137,7 +33175,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="66"/>
@@ -33167,7 +33205,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="66"/>
@@ -33197,7 +33235,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="66"/>
@@ -33227,7 +33265,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="66"/>
@@ -33257,7 +33295,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="66"/>
@@ -33287,7 +33325,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="66"/>
@@ -33317,7 +33355,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C175" s="72" t="s">
         <v>4</v>
       </c>
@@ -33359,17 +33397,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1" s="166"/>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -33397,7 +33435,7 @@
       <c r="Y1" s="168"/>
       <c r="Z1" s="168"/>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="166"/>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -33425,7 +33463,7 @@
       <c r="Y2" s="167"/>
       <c r="Z2" s="167"/>
     </row>
-    <row r="3" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166"/>
       <c r="B3" s="167"/>
       <c r="C3" s="167"/>
@@ -33453,7 +33491,7 @@
       <c r="Y3" s="167"/>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="169"/>
@@ -33481,7 +33519,7 @@
       <c r="Y4" s="168"/>
       <c r="Z4" s="168"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="166"/>
       <c r="B5" s="167"/>
       <c r="C5" s="172"/>
@@ -33489,7 +33527,7 @@
       <c r="E5" s="172"/>
       <c r="F5" s="173"/>
       <c r="G5" s="174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H5" s="173"/>
       <c r="I5" s="173"/>
@@ -33511,7 +33549,7 @@
       <c r="Y5" s="168"/>
       <c r="Z5" s="168"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="166"/>
       <c r="B6" s="167"/>
       <c r="C6" s="172"/>
@@ -33539,7 +33577,7 @@
       <c r="Y6" s="168"/>
       <c r="Z6" s="168"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166"/>
       <c r="B7" s="167"/>
       <c r="C7" s="177"/>
@@ -33547,7 +33585,7 @@
       <c r="E7" s="177"/>
       <c r="F7" s="173"/>
       <c r="G7" s="179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" s="173"/>
       <c r="I7" s="173"/>
@@ -33569,7 +33607,7 @@
       <c r="Y7" s="168"/>
       <c r="Z7" s="168"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="180"/>
@@ -33597,7 +33635,7 @@
       <c r="Y8" s="168"/>
       <c r="Z8" s="168"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="166"/>
       <c r="B9" s="167"/>
       <c r="C9" s="177"/>
@@ -33625,7 +33663,7 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="168"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="177"/>
@@ -33653,7 +33691,7 @@
       <c r="Y10" s="168"/>
       <c r="Z10" s="168"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="177"/>
@@ -33681,7 +33719,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="177"/>
@@ -33709,7 +33747,7 @@
       <c r="Y12" s="168"/>
       <c r="Z12" s="168"/>
     </row>
-    <row r="13" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="177"/>
@@ -33737,7 +33775,7 @@
       <c r="Y13" s="168"/>
       <c r="Z13" s="168"/>
     </row>
-    <row r="14" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="177"/>
@@ -33765,7 +33803,7 @@
       <c r="Y14" s="168"/>
       <c r="Z14" s="168"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="177"/>
@@ -33793,7 +33831,7 @@
       <c r="Y15" s="168"/>
       <c r="Z15" s="168"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="177"/>
@@ -33801,33 +33839,33 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O16" s="193" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P16" s="191"/>
       <c r="Q16" s="193" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R16" s="191"/>
       <c r="S16" s="193" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T16" s="192"/>
       <c r="U16" s="193" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="V16" s="190"/>
       <c r="W16" s="176"/>
@@ -33835,7 +33873,7 @@
       <c r="Y16" s="168"/>
       <c r="Z16" s="168"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="177"/>
@@ -33843,34 +33881,34 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O17" s="191" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P17" s="191"/>
       <c r="Q17" s="191" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="R17" s="191"/>
       <c r="S17" s="191" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="T17" s="192"/>
       <c r="U17" s="191" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V17" s="190"/>
       <c r="W17" s="176"/>
@@ -33878,7 +33916,7 @@
       <c r="Y17" s="168"/>
       <c r="Z17" s="168"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166"/>
       <c r="B18" s="167"/>
       <c r="C18" s="177"/>
@@ -33920,7 +33958,7 @@
       <c r="Y18" s="168"/>
       <c r="Z18" s="168"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="177"/>
@@ -33948,7 +33986,7 @@
       <c r="Y19" s="168"/>
       <c r="Z19" s="168"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="166"/>
       <c r="B20" s="167"/>
       <c r="C20" s="177"/>
@@ -33976,7 +34014,7 @@
       <c r="Y20" s="168"/>
       <c r="Z20" s="168"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="177"/>
@@ -34004,7 +34042,7 @@
       <c r="Y21" s="168"/>
       <c r="Z21" s="168"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="177"/>
@@ -34032,7 +34070,7 @@
       <c r="Y22" s="168"/>
       <c r="Z22" s="168"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="177"/>
@@ -34060,7 +34098,7 @@
       <c r="Y23" s="168"/>
       <c r="Z23" s="168"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="177"/>
@@ -34088,7 +34126,7 @@
       <c r="Y24" s="168"/>
       <c r="Z24" s="168"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="177"/>
@@ -34116,7 +34154,7 @@
       <c r="Y25" s="168"/>
       <c r="Z25" s="168"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="177"/>
@@ -34144,7 +34182,7 @@
       <c r="Y26" s="168"/>
       <c r="Z26" s="168"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="177"/>
@@ -34172,7 +34210,7 @@
       <c r="Y27" s="168"/>
       <c r="Z27" s="168"/>
     </row>
-    <row r="28" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="177"/>
@@ -34200,7 +34238,7 @@
       <c r="Y28" s="168"/>
       <c r="Z28" s="168"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="200"/>
@@ -34228,7 +34266,7 @@
       <c r="Y29" s="168"/>
       <c r="Z29" s="168"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -34256,7 +34294,7 @@
       <c r="Y30" s="168"/>
       <c r="Z30" s="168"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -34302,22 +34340,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -34349,7 +34387,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -34384,7 +34422,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -34419,7 +34457,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -34456,7 +34494,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -34533,7 +34571,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -34573,7 +34611,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -34614,7 +34652,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -34649,7 +34687,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -34684,7 +34722,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -34719,7 +34757,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -34754,7 +34792,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -34793,7 +34831,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -34830,7 +34868,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -34865,7 +34903,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -34904,7 +34942,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -34941,7 +34979,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -34978,7 +35016,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -35019,7 +35057,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -35054,7 +35092,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -35089,7 +35127,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -35130,7 +35168,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -35165,7 +35203,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -35200,7 +35238,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -35237,7 +35275,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -35274,7 +35312,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -35323,7 +35361,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -35362,7 +35400,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -35401,7 +35439,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -35440,7 +35478,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -35479,7 +35517,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -35516,7 +35554,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -35553,7 +35591,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="67">
@@ -35614,7 +35652,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="67">
@@ -35679,7 +35717,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="67">
@@ -35714,7 +35752,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="67">
@@ -35749,7 +35787,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="67">
@@ -35784,7 +35822,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="67">
@@ -35821,7 +35859,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="67">
@@ -35856,7 +35894,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="70">
@@ -35893,7 +35931,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="71">
@@ -35928,7 +35966,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="67">
@@ -35963,7 +36001,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="66"/>
@@ -35995,7 +36033,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="66"/>
@@ -36027,7 +36065,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="66"/>
@@ -36059,7 +36097,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="66"/>
@@ -36091,7 +36129,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="66"/>
@@ -36123,7 +36161,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="66"/>
@@ -36155,7 +36193,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="72" t="s">
         <v>4</v>
       </c>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045A229-DE11-4F79-8576-24430D5323F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8F5405-6A87-479D-8396-3B938CECEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
     <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$108</definedName>
-    <definedName name="i_len_f">StructuralSA!$I$157</definedName>
+    <definedName name="i_len_f">StructuralSA!$I$164</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
     <definedName name="i_len_s">Stock!$N$160</definedName>
@@ -119,16 +119,16 @@
     <definedName name="i_nut_spread_n0" localSheetId="2">StructuralSA!$J$87</definedName>
     <definedName name="i_nut_spread_n1" localSheetId="2">StructuralSA!$M$87:$M$94</definedName>
     <definedName name="i_nut_spread_n3" localSheetId="2">StructuralSA!$S$87:$S$94</definedName>
-    <definedName name="i_nv_lower_p6">StructuralSA!$J$160:$S$160</definedName>
-    <definedName name="i_nv_upper_p6">StructuralSA!$J$161:$S$161</definedName>
+    <definedName name="i_nv_lower_p6">StructuralSA!$J$167:$S$167</definedName>
+    <definedName name="i_nv_upper_p6">StructuralSA!$J$168:$S$168</definedName>
     <definedName name="i_offs_user_fvp_date_iu" localSheetId="2">StructuralSA!$P$54:$R$56</definedName>
     <definedName name="i_p_pos">Stock!$I$55</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$66</definedName>
     <definedName name="i_progeny_w2_len">StructuralSA!$Q$79</definedName>
     <definedName name="i_r2adjust_inc">StructuralSA!$U$120</definedName>
     <definedName name="i_rev_number" localSheetId="2">StructuralSA!$I$122</definedName>
-    <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$136</definedName>
-    <definedName name="i_rev_trait_scenario" localSheetId="2">StructuralSA!$I$129:$I$136</definedName>
+    <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$129:$H$143</definedName>
+    <definedName name="i_rev_trait_scenario" localSheetId="2">StructuralSA!$I$129:$I$143</definedName>
     <definedName name="i_rev_update" localSheetId="2">StructuralSA!$I$120</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
     <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
@@ -2131,7 +2131,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="H133" authorId="0" shapeId="0" xr:uid="{B4758F67-1D7E-4D60-BB06-F13A6FE89F0F}">
+    <comment ref="H131" authorId="1" shapeId="0" xr:uid="{A12E8373-CBF7-4301-8BBE-54FB2CD3F999}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only active for the new feeding system (f_lwc_nfs)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H132" authorId="1" shapeId="0" xr:uid="{ADD99B78-258B-4112-BEFE-ACD7C132C257}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only active for the new feeding system (f_lwc_nfs)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H133" authorId="1" shapeId="0" xr:uid="{F4A4ECC6-7846-4162-9607-F6E572F33EDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Only active for the new feeding system (f_lwc_nfs)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H139" authorId="0" shapeId="0" xr:uid="{658A1575-7B6D-49A0-9205-9DD14E053E41}">
       <text>
         <r>
           <rPr>
@@ -2155,7 +2227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H157" authorId="1" shapeId="0" xr:uid="{B39EFDC6-7ABB-4808-93B1-2819F2755236}">
+    <comment ref="H164" authorId="1" shapeId="0" xr:uid="{B39EFDC6-7ABB-4808-93B1-2819F2755236}">
       <text>
         <r>
           <rPr>
@@ -2179,7 +2251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H160" authorId="1" shapeId="0" xr:uid="{315CC92D-C01A-4D16-90CA-458397130ECA}">
+    <comment ref="H167" authorId="1" shapeId="0" xr:uid="{315CC92D-C01A-4D16-90CA-458397130ECA}">
       <text>
         <r>
           <rPr>
@@ -2205,7 +2277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H161" authorId="1" shapeId="0" xr:uid="{24292EB5-78CD-4E29-870F-1743067DEF27}">
+    <comment ref="H168" authorId="1" shapeId="0" xr:uid="{24292EB5-78CD-4E29-870F-1743067DEF27}">
       <text>
         <r>
           <rPr>
@@ -2270,7 +2342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="393">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3528,7 +3600,29 @@
     <t>REV scenario</t>
   </si>
   <si>
-    <t>22Jan24: Change rev_create to rev_update, and rev_trait_inc to rev_trait_scenario
+    <t>ss</t>
+  </si>
+  <si>
+    <t>intake</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>viscera</t>
+  </si>
+  <si>
+    <t>foetus</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>23Jan24: Add extra traits for REV (15 in total counting random)
+22Jan24: Change rev_create to rev_update, and rev_trait_inc to rev_trait_scenario
 30May23: Add extra user FVP to represent the preg tox period.
 27May23: Fix the FVP period numbers defining U0 as weaning
 20Jun22: Add extra user defined FVPs
@@ -26642,14 +26736,14 @@
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J110" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
+      <selection pane="bottomRight" activeCell="H132" sqref="H132:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -27144,10 +27238,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="126">
-        <v>45313.7148212963</v>
+        <v>45314.472435879601</v>
       </c>
       <c r="J13" s="212" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -31055,7 +31149,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
-        <f>INT(MAX($C$119:$C$139))+1</f>
+        <f>INT(MAX($C$119:$C$146))+1</f>
         <v>5</v>
       </c>
       <c r="D111" s="3"/>
@@ -31719,7 +31813,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="4"/>
       <c r="H129" s="31" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I129" s="31">
         <v>0</v>
@@ -31758,7 +31852,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="4"/>
       <c r="H130" s="31" t="s">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="I130" s="31">
         <v>0</v>
@@ -31797,7 +31891,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="4"/>
       <c r="H131" s="31" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="I131" s="31">
         <v>0</v>
@@ -31836,7 +31930,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="4"/>
       <c r="H132" s="31" t="s">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="I132" s="31">
         <v>0</v>
@@ -31875,7 +31969,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="4"/>
       <c r="H133" s="31" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="I133" s="31">
         <v>0</v>
@@ -31904,7 +31998,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
-        <f t="shared" ref="C134:C136" si="10">INT(C$112+3)</f>
+        <f t="shared" ref="C134:C143" si="10">INT(C$112+3)</f>
         <v>4</v>
       </c>
       <c r="D134" s="4"/>
@@ -31914,7 +32008,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="4"/>
       <c r="H134" s="31" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="I134" s="31">
         <v>0</v>
@@ -31953,7 +32047,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="4"/>
       <c r="H135" s="31" t="s">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="I135" s="31">
         <v>0</v>
@@ -31992,7 +32086,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="4"/>
       <c r="H136" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I136" s="31">
         <v>0</v>
@@ -32021,15 +32115,21 @@
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
-        <f>INT(C$112+3)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5">
+        <v>8</v>
+      </c>
       <c r="F137" s="5"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="148"/>
-      <c r="I137" s="148"/>
+      <c r="H137" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="I137" s="31">
+        <v>0</v>
+      </c>
       <c r="J137" s="148"/>
       <c r="K137" s="148"/>
       <c r="L137" s="148"/>
@@ -32054,15 +32154,21 @@
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
-        <f>INT(C$112+3)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D138" s="4"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5">
+        <v>9</v>
+      </c>
       <c r="F138" s="5"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="148"/>
-      <c r="I138" s="148"/>
+      <c r="H138" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I138" s="31">
+        <v>0</v>
+      </c>
       <c r="J138" s="148"/>
       <c r="K138" s="148"/>
       <c r="L138" s="148"/>
@@ -32083,537 +32189,533 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
-        <f>INT($C$112)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="E139" s="5">
+        <v>10</v>
+      </c>
+      <c r="F139" s="5"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H139" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I139" s="31">
+        <v>0</v>
+      </c>
+      <c r="J139" s="148"/>
+      <c r="K139" s="148"/>
+      <c r="L139" s="148"/>
+      <c r="M139" s="148"/>
+      <c r="N139" s="148"/>
+      <c r="O139" s="148"/>
+      <c r="P139" s="148"/>
+      <c r="Q139" s="148"/>
+      <c r="R139" s="148"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="4"/>
       <c r="Y139" s="16"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
-        <f>INT($C$112)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="E140" s="5">
+        <v>11</v>
+      </c>
+      <c r="F140" s="5"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
+      <c r="H140" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="I140" s="31">
+        <v>0</v>
+      </c>
+      <c r="J140" s="148"/>
+      <c r="K140" s="148"/>
+      <c r="L140" s="148"/>
+      <c r="M140" s="148"/>
+      <c r="N140" s="148"/>
+      <c r="O140" s="148"/>
+      <c r="P140" s="148"/>
+      <c r="Q140" s="148"/>
+      <c r="R140" s="148"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="16"/>
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="76">
-        <f>INT($C$112)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
-      <c r="R141" s="17"/>
-      <c r="S141" s="17"/>
-      <c r="T141" s="17"/>
-      <c r="U141" s="17"/>
-      <c r="V141" s="17"/>
-      <c r="W141" s="17"/>
-      <c r="X141" s="17"/>
-      <c r="Y141" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B141" s="33"/>
+      <c r="C141" s="73">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5">
+        <v>12</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="I141" s="31">
+        <v>0</v>
+      </c>
+      <c r="J141" s="148"/>
+      <c r="K141" s="148"/>
+      <c r="L141" s="148"/>
+      <c r="M141" s="148"/>
+      <c r="N141" s="148"/>
+      <c r="O141" s="148"/>
+      <c r="P141" s="148"/>
+      <c r="Q141" s="148"/>
+      <c r="R141" s="148"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="16"/>
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="77">
-        <f>INT($C$112)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="73">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5">
+        <v>13</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="I142" s="31">
+        <v>0</v>
+      </c>
+      <c r="J142" s="148"/>
+      <c r="K142" s="148"/>
+      <c r="L142" s="148"/>
+      <c r="M142" s="148"/>
+      <c r="N142" s="148"/>
+      <c r="O142" s="148"/>
+      <c r="P142" s="148"/>
+      <c r="Q142" s="148"/>
+      <c r="R142" s="148"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="16"/>
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="73">
-        <f>INT($C$112)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5">
+        <v>14</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I143" s="31">
+        <v>0</v>
+      </c>
+      <c r="J143" s="148"/>
+      <c r="K143" s="148"/>
+      <c r="L143" s="148"/>
+      <c r="M143" s="148"/>
+      <c r="N143" s="148"/>
+      <c r="O143" s="148"/>
+      <c r="P143" s="148"/>
+      <c r="Q143" s="148"/>
+      <c r="R143" s="148"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="16"/>
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="73">
-        <f>INT($C$148)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
+        <f>INT(C$112+3)</f>
+        <v>4</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="148"/>
+      <c r="I144" s="148"/>
+      <c r="J144" s="148"/>
+      <c r="K144" s="148"/>
+      <c r="L144" s="148"/>
+      <c r="M144" s="148"/>
+      <c r="N144" s="148"/>
+      <c r="O144" s="148"/>
+      <c r="P144" s="148"/>
+      <c r="Q144" s="148"/>
+      <c r="R144" s="148"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="16"/>
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="74">
-        <f>INT($C$148)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="20"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="20"/>
-      <c r="X145" s="20"/>
-      <c r="Y145" s="20"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="73">
+        <f>INT(C$112+3)</f>
+        <v>4</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="148"/>
+      <c r="I145" s="148"/>
+      <c r="J145" s="148"/>
+      <c r="K145" s="148"/>
+      <c r="L145" s="148"/>
+      <c r="M145" s="148"/>
+      <c r="N145" s="148"/>
+      <c r="O145" s="148"/>
+      <c r="P145" s="148"/>
+      <c r="Q145" s="148"/>
+      <c r="R145" s="148"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="16"/>
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" s="75">
-        <f>INT($C$148)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
-      <c r="L146" s="14"/>
-      <c r="M146" s="14"/>
-      <c r="N146" s="14"/>
-      <c r="O146" s="14"/>
-      <c r="P146" s="14"/>
-      <c r="Q146" s="14"/>
-      <c r="R146" s="14"/>
-      <c r="S146" s="14"/>
-      <c r="T146" s="14"/>
-      <c r="U146" s="14"/>
-      <c r="V146" s="14"/>
-      <c r="W146" s="14"/>
-      <c r="X146" s="14"/>
-      <c r="Y146" s="15"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="73">
+        <f>INT($C$112)+3.005</f>
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y146" s="16"/>
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
-        <f>INT(MAX($C$156:$C$164))+1</f>
-        <v>5</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="27"/>
-      <c r="Q147" s="27"/>
-      <c r="R147" s="27"/>
-      <c r="S147" s="27"/>
-      <c r="T147" s="27"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="27"/>
-      <c r="W147" s="27"/>
-      <c r="X147" s="3"/>
+        <f>INT($C$112)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
       <c r="Y147" s="16"/>
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="73">
-        <v>1.02</v>
-      </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" s="25"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="147" t="str">
-        <f>COUNTIFS($B$1:$B148, "«")&amp;" Feed Pool definitions"</f>
-        <v>5 Feed Pool definitions</v>
-      </c>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-      <c r="X148" s="10"/>
-      <c r="Y148" s="16"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="76">
+        <f>INT($C$112)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="17"/>
+      <c r="T148" s="17"/>
+      <c r="U148" s="17"/>
+      <c r="V148" s="17"/>
+      <c r="W148" s="17"/>
+      <c r="X148" s="17"/>
+      <c r="Y148" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="73">
-        <f>INT($C$148)+1.02</f>
-        <v>2.02</v>
-      </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="28">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13"/>
-      <c r="H149" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="7"/>
-      <c r="R149" s="7"/>
-      <c r="S149" s="7"/>
-      <c r="T149" s="7"/>
-      <c r="U149" s="7"/>
-      <c r="V149" s="7"/>
-      <c r="W149" s="7"/>
-      <c r="X149" s="11"/>
-      <c r="Y149" s="16"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="77">
+        <f>INT($C$112)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="19"/>
+      <c r="V149" s="19"/>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="19"/>
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
-      <c r="B150" s="33"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="73">
-        <f>INT($C$148)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
-      <c r="U150" s="3"/>
-      <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-      <c r="X150" s="3"/>
-      <c r="Y150" s="16"/>
+        <f>INT($C$112)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
     <row r="151" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-      <c r="B151" s="33"/>
+      <c r="B151" s="1"/>
       <c r="C151" s="73">
-        <f>INT($C$148)+2</f>
+        <f>INT($C$155)+2</f>
         <v>3</v>
       </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="K151" s="65"/>
-      <c r="L151" s="65"/>
-      <c r="M151" s="65"/>
-      <c r="N151" s="65"/>
-      <c r="O151" s="65"/>
-      <c r="P151" s="65"/>
-      <c r="Q151" s="65"/>
-      <c r="R151" s="65"/>
-      <c r="S151" s="65"/>
-      <c r="T151" s="29"/>
-      <c r="U151" s="29"/>
-      <c r="V151" s="29"/>
-      <c r="W151" s="29"/>
-      <c r="X151" s="3"/>
-      <c r="Y151" s="16"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="73">
-        <f>INT($C$148)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29">
-        <v>0</v>
-      </c>
-      <c r="K152" s="29">
-        <v>1</v>
-      </c>
-      <c r="L152" s="29">
-        <v>2</v>
-      </c>
-      <c r="M152" s="29">
-        <v>3</v>
-      </c>
-      <c r="N152" s="29">
-        <v>4</v>
-      </c>
-      <c r="O152" s="29">
-        <v>5</v>
-      </c>
-      <c r="P152" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q152" s="29">
-        <v>7</v>
-      </c>
-      <c r="R152" s="29">
-        <v>8</v>
-      </c>
-      <c r="S152" s="29">
-        <v>9</v>
-      </c>
-      <c r="T152" s="29"/>
-      <c r="U152" s="29"/>
-      <c r="V152" s="29"/>
-      <c r="W152" s="29"/>
-      <c r="X152" s="3"/>
-      <c r="Y152" s="16"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="74">
+        <f>INT($C$155)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-      <c r="B153" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C153" s="73">
-        <f>INT($C$148)+2.01</f>
-        <v>3.01</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
-      <c r="Q153" s="29"/>
-      <c r="R153" s="29"/>
-      <c r="S153" s="29"/>
-      <c r="T153" s="29"/>
-      <c r="U153" s="29"/>
-      <c r="V153" s="29"/>
-      <c r="W153" s="29"/>
-      <c r="X153" s="3"/>
-      <c r="Y153" s="16"/>
+      <c r="B153" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="75">
+        <f>INT($C$155)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="14"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="14"/>
+      <c r="Q153" s="14"/>
+      <c r="R153" s="14"/>
+      <c r="S153" s="14"/>
+      <c r="T153" s="14"/>
+      <c r="U153" s="14"/>
+      <c r="V153" s="14"/>
+      <c r="W153" s="14"/>
+      <c r="X153" s="14"/>
+      <c r="Y153" s="15"/>
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
@@ -32622,174 +32724,174 @@
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
-        <f>C$147</f>
+        <f>INT(MAX($C$163:$C$171))+1</f>
         <v>5</v>
       </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="4"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
+      <c r="Q154" s="27"/>
+      <c r="R154" s="27"/>
+      <c r="S154" s="27"/>
+      <c r="T154" s="27"/>
+      <c r="U154" s="27"/>
+      <c r="V154" s="27"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="3"/>
       <c r="Y154" s="16"/>
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="B155" s="33"/>
       <c r="C155" s="73">
-        <f>C$147</f>
-        <v>5</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5"/>
-      <c r="V155" s="5"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="4"/>
+        <v>1.02</v>
+      </c>
+      <c r="D155" s="21"/>
+      <c r="E155" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="25"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="147" t="str">
+        <f>COUNTIFS($B$1:$B155, "«")&amp;" Feed Pool definitions"</f>
+        <v>5 Feed Pool definitions</v>
+      </c>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="6"/>
+      <c r="X155" s="10"/>
       <c r="Y155" s="16"/>
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
-        <f>INT($C$148)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="58"/>
-      <c r="L156" s="58"/>
-      <c r="M156" s="58"/>
-      <c r="N156" s="58"/>
-      <c r="O156" s="58"/>
-      <c r="P156" s="58"/>
-      <c r="Q156" s="58"/>
-      <c r="R156" s="58"/>
-      <c r="S156" s="58"/>
-      <c r="T156" s="58"/>
-      <c r="U156" s="58"/>
-      <c r="V156" s="58"/>
-      <c r="W156" s="58"/>
-      <c r="X156" s="4"/>
+        <f>INT($C$155)+1.02</f>
+        <v>2.02</v>
+      </c>
+      <c r="D156" s="21"/>
+      <c r="E156" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="28">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13"/>
+      <c r="H156" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="7"/>
+      <c r="T156" s="7"/>
+      <c r="U156" s="7"/>
+      <c r="V156" s="7"/>
+      <c r="W156" s="7"/>
+      <c r="X156" s="11"/>
       <c r="Y156" s="16"/>
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
-        <f>INT($C$148)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="I157" s="31">
-        <v>4</v>
-      </c>
-      <c r="J157" s="158" t="s">
-        <v>291</v>
-      </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="4"/>
+        <f>INT($C$155)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
       <c r="Y157" s="16"/>
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
-        <f>INT($C$148)+3</f>
-        <v>4</v>
-      </c>
-      <c r="D158" s="4"/>
+        <f>INT($C$155)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D158" s="3"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="157"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="K158" s="65"/>
+      <c r="L158" s="65"/>
+      <c r="M158" s="65"/>
+      <c r="N158" s="65"/>
+      <c r="O158" s="65"/>
+      <c r="P158" s="65"/>
+      <c r="Q158" s="65"/>
+      <c r="R158" s="65"/>
+      <c r="S158" s="65"/>
+      <c r="T158" s="29"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="29"/>
+      <c r="W158" s="29"/>
+      <c r="X158" s="3"/>
       <c r="Y158" s="16"/>
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
@@ -32799,564 +32901,829 @@
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
-        <f>INT($C$148)+2</f>
+        <f>INT($C$155)+2</f>
         <v>3</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="4"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29">
+        <v>0</v>
+      </c>
+      <c r="K159" s="29">
+        <v>1</v>
+      </c>
+      <c r="L159" s="29">
+        <v>2</v>
+      </c>
+      <c r="M159" s="29">
+        <v>3</v>
+      </c>
+      <c r="N159" s="29">
+        <v>4</v>
+      </c>
+      <c r="O159" s="29">
+        <v>5</v>
+      </c>
+      <c r="P159" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q159" s="29">
+        <v>7</v>
+      </c>
+      <c r="R159" s="29">
+        <v>8</v>
+      </c>
+      <c r="S159" s="29">
+        <v>9</v>
+      </c>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="3"/>
       <c r="Y159" s="16"/>
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="33"/>
+      <c r="B160" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="C160" s="73">
-        <f>INT($C$148)+3</f>
-        <v>4</v>
-      </c>
-      <c r="D160" s="4"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="159" t="s">
-        <v>298</v>
-      </c>
-      <c r="I160" s="2"/>
-      <c r="J160" s="31">
-        <v>3</v>
-      </c>
-      <c r="K160" s="31">
-        <v>4</v>
-      </c>
-      <c r="L160" s="31">
-        <v>6</v>
-      </c>
-      <c r="M160" s="31">
-        <v>8</v>
-      </c>
-      <c r="N160" s="31">
-        <v>9</v>
-      </c>
-      <c r="O160" s="31">
-        <v>6</v>
-      </c>
-      <c r="P160" s="31">
-        <v>5</v>
-      </c>
-      <c r="Q160" s="31">
-        <v>4</v>
-      </c>
-      <c r="R160" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="S160" s="31">
-        <v>3</v>
-      </c>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="4"/>
+        <f>INT($C$155)+2.01</f>
+        <v>3.01</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
+      <c r="R160" s="29"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="29"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="29"/>
+      <c r="W160" s="29"/>
+      <c r="X160" s="3"/>
       <c r="Y160" s="16"/>
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
-        <f>INT($C$148)+3</f>
-        <v>4</v>
+        <f>C$154</f>
+        <v>5</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="159" t="s">
-        <v>294</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="K161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="L161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="M161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="N161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="O161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="P161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="Q161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="R161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="S161" s="31">
-        <v>13.3</v>
-      </c>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="5"/>
+      <c r="W161" s="5"/>
       <c r="X161" s="4"/>
       <c r="Y161" s="16"/>
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="33"/>
+      <c r="B162" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="C162" s="73">
-        <f>INT(C$148+3)</f>
-        <v>4</v>
-      </c>
-      <c r="D162" s="4"/>
+        <f>C$154</f>
+        <v>5</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="148"/>
-      <c r="I162" s="148"/>
-      <c r="J162" s="148"/>
-      <c r="K162" s="148"/>
-      <c r="L162" s="148"/>
-      <c r="M162" s="148"/>
-      <c r="N162" s="148"/>
-      <c r="O162" s="148"/>
-      <c r="P162" s="148"/>
-      <c r="Q162" s="148"/>
-      <c r="R162" s="148"/>
-      <c r="S162" s="148"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5"/>
+      <c r="V162" s="5"/>
+      <c r="W162" s="5"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="16"/>
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
-        <f>INT(C$148+3)</f>
-        <v>4</v>
-      </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+        <f>INT($C$155)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="148"/>
-      <c r="I163" s="148"/>
-      <c r="J163" s="148"/>
-      <c r="K163" s="148"/>
-      <c r="L163" s="148"/>
-      <c r="M163" s="148"/>
-      <c r="N163" s="148"/>
-      <c r="O163" s="148"/>
-      <c r="P163" s="148"/>
-      <c r="Q163" s="148"/>
-      <c r="R163" s="148"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="58"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="58"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="58"/>
+      <c r="N163" s="58"/>
+      <c r="O163" s="58"/>
+      <c r="P163" s="58"/>
+      <c r="Q163" s="58"/>
+      <c r="R163" s="58"/>
+      <c r="S163" s="58"/>
+      <c r="T163" s="58"/>
+      <c r="U163" s="58"/>
+      <c r="V163" s="58"/>
+      <c r="W163" s="58"/>
       <c r="X163" s="4"/>
       <c r="Y163" s="16"/>
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
-        <f>INT($C$148)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT($C$155)+2</f>
+        <v>3</v>
       </c>
       <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H164" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I164" s="31">
+        <v>4</v>
+      </c>
+      <c r="J164" s="158" t="s">
+        <v>291</v>
+      </c>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="4"/>
       <c r="Y164" s="16"/>
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
-        <f>INT($C$148)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f>INT($C$155)+3</f>
+        <v>4</v>
       </c>
       <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
+      <c r="H165" s="157"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
       <c r="X165" s="4"/>
       <c r="Y165" s="16"/>
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="76">
-        <f>INT($C$148)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
-      <c r="O166" s="17"/>
-      <c r="P166" s="17"/>
-      <c r="Q166" s="17"/>
-      <c r="R166" s="17"/>
-      <c r="S166" s="17"/>
-      <c r="T166" s="17"/>
-      <c r="U166" s="17"/>
-      <c r="V166" s="17"/>
-      <c r="W166" s="17"/>
-      <c r="X166" s="17"/>
-      <c r="Y166" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B166" s="33"/>
+      <c r="C166" s="73">
+        <f>INT($C$155)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="16"/>
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="77">
-        <f>INT($C$148)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
-      <c r="R167" s="19"/>
-      <c r="S167" s="19"/>
-      <c r="T167" s="19"/>
-      <c r="U167" s="19"/>
-      <c r="V167" s="19"/>
-      <c r="W167" s="19"/>
-      <c r="X167" s="19"/>
-      <c r="Y167" s="19"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="73">
+        <f>INT($C$155)+3</f>
+        <v>4</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="I167" s="2"/>
+      <c r="J167" s="31">
+        <v>3</v>
+      </c>
+      <c r="K167" s="31">
+        <v>4</v>
+      </c>
+      <c r="L167" s="31">
+        <v>6</v>
+      </c>
+      <c r="M167" s="31">
+        <v>8</v>
+      </c>
+      <c r="N167" s="31">
+        <v>9</v>
+      </c>
+      <c r="O167" s="31">
+        <v>6</v>
+      </c>
+      <c r="P167" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q167" s="31">
+        <v>4</v>
+      </c>
+      <c r="R167" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="S167" s="31">
+        <v>3</v>
+      </c>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="16"/>
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="73">
-        <f>INT($C$148)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
+        <f>INT($C$155)+3</f>
+        <v>4</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="I168" s="2"/>
+      <c r="J168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="K168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="L168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="M168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="N168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="O168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="P168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="Q168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="R168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="S168" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="16"/>
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-      <c r="Y169" s="1"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="73">
+        <f>INT(C$155+3)</f>
+        <v>4</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="148"/>
+      <c r="I169" s="148"/>
+      <c r="J169" s="148"/>
+      <c r="K169" s="148"/>
+      <c r="L169" s="148"/>
+      <c r="M169" s="148"/>
+      <c r="N169" s="148"/>
+      <c r="O169" s="148"/>
+      <c r="P169" s="148"/>
+      <c r="Q169" s="148"/>
+      <c r="R169" s="148"/>
+      <c r="S169" s="148"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="16"/>
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="73">
+        <f>INT(C$155+3)</f>
+        <v>4</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="148"/>
+      <c r="I170" s="148"/>
+      <c r="J170" s="148"/>
+      <c r="K170" s="148"/>
+      <c r="L170" s="148"/>
+      <c r="M170" s="148"/>
+      <c r="N170" s="148"/>
+      <c r="O170" s="148"/>
+      <c r="P170" s="148"/>
+      <c r="Q170" s="148"/>
+      <c r="R170" s="148"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="16"/>
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="66"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="73">
+        <f>INT($C$155)+3.005</f>
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y171" s="16"/>
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="66"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="73">
+        <f>INT($C$155)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="16"/>
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="76">
+        <f>INT($C$155)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
+      <c r="V173" s="17"/>
+      <c r="W173" s="17"/>
+      <c r="X173" s="17"/>
+      <c r="Y173" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="77">
+        <f>INT($C$155)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="19"/>
+      <c r="T174" s="19"/>
+      <c r="U174" s="19"/>
+      <c r="V174" s="19"/>
+      <c r="W174" s="19"/>
+      <c r="X174" s="19"/>
+      <c r="Y174" s="19"/>
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C175" s="72" t="s">
+    <row r="175" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="73">
+        <f>INT($C$155)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="1"/>
+      <c r="Z175" s="1"/>
+      <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
+      <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="1"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+      <c r="Y178" s="1"/>
+      <c r="Z178" s="1"/>
+      <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+      <c r="Y179" s="1"/>
+      <c r="Z179" s="1"/>
+      <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
+      <c r="Z180" s="1"/>
+      <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+      <c r="Y181" s="1"/>
+      <c r="Z181" s="1"/>
+      <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C182" s="72" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B34E5-8430-4DEB-8727-A51785DF120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C4748-873C-4A5B-B137-8A598D708135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="19395" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -122,6 +122,8 @@
     <definedName name="i_nut_spread_n3" localSheetId="2">StructuralSA!$S$115:$S$122</definedName>
     <definedName name="i_nv_lower_p6">StructuralSA!$J$195:$S$195</definedName>
     <definedName name="i_nv_upper_p6">StructuralSA!$J$196:$S$196</definedName>
+    <definedName name="i_offs_sale_method" localSheetId="2">StructuralSA!$I$45</definedName>
+    <definedName name="i_offs_sale_opportunities_per_dvp" localSheetId="2">StructuralSA!$I$46</definedName>
     <definedName name="i_offs_user_fvp_date_iu" localSheetId="2">StructuralSA!$P$82:$R$84</definedName>
     <definedName name="i_p_pos">Stock!$I$55</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$66</definedName>
@@ -1226,6 +1228,54 @@
           </rPr>
           <t xml:space="preserve">
 In the web app this is set to False so that all crops can be wet or dy sown. Which removes the number of landuses required. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{BB89A993-BB16-406A-945D-1C3F541C2430}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(i) simply enter a number of sale options per dvp and AFO will make on t slice for each opportunity. The opportunities are evenly space within the dvp. This is the default option. (ii) enter weights and ages that trigger sales (property inputs). This method can be useful to reduce t sices but care must be taken when doing the inputs. This second option is recomended for the DSP model to reduce size.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{0634BC1B-3FB1-4084-83E3-B16D521CEB1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is used if the input above is True. The sale opportunities are evenly space within dvp. Each sale opportunity is a t slice.</t>
         </r>
       </text>
     </comment>
@@ -2371,7 +2421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="396">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3676,6 +3726,12 @@
   </si>
   <si>
     <t xml:space="preserve">Differentiate wet and dry sown landuses </t>
+  </si>
+  <si>
+    <t>Offs sale opportunities per DVP</t>
+  </si>
+  <si>
+    <t>Offs sale method</t>
   </si>
 </sst>
 </file>
@@ -5028,7 +5084,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -5588,6 +5644,10 @@
     <xf numFmtId="167" fontId="6" fillId="8" borderId="25" xfId="3" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="25" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5611,13 +5671,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="25" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -6273,7 +6326,7 @@
   <dimension ref="A1:AT127"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J124" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
@@ -6769,19 +6822,19 @@
       <c r="I13" s="126">
         <v>44371.659649305599</v>
       </c>
-      <c r="J13" s="212" t="s">
+      <c r="J13" s="213" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="213"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="215"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -6808,19 +6861,19 @@
       <c r="I14" s="125">
         <v>44719.411846643503</v>
       </c>
-      <c r="J14" s="215" t="s">
+      <c r="J14" s="216" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="216"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -11445,19 +11498,19 @@
       <c r="I13" s="126">
         <v>45049.868338773202</v>
       </c>
-      <c r="J13" s="212" t="s">
+      <c r="J13" s="213" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="213"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="215"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -11484,19 +11537,19 @@
       <c r="I14" s="125">
         <v>44762.449343865701</v>
       </c>
-      <c r="J14" s="215" t="s">
+      <c r="J14" s="216" t="s">
         <v>362</v>
       </c>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="216"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -26765,11 +26818,11 @@
   <dimension ref="A1:AB210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -27266,19 +27319,19 @@
       <c r="I13" s="126">
         <v>45314.472435879601</v>
       </c>
-      <c r="J13" s="212" t="s">
+      <c r="J13" s="213" t="s">
         <v>392</v>
       </c>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="213"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="215"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -27305,19 +27358,19 @@
       <c r="I14" s="125">
         <v>45073.683614236099</v>
       </c>
-      <c r="J14" s="215" t="s">
+      <c r="J14" s="216" t="s">
         <v>373</v>
       </c>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="216"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="216"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="217"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -28285,10 +28338,10 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="220" t="s">
+      <c r="H42" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="I42" s="219" t="b">
+      <c r="I42" s="212" t="b">
         <v>1</v>
       </c>
       <c r="J42" s="96"/>
@@ -28388,8 +28441,12 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I45" s="204">
+        <v>1</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -28421,8 +28478,12 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I46" s="204">
+        <v>4</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -36376,23 +36437,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="217" t="s">
+      <c r="J18" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="218"/>
+      <c r="R18" s="218"/>
+      <c r="S18" s="218"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="218"/>
+      <c r="V18" s="218"/>
+      <c r="W18" s="218"/>
+      <c r="X18" s="218"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -36487,23 +36548,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="215" t="s">
+      <c r="J21" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="216"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="216"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="216"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="216"/>
-      <c r="S21" s="216"/>
-      <c r="T21" s="216"/>
-      <c r="U21" s="216"/>
-      <c r="V21" s="216"/>
-      <c r="W21" s="216"/>
-      <c r="X21" s="218"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="217"/>
+      <c r="Q21" s="217"/>
+      <c r="R21" s="217"/>
+      <c r="S21" s="217"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="217"/>
+      <c r="V21" s="217"/>
+      <c r="W21" s="217"/>
+      <c r="X21" s="219"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C4748-873C-4A5B-B137-8A598D708135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F45EB-370E-4EA4-A43E-62BA133FC443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19395" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="29640" yWindow="615" windowWidth="25140" windowHeight="15075" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -185,12 +185,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3630,14 +3627,6 @@
     <t>FVP6 / U3</t>
   </si>
   <si>
-    <t>27May23: Alter FVP6 to be beginning of the PregTox period rather than end of joining
-30Sep22: Alter the inputs for the user defined FVP dates, changed to a calculation based on TOL, a 91 day weaning and 126 days from weaning to next joining
-8Jun22: Change the range of the LW for the initial animals.
-18Mar22: Change the default r2_inc to False now that a pickled feed supply is working.
-20May21: Make the extra nut_spread_g1 = 0.1
-1Apr19: Blank worksheet</t>
-  </si>
-  <si>
     <t>FVP7 / U4</t>
   </si>
   <si>
@@ -3732,6 +3721,15 @@
   </si>
   <si>
     <t>Offs sale method</t>
+  </si>
+  <si>
+    <t>15Apr24: CHange Off sale method to 2 to use pinp sale definition. Change # sale slice to 6 (every 2 months)
+27May23: Alter FVP6 to be beginning of the PregTox period rather than end of joining
+30Sep22: Alter the inputs for the user defined FVP dates, changed to a calculation based on TOL, a 91 day weaning and 126 days from weaning to next joining
+8Jun22: Change the range of the LW for the initial animals.
+18Mar22: Change the default r2_inc to False now that a pickled feed supply is working.
+20May21: Make the extra nut_spread_g1 = 0.1
+1Apr19: Blank worksheet</t>
   </si>
 </sst>
 </file>
@@ -6024,9 +6022,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6064,7 +6062,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6170,7 +6168,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6312,7 +6310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6333,23 +6331,23 @@
       <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6379,7 +6377,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6412,7 +6410,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6445,7 +6443,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6480,7 +6478,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6551,7 +6549,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6589,7 +6587,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6628,7 +6626,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6661,7 +6659,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6698,7 +6696,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6733,7 +6731,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6770,7 +6768,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6805,7 +6803,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6844,7 +6842,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6883,7 +6881,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6918,7 +6916,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -6953,7 +6951,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -7000,7 +6998,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -7037,7 +7035,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -7074,7 +7072,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -7111,7 +7109,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -7148,7 +7146,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -7183,7 +7181,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7216,7 +7214,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7251,7 +7249,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7284,7 +7282,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7317,7 +7315,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7350,7 +7348,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7383,7 +7381,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7418,7 +7416,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7451,7 +7449,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7488,7 +7486,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7527,7 +7525,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7560,7 +7558,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7593,7 +7591,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7626,7 +7624,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7659,7 +7657,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7692,7 +7690,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7727,7 +7725,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7760,7 +7758,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7797,7 +7795,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7832,7 +7830,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7873,7 +7871,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7906,7 +7904,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -7945,7 +7943,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -7978,7 +7976,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -8021,7 +8019,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -8060,7 +8058,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -8103,7 +8101,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -8144,7 +8142,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -8177,7 +8175,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8214,7 +8212,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8247,7 +8245,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8284,7 +8282,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8317,7 +8315,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8373,7 +8371,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8408,7 +8406,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8441,7 +8439,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8476,7 +8474,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8509,7 +8507,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8542,7 +8540,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8575,7 +8573,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8608,7 +8606,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8643,7 +8641,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8676,7 +8674,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8713,7 +8711,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8752,7 +8750,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8785,7 +8783,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8818,7 +8816,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8851,7 +8849,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8884,7 +8882,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8917,7 +8915,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -8952,7 +8950,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -8985,7 +8983,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -9022,7 +9020,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -9057,7 +9055,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -9094,7 +9092,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -9127,7 +9125,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -9143,7 +9141,7 @@
         <v>309</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
@@ -9174,7 +9172,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -9222,7 +9220,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9265,7 +9263,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9308,7 +9306,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9351,7 +9349,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9394,7 +9392,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9437,7 +9435,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9480,7 +9478,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9523,7 +9521,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9566,7 +9564,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9609,7 +9607,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9652,7 +9650,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9695,7 +9693,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9738,7 +9736,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9779,7 +9777,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9820,7 +9818,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9861,7 +9859,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9902,7 +9900,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -9939,7 +9937,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -9976,7 +9974,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -10013,7 +10011,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -10050,7 +10048,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -10087,7 +10085,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -10124,7 +10122,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -10161,7 +10159,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -10198,7 +10196,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10235,7 +10233,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10272,7 +10270,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10309,7 +10307,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10346,7 +10344,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10383,7 +10381,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10413,7 +10411,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10446,7 +10444,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10479,7 +10477,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10512,7 +10510,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10545,7 +10543,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10595,7 +10593,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10630,7 +10628,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10663,7 +10661,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10698,7 +10696,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10731,7 +10729,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10764,7 +10762,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10797,7 +10795,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10827,7 +10825,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10857,7 +10855,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10887,7 +10885,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10917,7 +10915,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -10947,7 +10945,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -10977,7 +10975,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -11009,23 +11007,23 @@
       <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -11055,7 +11053,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -11088,7 +11086,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -11121,7 +11119,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -11156,7 +11154,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11227,7 +11225,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11265,7 +11263,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11304,7 +11302,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11337,7 +11335,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11374,7 +11372,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11409,7 +11407,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11446,7 +11444,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11481,7 +11479,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11499,7 +11497,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="213" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K13" s="214"/>
       <c r="L13" s="214"/>
@@ -11520,7 +11518,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11559,7 +11557,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11594,7 +11592,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11629,7 +11627,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11676,7 +11674,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11713,7 +11711,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11750,7 +11748,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11787,7 +11785,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11824,7 +11822,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11859,7 +11857,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11892,7 +11890,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -11927,7 +11925,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -11960,7 +11958,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -11993,7 +11991,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -12026,7 +12024,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -12059,7 +12057,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -12094,7 +12092,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -12127,7 +12125,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -12164,7 +12162,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -12201,7 +12199,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12234,7 +12232,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12267,7 +12265,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12300,7 +12298,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12333,7 +12331,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12366,7 +12364,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12401,7 +12399,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12434,7 +12432,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12471,7 +12469,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12506,7 +12504,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12545,7 +12543,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12582,7 +12580,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12619,7 +12617,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12656,7 +12654,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12693,7 +12691,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12730,7 +12728,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12767,7 +12765,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12804,7 +12802,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12841,7 +12839,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12878,7 +12876,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12915,7 +12913,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -12952,7 +12950,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -12989,7 +12987,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -13026,7 +13024,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -13065,7 +13063,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -13102,7 +13100,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -13139,7 +13137,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -13176,7 +13174,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -13209,7 +13207,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13246,7 +13244,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13283,7 +13281,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13324,7 +13322,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13365,7 +13363,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13398,7 +13396,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13437,7 +13435,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13470,7 +13468,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13505,7 +13503,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13546,7 +13544,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13587,7 +13585,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13620,7 +13618,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13657,7 +13655,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13690,7 +13688,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13725,7 +13723,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13758,7 +13756,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13793,7 +13791,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13826,7 +13824,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13859,7 +13857,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13892,7 +13890,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13925,7 +13923,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -13960,7 +13958,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -13993,7 +13991,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -14030,7 +14028,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -14067,7 +14065,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -14100,7 +14098,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -14133,7 +14131,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -14166,7 +14164,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -14205,7 +14203,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14254,7 +14252,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14289,7 +14287,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14322,7 +14320,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14359,7 +14357,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14394,7 +14392,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14447,7 +14445,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14498,7 +14496,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14549,7 +14547,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14582,7 +14580,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14633,7 +14631,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14682,7 +14680,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14731,7 +14729,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14780,7 +14778,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14813,7 +14811,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14864,7 +14862,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14913,7 +14911,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -14962,7 +14960,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -15011,7 +15009,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -15044,7 +15042,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -15095,7 +15093,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -15144,7 +15142,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -15193,7 +15191,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15242,7 +15240,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15275,7 +15273,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15310,7 +15308,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15351,7 +15349,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15399,7 +15397,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15445,7 +15443,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15488,7 +15486,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15521,7 +15519,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15568,7 +15566,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15613,7 +15611,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15656,7 +15654,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15689,7 +15687,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15724,7 +15722,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15757,7 +15755,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15792,7 +15790,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15825,7 +15823,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15858,7 +15856,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15891,7 +15889,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15924,7 +15922,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -15959,7 +15957,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -15992,7 +15990,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -16029,7 +16027,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -16066,7 +16064,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -16099,7 +16097,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -16132,7 +16130,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -16167,7 +16165,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -16202,7 +16200,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16257,7 +16255,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16292,7 +16290,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16347,7 +16345,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16384,7 +16382,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16419,7 +16417,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16454,7 +16452,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16493,7 +16491,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16552,7 +16550,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16609,7 +16607,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16646,7 +16644,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16703,7 +16701,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16760,7 +16758,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16817,7 +16815,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16874,7 +16872,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -16931,7 +16929,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -16988,7 +16986,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -17045,7 +17043,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -17102,7 +17100,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -17165,7 +17163,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -17198,7 +17196,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -17258,7 +17256,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17293,7 +17291,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17344,7 +17342,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17407,7 +17405,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17468,7 +17466,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17527,7 +17525,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17586,7 +17584,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17645,7 +17643,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17706,7 +17704,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17767,7 +17765,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17826,7 +17824,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17885,7 +17883,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -17944,7 +17942,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -18005,7 +18003,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -18066,7 +18064,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -18125,7 +18123,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -18182,7 +18180,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -18241,7 +18239,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18302,7 +18300,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18363,7 +18361,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18422,7 +18420,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18481,7 +18479,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18540,7 +18538,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18603,7 +18601,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18662,7 +18660,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18721,7 +18719,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18778,7 +18776,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18835,7 +18833,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18894,7 +18892,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -18951,7 +18949,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -19008,7 +19006,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -19065,7 +19063,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -19122,7 +19120,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -19181,7 +19179,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19238,7 +19236,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19295,7 +19293,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19352,7 +19350,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19409,7 +19407,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19468,7 +19466,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19525,7 +19523,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19582,7 +19580,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19639,7 +19637,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19696,7 +19694,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19729,7 +19727,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19789,7 +19787,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19857,7 +19855,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19925,7 +19923,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -19960,7 +19958,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -20011,7 +20009,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -20083,7 +20081,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -20156,7 +20154,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20223,7 +20221,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20292,7 +20290,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20361,7 +20359,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20432,7 +20430,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20503,7 +20501,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20570,7 +20568,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20637,7 +20635,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20704,7 +20702,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20773,7 +20771,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20842,7 +20840,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20909,7 +20907,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -20976,7 +20974,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -21043,7 +21041,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -21112,7 +21110,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -21181,7 +21179,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21248,7 +21246,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21315,7 +21313,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21382,7 +21380,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21452,7 +21450,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21519,7 +21517,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21582,7 +21580,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21645,7 +21643,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21712,7 +21710,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21781,7 +21779,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21848,7 +21846,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21915,7 +21913,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -21982,7 +21980,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -22049,7 +22047,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -22118,7 +22116,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -22185,7 +22183,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22252,7 +22250,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22319,7 +22317,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22386,7 +22384,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22455,7 +22453,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22522,7 +22520,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22589,7 +22587,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22656,7 +22654,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22723,7 +22721,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22794,7 +22792,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22863,7 +22861,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -22930,7 +22928,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -22997,7 +22995,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -23064,7 +23062,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -23133,7 +23131,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -23200,7 +23198,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23267,7 +23265,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23334,7 +23332,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23401,7 +23399,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23460,7 +23458,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23522,7 +23520,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23583,7 +23581,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23643,7 +23641,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23710,7 +23708,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23775,7 +23773,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23837,7 +23835,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23897,7 +23895,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -23954,7 +23952,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -24021,7 +24019,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -24054,7 +24052,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -24110,7 +24108,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -24163,7 +24161,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24216,7 +24214,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24251,7 +24249,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24301,7 +24299,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24359,7 +24357,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24417,7 +24415,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24470,7 +24468,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24522,7 +24520,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24577,7 +24575,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24631,7 +24629,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24685,7 +24683,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24735,7 +24733,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24785,7 +24783,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24838,7 +24836,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24892,7 +24890,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -24946,7 +24944,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -24996,7 +24994,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -25046,7 +25044,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -25099,7 +25097,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -25151,7 +25149,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -25203,7 +25201,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25252,7 +25250,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25299,7 +25297,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25352,7 +25350,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25385,7 +25383,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25418,7 +25416,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25453,7 +25451,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25486,7 +25484,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25519,7 +25517,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25554,7 +25552,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25587,7 +25585,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25624,7 +25622,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25661,7 +25659,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25694,7 +25692,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25727,7 +25725,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25772,7 +25770,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25811,7 +25809,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25850,7 +25848,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25899,7 +25897,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -25932,7 +25930,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -25969,7 +25967,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -26004,7 +26002,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -26039,7 +26037,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -26080,7 +26078,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -26121,7 +26119,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -26162,7 +26160,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -26195,7 +26193,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26228,7 +26226,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26267,7 +26265,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26311,7 +26309,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26344,7 +26342,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26377,7 +26375,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26410,7 +26408,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26445,7 +26443,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="73">
@@ -26478,7 +26476,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="76">
@@ -26513,7 +26511,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="19"/>
       <c r="C325" s="77">
@@ -26546,7 +26544,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26579,7 +26577,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="73">
@@ -26612,7 +26610,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26642,7 +26640,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26672,7 +26670,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26702,7 +26700,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26732,7 +26730,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26762,7 +26760,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="66"/>
@@ -26792,7 +26790,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C334" s="72" t="s">
         <v>4</v>
       </c>
@@ -26822,31 +26820,31 @@
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14:T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26876,7 +26874,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26909,7 +26907,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26942,7 +26940,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -26977,7 +26975,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -27048,7 +27046,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -27086,7 +27084,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -27125,7 +27123,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -27158,7 +27156,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -27195,7 +27193,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27230,7 +27228,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27267,7 +27265,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27302,7 +27300,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27320,7 +27318,7 @@
         <v>45314.472435879601</v>
       </c>
       <c r="J13" s="213" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K13" s="214"/>
       <c r="L13" s="214"/>
@@ -27341,7 +27339,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27356,10 +27354,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="125">
-        <v>45073.683614236099</v>
+        <v>45397.575135185201</v>
       </c>
       <c r="J14" s="216" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="K14" s="217"/>
       <c r="L14" s="217"/>
@@ -27380,7 +27378,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27415,7 +27413,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27450,7 +27448,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27497,7 +27495,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27534,7 +27532,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27571,7 +27569,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27608,7 +27606,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27645,7 +27643,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27680,7 +27678,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27713,7 +27711,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27748,7 +27746,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27781,7 +27779,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27814,7 +27812,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27847,7 +27845,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27880,7 +27878,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27915,7 +27913,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27948,7 +27946,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -27985,7 +27983,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -28022,7 +28020,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -28055,7 +28053,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -28088,7 +28086,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -28121,7 +28119,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -28154,7 +28152,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28187,7 +28185,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28222,7 +28220,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28255,7 +28253,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28292,7 +28290,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28327,7 +28325,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28339,7 +28337,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I42" s="212" t="b">
         <v>1</v>
@@ -28364,7 +28362,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28397,7 +28395,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28430,7 +28428,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28442,10 +28440,10 @@
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I45" s="204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -28467,7 +28465,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28479,10 +28477,10 @@
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I46" s="204">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -28504,7 +28502,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28537,7 +28535,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28570,7 +28568,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28603,7 +28601,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28638,7 +28636,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28671,7 +28669,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="35"/>
       <c r="C52" s="76">
@@ -28706,7 +28704,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="77">
@@ -28739,7 +28737,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="73">
@@ -28772,7 +28770,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="73">
@@ -28805,7 +28803,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="20"/>
       <c r="C56" s="74">
@@ -28838,7 +28836,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="34" t="s">
         <v>21</v>
@@ -28873,7 +28871,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28906,7 +28904,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -28943,7 +28941,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -28980,7 +28978,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -29013,7 +29011,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -29046,7 +29044,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -29087,7 +29085,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -29130,7 +29128,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -29162,7 +29160,7 @@
         <v>372</v>
       </c>
       <c r="R65" s="156" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
@@ -29175,7 +29173,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33" t="s">
         <v>20</v>
@@ -29216,7 +29214,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29249,7 +29247,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33" t="s">
         <v>19</v>
@@ -29286,7 +29284,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29321,7 +29319,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29356,7 +29354,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29401,7 +29399,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29446,7 +29444,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29507,7 +29505,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29568,7 +29566,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -29629,7 +29627,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29662,7 +29660,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -29695,7 +29693,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29742,7 +29740,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29787,7 +29785,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29834,7 +29832,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29881,7 +29879,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -29928,7 +29926,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -29975,7 +29973,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -30022,7 +30020,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -30052,7 +30050,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -30085,7 +30083,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30120,7 +30118,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30153,7 +30151,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="35"/>
       <c r="C89" s="76">
@@ -30188,7 +30186,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="77">
@@ -30221,7 +30219,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="73">
@@ -30254,7 +30252,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="73">
@@ -30287,7 +30285,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="20"/>
       <c r="C93" s="74">
@@ -30320,7 +30318,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="34" t="s">
         <v>21</v>
@@ -30355,7 +30353,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30388,7 +30386,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30425,7 +30423,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30462,7 +30460,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30495,7 +30493,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30528,7 +30526,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30567,7 +30565,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30606,7 +30604,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30649,7 +30647,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33" t="s">
         <v>20</v>
@@ -30690,7 +30688,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30723,7 +30721,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33" t="s">
         <v>19</v>
@@ -30760,7 +30758,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -30795,7 +30793,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -30842,7 +30840,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -30884,7 +30882,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -30925,7 +30923,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -30968,7 +30966,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31009,7 +31007,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31044,7 +31042,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31079,7 +31077,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31132,7 +31130,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -31187,7 +31185,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -31236,7 +31234,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -31285,7 +31283,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -31334,7 +31332,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -31383,7 +31381,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -31432,7 +31430,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -31481,7 +31479,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -31530,7 +31528,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -31565,7 +31563,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -31600,7 +31598,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="73">
@@ -31641,7 +31639,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="73">
@@ -31698,7 +31696,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
@@ -31759,7 +31757,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
@@ -31812,7 +31810,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
@@ -31865,7 +31863,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
@@ -31912,7 +31910,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -31947,7 +31945,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -31980,7 +31978,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="76">
@@ -32015,7 +32013,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="77">
@@ -32048,7 +32046,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="73">
@@ -32081,7 +32079,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="73">
@@ -32114,7 +32112,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="74">
@@ -32147,7 +32145,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -32182,7 +32180,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
@@ -32215,7 +32213,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -32252,7 +32250,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="73">
@@ -32289,7 +32287,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -32322,7 +32320,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -32355,7 +32353,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33" t="s">
         <v>20</v>
@@ -32396,7 +32394,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -32429,7 +32427,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33" t="s">
         <v>19</v>
@@ -32466,7 +32464,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -32501,7 +32499,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -32513,7 +32511,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="4"/>
       <c r="H148" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I148" s="31" t="b">
         <v>0</v>
@@ -32546,7 +32544,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -32587,7 +32585,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -32628,7 +32626,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -32665,7 +32663,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73"/>
@@ -32695,7 +32693,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73"/>
@@ -32729,7 +32727,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -32764,7 +32762,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -32799,7 +32797,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -32814,7 +32812,7 @@
         <v>257</v>
       </c>
       <c r="I156" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -32836,7 +32834,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -32875,7 +32873,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -32889,7 +32887,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="4"/>
       <c r="H158" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -32914,7 +32912,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -32928,7 +32926,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="H159" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -32953,7 +32951,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -32967,7 +32965,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="4"/>
       <c r="H160" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I160" s="31">
         <v>0</v>
@@ -32992,7 +32990,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -33006,7 +33004,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
       <c r="H161" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I161" s="31">
         <v>0</v>
@@ -33031,7 +33029,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -33045,7 +33043,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="4"/>
       <c r="H162" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I162" s="31">
         <v>0</v>
@@ -33070,7 +33068,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -33084,7 +33082,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="4"/>
       <c r="H163" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I163" s="31">
         <v>0</v>
@@ -33109,7 +33107,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -33148,7 +33146,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -33187,7 +33185,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -33226,7 +33224,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -33265,7 +33263,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -33304,7 +33302,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -33343,7 +33341,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -33382,7 +33380,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -33396,7 +33394,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="4"/>
       <c r="H171" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I171" s="31">
         <v>0</v>
@@ -33421,7 +33419,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -33454,7 +33452,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -33487,7 +33485,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -33522,7 +33520,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -33555,7 +33553,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="35"/>
       <c r="C176" s="76">
@@ -33590,7 +33588,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="19"/>
       <c r="C177" s="77">
@@ -33623,7 +33621,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="73">
@@ -33656,7 +33654,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="73">
@@ -33689,7 +33687,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="20"/>
       <c r="C180" s="74">
@@ -33722,7 +33720,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="34" t="s">
         <v>21</v>
@@ -33757,7 +33755,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -33790,7 +33788,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -33827,7 +33825,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -33866,7 +33864,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -33899,7 +33897,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -33934,7 +33932,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -33987,7 +33985,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33" t="s">
         <v>20</v>
@@ -34022,7 +34020,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -34055,7 +34053,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33" t="s">
         <v>19</v>
@@ -34092,7 +34090,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -34127,7 +34125,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -34166,7 +34164,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -34199,7 +34197,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -34234,7 +34232,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -34289,7 +34287,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -34344,7 +34342,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -34377,7 +34375,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -34410,7 +34408,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -34445,7 +34443,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -34478,7 +34476,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="35"/>
       <c r="C201" s="76">
@@ -34513,7 +34511,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="19"/>
       <c r="C202" s="77">
@@ -34546,7 +34544,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="73">
@@ -34579,7 +34577,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="66"/>
@@ -34609,7 +34607,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="66"/>
@@ -34639,7 +34637,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="66"/>
@@ -34669,7 +34667,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="66"/>
@@ -34699,7 +34697,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="66"/>
@@ -34729,7 +34727,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="66"/>
@@ -34759,7 +34757,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C210" s="72" t="s">
         <v>4</v>
       </c>
@@ -34801,17 +34799,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1" s="166"/>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -34839,7 +34837,7 @@
       <c r="Y1" s="168"/>
       <c r="Z1" s="168"/>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="166"/>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -34867,7 +34865,7 @@
       <c r="Y2" s="167"/>
       <c r="Z2" s="167"/>
     </row>
-    <row r="3" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166"/>
       <c r="B3" s="167"/>
       <c r="C3" s="167"/>
@@ -34895,7 +34893,7 @@
       <c r="Y3" s="167"/>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="169"/>
@@ -34923,7 +34921,7 @@
       <c r="Y4" s="168"/>
       <c r="Z4" s="168"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="166"/>
       <c r="B5" s="167"/>
       <c r="C5" s="172"/>
@@ -34953,7 +34951,7 @@
       <c r="Y5" s="168"/>
       <c r="Z5" s="168"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="166"/>
       <c r="B6" s="167"/>
       <c r="C6" s="172"/>
@@ -34981,7 +34979,7 @@
       <c r="Y6" s="168"/>
       <c r="Z6" s="168"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166"/>
       <c r="B7" s="167"/>
       <c r="C7" s="177"/>
@@ -35011,7 +35009,7 @@
       <c r="Y7" s="168"/>
       <c r="Z7" s="168"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="180"/>
@@ -35039,7 +35037,7 @@
       <c r="Y8" s="168"/>
       <c r="Z8" s="168"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="166"/>
       <c r="B9" s="167"/>
       <c r="C9" s="177"/>
@@ -35067,7 +35065,7 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="168"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="177"/>
@@ -35095,7 +35093,7 @@
       <c r="Y10" s="168"/>
       <c r="Z10" s="168"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="177"/>
@@ -35123,7 +35121,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="177"/>
@@ -35151,7 +35149,7 @@
       <c r="Y12" s="168"/>
       <c r="Z12" s="168"/>
     </row>
-    <row r="13" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="177"/>
@@ -35179,7 +35177,7 @@
       <c r="Y13" s="168"/>
       <c r="Z13" s="168"/>
     </row>
-    <row r="14" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="177"/>
@@ -35207,7 +35205,7 @@
       <c r="Y14" s="168"/>
       <c r="Z14" s="168"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="177"/>
@@ -35235,7 +35233,7 @@
       <c r="Y15" s="168"/>
       <c r="Z15" s="168"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="177"/>
@@ -35243,18 +35241,18 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O16" s="193" t="s">
         <v>346</v>
@@ -35277,7 +35275,7 @@
       <c r="Y16" s="168"/>
       <c r="Z16" s="168"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="177"/>
@@ -35285,7 +35283,7 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
@@ -35293,11 +35291,11 @@
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O17" s="191" t="s">
         <v>350</v>
@@ -35320,7 +35318,7 @@
       <c r="Y17" s="168"/>
       <c r="Z17" s="168"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166"/>
       <c r="B18" s="167"/>
       <c r="C18" s="177"/>
@@ -35362,7 +35360,7 @@
       <c r="Y18" s="168"/>
       <c r="Z18" s="168"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="177"/>
@@ -35390,7 +35388,7 @@
       <c r="Y19" s="168"/>
       <c r="Z19" s="168"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="166"/>
       <c r="B20" s="167"/>
       <c r="C20" s="177"/>
@@ -35418,7 +35416,7 @@
       <c r="Y20" s="168"/>
       <c r="Z20" s="168"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="177"/>
@@ -35446,7 +35444,7 @@
       <c r="Y21" s="168"/>
       <c r="Z21" s="168"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="177"/>
@@ -35474,7 +35472,7 @@
       <c r="Y22" s="168"/>
       <c r="Z22" s="168"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="177"/>
@@ -35502,7 +35500,7 @@
       <c r="Y23" s="168"/>
       <c r="Z23" s="168"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="177"/>
@@ -35530,7 +35528,7 @@
       <c r="Y24" s="168"/>
       <c r="Z24" s="168"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="177"/>
@@ -35558,7 +35556,7 @@
       <c r="Y25" s="168"/>
       <c r="Z25" s="168"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="177"/>
@@ -35586,7 +35584,7 @@
       <c r="Y26" s="168"/>
       <c r="Z26" s="168"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="177"/>
@@ -35614,7 +35612,7 @@
       <c r="Y27" s="168"/>
       <c r="Z27" s="168"/>
     </row>
-    <row r="28" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="177"/>
@@ -35642,7 +35640,7 @@
       <c r="Y28" s="168"/>
       <c r="Z28" s="168"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="200"/>
@@ -35670,7 +35668,7 @@
       <c r="Y29" s="168"/>
       <c r="Z29" s="168"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -35698,7 +35696,7 @@
       <c r="Y30" s="168"/>
       <c r="Z30" s="168"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -35744,22 +35742,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -35791,7 +35789,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -35826,7 +35824,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -35861,7 +35859,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -35898,7 +35896,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -35975,7 +35973,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -36015,7 +36013,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -36056,7 +36054,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -36091,7 +36089,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -36126,7 +36124,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -36161,7 +36159,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -36196,7 +36194,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -36235,7 +36233,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -36272,7 +36270,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -36307,7 +36305,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -36346,7 +36344,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -36383,7 +36381,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -36420,7 +36418,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -36461,7 +36459,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -36496,7 +36494,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -36531,7 +36529,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -36572,7 +36570,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -36607,7 +36605,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -36642,7 +36640,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -36679,7 +36677,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -36716,7 +36714,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -36765,7 +36763,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -36804,7 +36802,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -36843,7 +36841,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -36882,7 +36880,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -36921,7 +36919,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -36958,7 +36956,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -36995,7 +36993,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="67">
@@ -37056,7 +37054,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="67">
@@ -37121,7 +37119,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="67">
@@ -37156,7 +37154,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="67">
@@ -37191,7 +37189,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="67">
@@ -37226,7 +37224,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="67">
@@ -37263,7 +37261,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="67">
@@ -37298,7 +37296,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="70">
@@ -37335,7 +37333,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="71">
@@ -37370,7 +37368,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="67">
@@ -37405,7 +37403,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="66"/>
@@ -37437,7 +37435,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="66"/>
@@ -37469,7 +37467,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="66"/>
@@ -37501,7 +37499,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="66"/>
@@ -37533,7 +37531,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="66"/>
@@ -37565,7 +37563,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="66"/>
@@ -37597,7 +37595,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="72" t="s">
         <v>4</v>
       </c>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6C4748-873C-4A5B-B137-8A598D708135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC40566-3073-41AB-AE3A-B70BF2DFD0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19395" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="29490" yWindow="315" windowWidth="25140" windowHeight="15075" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
     <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$108</definedName>
-    <definedName name="i_len_f">StructuralSA!$I$192</definedName>
+    <definedName name="i_len_f">StructuralSA!$I$193</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
     <definedName name="i_len_s">Stock!$N$160</definedName>
@@ -120,8 +120,8 @@
     <definedName name="i_nut_spread_n0" localSheetId="2">StructuralSA!$J$115</definedName>
     <definedName name="i_nut_spread_n1" localSheetId="2">StructuralSA!$M$115:$M$122</definedName>
     <definedName name="i_nut_spread_n3" localSheetId="2">StructuralSA!$S$115:$S$122</definedName>
-    <definedName name="i_nv_lower_p6">StructuralSA!$J$195:$S$195</definedName>
-    <definedName name="i_nv_upper_p6">StructuralSA!$J$196:$S$196</definedName>
+    <definedName name="i_nv_lower_p6">StructuralSA!$J$196:$S$196</definedName>
+    <definedName name="i_nv_upper_p6">StructuralSA!$J$197:$S$197</definedName>
     <definedName name="i_offs_sale_method" localSheetId="2">StructuralSA!$I$45</definedName>
     <definedName name="i_offs_sale_opportunities_per_dvp" localSheetId="2">StructuralSA!$I$46</definedName>
     <definedName name="i_offs_user_fvp_date_iu" localSheetId="2">StructuralSA!$P$82:$R$84</definedName>
@@ -130,8 +130,8 @@
     <definedName name="i_progeny_w2_len">StructuralSA!$Q$107</definedName>
     <definedName name="i_r2adjust_inc">StructuralSA!$U$148</definedName>
     <definedName name="i_rev_number" localSheetId="2">StructuralSA!$I$150</definedName>
-    <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$157:$H$171</definedName>
-    <definedName name="i_rev_trait_scenario" localSheetId="2">StructuralSA!$I$157:$I$171</definedName>
+    <definedName name="i_rev_trait_name" localSheetId="2">StructuralSA!$H$157:$H$172</definedName>
+    <definedName name="i_rev_trait_scenario" localSheetId="2">StructuralSA!$I$157:$I$172</definedName>
     <definedName name="i_rev_update" localSheetId="2">StructuralSA!$I$148</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$62</definedName>
     <definedName name="i_store_cs_rep" localSheetId="3">'Report Settings'!$K$18</definedName>
@@ -185,12 +185,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2282,7 +2279,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H167" authorId="1" shapeId="0" xr:uid="{658A1575-7B6D-49A0-9205-9DD14E053E41}">
+    <comment ref="H164" authorId="2" shapeId="0" xr:uid="{4C2B1933-42FC-4263-B576-C6A05675CBF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only active for the CSIRO &amp; MU feeding system (f_lwc_cs &amp; mu)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H168" authorId="1" shapeId="0" xr:uid="{658A1575-7B6D-49A0-9205-9DD14E053E41}">
       <text>
         <r>
           <rPr>
@@ -2306,7 +2327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H192" authorId="2" shapeId="0" xr:uid="{B39EFDC6-7ABB-4808-93B1-2819F2755236}">
+    <comment ref="H193" authorId="2" shapeId="0" xr:uid="{B39EFDC6-7ABB-4808-93B1-2819F2755236}">
       <text>
         <r>
           <rPr>
@@ -2330,7 +2351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H195" authorId="2" shapeId="0" xr:uid="{315CC92D-C01A-4D16-90CA-458397130ECA}">
+    <comment ref="H196" authorId="2" shapeId="0" xr:uid="{315CC92D-C01A-4D16-90CA-458397130ECA}">
       <text>
         <r>
           <rPr>
@@ -2356,7 +2377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H196" authorId="2" shapeId="0" xr:uid="{24292EB5-78CD-4E29-870F-1743067DEF27}">
+    <comment ref="H197" authorId="2" shapeId="0" xr:uid="{24292EB5-78CD-4E29-870F-1743067DEF27}">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="397">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3630,14 +3651,6 @@
     <t>FVP6 / U3</t>
   </si>
   <si>
-    <t>27May23: Alter FVP6 to be beginning of the PregTox period rather than end of joining
-30Sep22: Alter the inputs for the user defined FVP dates, changed to a calculation based on TOL, a 91 day weaning and 126 days from weaning to next joining
-8Jun22: Change the range of the LW for the initial animals.
-18Mar22: Change the default r2_inc to False now that a pickled feed supply is working.
-20May21: Make the extra nut_spread_g1 = 0.1
-1Apr19: Blank worksheet</t>
-  </si>
-  <si>
     <t>FVP7 / U4</t>
   </si>
   <si>
@@ -3700,7 +3713,29 @@
     <t>milk</t>
   </si>
   <si>
-    <t>23Jan24: Add extra traits for REV (15 in total counting random)
+    <t xml:space="preserve">Differentiate wet and dry sown landuses </t>
+  </si>
+  <si>
+    <t>Offs sale opportunities per DVP</t>
+  </si>
+  <si>
+    <t>Offs sale method</t>
+  </si>
+  <si>
+    <t>9May24: Change Offs sale method to 0 so that pkl_fs for the NFS would work (temporary change)
+27May23: Alter FVP6 to be beginning of the PregTox period rather than end of joining
+30Sep22: Alter the inputs for the user defined FVP dates, changed to a calculation based on TOL, a 91 day weaning and 126 days from weaning to next joining
+8Jun22: Change the range of the LW for the initial animals.
+18Mar22: Change the default r2_inc to False now that a pickled feed supply is working.
+20May21: Make the extra nut_spread_g1 = 0.1
+1Apr19: Blank worksheet</t>
+  </si>
+  <si>
+    <t>evg</t>
+  </si>
+  <si>
+    <t>29May24: Add REV[ebg] dictionary
+23Jan24: Add extra traits for REV (15 in total counting random)
 22Jan24: Change rev_create to rev_update, and rev_trait_inc to rev_trait_scenario
 30May23: Add extra user FVP to represent the preg tox period.
 27May23: Fix the FVP period numbers defining U0 as weaning
@@ -3723,15 +3758,6 @@
 25Apr21: Moved inputs from Property.xlsx
                    Moved FVP &amp; N inputs from Stock
 1: 1Apr19-Created the version control table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differentiate wet and dry sown landuses </t>
-  </si>
-  <si>
-    <t>Offs sale opportunities per DVP</t>
-  </si>
-  <si>
-    <t>Offs sale method</t>
   </si>
 </sst>
 </file>
@@ -6024,9 +6050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6064,7 +6090,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6170,7 +6196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6312,7 +6338,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6326,30 +6352,30 @@
   <dimension ref="A1:AT127"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
       <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6379,7 +6405,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6412,7 +6438,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6445,7 +6471,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6480,7 +6506,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6551,7 +6577,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6589,7 +6615,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6628,7 +6654,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6661,7 +6687,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6698,7 +6724,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6733,7 +6759,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6770,7 +6796,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6805,7 +6831,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6844,7 +6870,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6883,7 +6909,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6918,7 +6944,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -6953,7 +6979,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -7000,7 +7026,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -7037,7 +7063,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -7074,7 +7100,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -7111,7 +7137,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -7148,7 +7174,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -7183,7 +7209,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7216,7 +7242,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7251,7 +7277,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7284,7 +7310,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7317,7 +7343,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7350,7 +7376,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7383,7 +7409,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7418,7 +7444,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7451,7 +7477,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7488,7 +7514,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7527,7 +7553,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7560,7 +7586,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7593,7 +7619,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7626,7 +7652,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7659,7 +7685,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7692,7 +7718,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7727,7 +7753,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7760,7 +7786,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7797,7 +7823,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7832,7 +7858,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7873,7 +7899,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7906,7 +7932,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -7945,7 +7971,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -7978,7 +8004,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -8021,7 +8047,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -8060,7 +8086,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -8103,7 +8129,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -8144,7 +8170,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -8177,7 +8203,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8214,7 +8240,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8247,7 +8273,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8284,7 +8310,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8317,7 +8343,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8373,7 +8399,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8408,7 +8434,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8441,7 +8467,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8476,7 +8502,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8509,7 +8535,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8542,7 +8568,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8575,7 +8601,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8608,7 +8634,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8643,7 +8669,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8676,7 +8702,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8713,7 +8739,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8752,7 +8778,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8785,7 +8811,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8818,7 +8844,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8851,7 +8877,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8884,7 +8910,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8917,7 +8943,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -8952,7 +8978,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -8985,7 +9011,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -9022,7 +9048,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -9057,7 +9083,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -9094,7 +9120,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -9127,7 +9153,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -9143,7 +9169,7 @@
         <v>309</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
@@ -9174,7 +9200,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -9222,7 +9248,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9265,7 +9291,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9308,7 +9334,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9351,7 +9377,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9394,7 +9420,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9437,7 +9463,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9480,7 +9506,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9523,7 +9549,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9566,7 +9592,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9609,7 +9635,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9652,7 +9678,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9695,7 +9721,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9738,7 +9764,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9779,7 +9805,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9820,7 +9846,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9861,7 +9887,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9902,7 +9928,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -9939,7 +9965,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -9976,7 +10002,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -10013,7 +10039,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -10050,7 +10076,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -10087,7 +10113,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -10124,7 +10150,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -10161,7 +10187,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -10198,7 +10224,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10235,7 +10261,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10272,7 +10298,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10309,7 +10335,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10346,7 +10372,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10383,7 +10409,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10413,7 +10439,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10446,7 +10472,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10479,7 +10505,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10512,7 +10538,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10545,7 +10571,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10595,7 +10621,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10630,7 +10656,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10663,7 +10689,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10698,7 +10724,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10731,7 +10757,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10764,7 +10790,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10797,7 +10823,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10827,7 +10853,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10857,7 +10883,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10887,7 +10913,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10917,7 +10943,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -10947,7 +10973,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -10977,7 +11003,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -11009,23 +11035,23 @@
       <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -11055,7 +11081,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -11088,7 +11114,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -11121,7 +11147,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -11156,7 +11182,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11227,7 +11253,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11265,7 +11291,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11304,7 +11330,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11337,7 +11363,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11374,7 +11400,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11409,7 +11435,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11446,7 +11472,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11481,7 +11507,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11499,7 +11525,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="213" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K13" s="214"/>
       <c r="L13" s="214"/>
@@ -11520,7 +11546,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11559,7 +11585,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11594,7 +11620,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11629,7 +11655,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11676,7 +11702,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11713,7 +11739,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11750,7 +11776,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11787,7 +11813,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11824,7 +11850,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11859,7 +11885,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11892,7 +11918,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -11927,7 +11953,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -11960,7 +11986,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -11993,7 +12019,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -12026,7 +12052,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -12059,7 +12085,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -12094,7 +12120,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -12127,7 +12153,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -12164,7 +12190,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -12201,7 +12227,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12234,7 +12260,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12267,7 +12293,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12300,7 +12326,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12333,7 +12359,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12366,7 +12392,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12401,7 +12427,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12434,7 +12460,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12471,7 +12497,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12506,7 +12532,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12545,7 +12571,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12582,7 +12608,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12619,7 +12645,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12656,7 +12682,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12693,7 +12719,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12730,7 +12756,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12767,7 +12793,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12804,7 +12830,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12841,7 +12867,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12878,7 +12904,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12915,7 +12941,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -12952,7 +12978,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -12989,7 +13015,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -13026,7 +13052,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -13065,7 +13091,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -13102,7 +13128,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -13139,7 +13165,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -13176,7 +13202,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -13209,7 +13235,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13246,7 +13272,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13283,7 +13309,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13324,7 +13350,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13365,7 +13391,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13398,7 +13424,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13437,7 +13463,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13470,7 +13496,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13505,7 +13531,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13546,7 +13572,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13587,7 +13613,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13620,7 +13646,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13657,7 +13683,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13690,7 +13716,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13725,7 +13751,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13758,7 +13784,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13793,7 +13819,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13826,7 +13852,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13859,7 +13885,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13892,7 +13918,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13925,7 +13951,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -13960,7 +13986,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -13993,7 +14019,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -14030,7 +14056,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -14067,7 +14093,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -14100,7 +14126,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -14133,7 +14159,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -14166,7 +14192,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -14205,7 +14231,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14254,7 +14280,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14289,7 +14315,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14322,7 +14348,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14359,7 +14385,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14394,7 +14420,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14447,7 +14473,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14498,7 +14524,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14549,7 +14575,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14582,7 +14608,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14633,7 +14659,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14682,7 +14708,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14731,7 +14757,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14780,7 +14806,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14813,7 +14839,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14864,7 +14890,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14913,7 +14939,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -14962,7 +14988,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -15011,7 +15037,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -15044,7 +15070,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -15095,7 +15121,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -15144,7 +15170,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -15193,7 +15219,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15242,7 +15268,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15275,7 +15301,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15310,7 +15336,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15351,7 +15377,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15399,7 +15425,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15445,7 +15471,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15488,7 +15514,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15521,7 +15547,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15568,7 +15594,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15613,7 +15639,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15656,7 +15682,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15689,7 +15715,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15724,7 +15750,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15757,7 +15783,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15792,7 +15818,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15825,7 +15851,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15858,7 +15884,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15891,7 +15917,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15924,7 +15950,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -15959,7 +15985,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -15992,7 +16018,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -16029,7 +16055,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -16066,7 +16092,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -16099,7 +16125,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -16132,7 +16158,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -16167,7 +16193,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -16202,7 +16228,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16257,7 +16283,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16292,7 +16318,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16347,7 +16373,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16384,7 +16410,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16419,7 +16445,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16454,7 +16480,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16493,7 +16519,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16552,7 +16578,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16609,7 +16635,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16646,7 +16672,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16703,7 +16729,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16760,7 +16786,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16817,7 +16843,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16874,7 +16900,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -16931,7 +16957,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -16988,7 +17014,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -17045,7 +17071,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -17102,7 +17128,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -17165,7 +17191,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -17198,7 +17224,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -17258,7 +17284,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17293,7 +17319,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17344,7 +17370,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17407,7 +17433,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17468,7 +17494,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17527,7 +17553,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17586,7 +17612,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17645,7 +17671,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17706,7 +17732,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17767,7 +17793,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17826,7 +17852,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17885,7 +17911,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -17944,7 +17970,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -18005,7 +18031,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -18066,7 +18092,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -18125,7 +18151,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -18182,7 +18208,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -18241,7 +18267,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18302,7 +18328,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18363,7 +18389,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18422,7 +18448,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18481,7 +18507,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18540,7 +18566,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18603,7 +18629,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18662,7 +18688,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18721,7 +18747,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18778,7 +18804,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18835,7 +18861,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18894,7 +18920,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -18951,7 +18977,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -19008,7 +19034,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -19065,7 +19091,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -19122,7 +19148,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -19181,7 +19207,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19238,7 +19264,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19295,7 +19321,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19352,7 +19378,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19409,7 +19435,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19468,7 +19494,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19525,7 +19551,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19582,7 +19608,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19639,7 +19665,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19696,7 +19722,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19729,7 +19755,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19789,7 +19815,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19857,7 +19883,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19925,7 +19951,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -19960,7 +19986,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -20011,7 +20037,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -20083,7 +20109,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -20156,7 +20182,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20223,7 +20249,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20292,7 +20318,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20361,7 +20387,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20432,7 +20458,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20503,7 +20529,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20570,7 +20596,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20637,7 +20663,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20704,7 +20730,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20773,7 +20799,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20842,7 +20868,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20909,7 +20935,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -20976,7 +21002,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -21043,7 +21069,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -21112,7 +21138,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -21181,7 +21207,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21248,7 +21274,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21315,7 +21341,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21382,7 +21408,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21452,7 +21478,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21519,7 +21545,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21582,7 +21608,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21645,7 +21671,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21712,7 +21738,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21781,7 +21807,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21848,7 +21874,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21915,7 +21941,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -21982,7 +22008,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -22049,7 +22075,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -22118,7 +22144,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -22185,7 +22211,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22252,7 +22278,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22319,7 +22345,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22386,7 +22412,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22455,7 +22481,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22522,7 +22548,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22589,7 +22615,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22656,7 +22682,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22723,7 +22749,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22794,7 +22820,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22863,7 +22889,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -22930,7 +22956,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -22997,7 +23023,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -23064,7 +23090,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -23133,7 +23159,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -23200,7 +23226,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23267,7 +23293,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23334,7 +23360,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23401,7 +23427,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23460,7 +23486,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23522,7 +23548,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23583,7 +23609,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23643,7 +23669,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23710,7 +23736,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23775,7 +23801,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23837,7 +23863,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23897,7 +23923,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -23954,7 +23980,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -24021,7 +24047,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -24054,7 +24080,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -24110,7 +24136,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -24163,7 +24189,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24216,7 +24242,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24251,7 +24277,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24301,7 +24327,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24359,7 +24385,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24417,7 +24443,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24470,7 +24496,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24522,7 +24548,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24577,7 +24603,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24631,7 +24657,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24685,7 +24711,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24735,7 +24761,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24785,7 +24811,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24838,7 +24864,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24892,7 +24918,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -24946,7 +24972,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -24996,7 +25022,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -25046,7 +25072,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -25099,7 +25125,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -25151,7 +25177,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -25203,7 +25229,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25252,7 +25278,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25299,7 +25325,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25352,7 +25378,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25385,7 +25411,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25418,7 +25444,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25453,7 +25479,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25486,7 +25512,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25519,7 +25545,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25554,7 +25580,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25587,7 +25613,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25624,7 +25650,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25661,7 +25687,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25694,7 +25720,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25727,7 +25753,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25772,7 +25798,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25811,7 +25837,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25850,7 +25876,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25899,7 +25925,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -25932,7 +25958,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -25969,7 +25995,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -26004,7 +26030,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -26039,7 +26065,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -26080,7 +26106,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -26121,7 +26147,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -26162,7 +26188,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -26195,7 +26221,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26228,7 +26254,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26267,7 +26293,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26311,7 +26337,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26344,7 +26370,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26377,7 +26403,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26410,7 +26436,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26445,7 +26471,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="73">
@@ -26478,7 +26504,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="76">
@@ -26513,7 +26539,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="19"/>
       <c r="C325" s="77">
@@ -26546,7 +26572,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26579,7 +26605,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="73">
@@ -26612,7 +26638,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26642,7 +26668,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26672,7 +26698,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26702,7 +26728,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26732,7 +26758,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26762,7 +26788,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="66"/>
@@ -26792,7 +26818,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C334" s="72" t="s">
         <v>4</v>
       </c>
@@ -26815,38 +26841,38 @@
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB210"/>
+  <dimension ref="A1:AB211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J143" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26876,7 +26902,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26909,7 +26935,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26942,7 +26968,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -26977,7 +27003,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -27048,7 +27074,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -27086,7 +27112,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -27125,7 +27151,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -27158,7 +27184,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -27195,7 +27221,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27230,7 +27256,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27267,7 +27293,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27302,7 +27328,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27317,10 +27343,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="126">
-        <v>45314.472435879601</v>
+        <v>45441.560548148103</v>
       </c>
       <c r="J13" s="213" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K13" s="214"/>
       <c r="L13" s="214"/>
@@ -27341,7 +27367,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27356,10 +27382,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="125">
-        <v>45073.683614236099</v>
+        <v>45421.933288078697</v>
       </c>
       <c r="J14" s="216" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="K14" s="217"/>
       <c r="L14" s="217"/>
@@ -27380,7 +27406,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27415,7 +27441,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27450,7 +27476,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27497,7 +27523,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27534,7 +27560,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27571,7 +27597,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27608,7 +27634,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27645,7 +27671,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27680,7 +27706,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27713,7 +27739,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27748,7 +27774,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27781,7 +27807,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27814,7 +27840,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27847,7 +27873,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27880,7 +27906,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27915,7 +27941,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27948,7 +27974,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -27985,7 +28011,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -28022,7 +28048,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -28055,7 +28081,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -28088,7 +28114,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -28121,7 +28147,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -28154,7 +28180,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28187,7 +28213,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28222,7 +28248,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28255,7 +28281,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28292,7 +28318,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28327,7 +28353,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28339,7 +28365,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I42" s="212" t="b">
         <v>1</v>
@@ -28364,7 +28390,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28397,7 +28423,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28430,7 +28456,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28442,7 +28468,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I45" s="204">
         <v>1</v>
@@ -28467,7 +28493,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28479,7 +28505,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I46" s="204">
         <v>4</v>
@@ -28504,7 +28530,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28537,7 +28563,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28570,7 +28596,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28603,7 +28629,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28638,7 +28664,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28671,7 +28697,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="35"/>
       <c r="C52" s="76">
@@ -28706,7 +28732,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="77">
@@ -28739,7 +28765,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="73">
@@ -28772,7 +28798,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="73">
@@ -28805,7 +28831,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="20"/>
       <c r="C56" s="74">
@@ -28838,7 +28864,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="34" t="s">
         <v>21</v>
@@ -28873,7 +28899,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28906,7 +28932,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -28943,7 +28969,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -28980,7 +29006,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -29013,7 +29039,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -29046,7 +29072,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -29087,7 +29113,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -29130,7 +29156,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -29162,7 +29188,7 @@
         <v>372</v>
       </c>
       <c r="R65" s="156" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
@@ -29175,7 +29201,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33" t="s">
         <v>20</v>
@@ -29216,7 +29242,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29249,7 +29275,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33" t="s">
         <v>19</v>
@@ -29286,7 +29312,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29321,7 +29347,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29356,7 +29382,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29401,7 +29427,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29446,7 +29472,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29507,7 +29533,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29568,7 +29594,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -29629,7 +29655,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29662,7 +29688,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -29695,7 +29721,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29742,7 +29768,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29787,7 +29813,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29834,7 +29860,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29881,7 +29907,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -29928,7 +29954,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -29975,7 +30001,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -30022,7 +30048,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -30052,7 +30078,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -30085,7 +30111,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30120,7 +30146,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30153,7 +30179,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="35"/>
       <c r="C89" s="76">
@@ -30188,7 +30214,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="77">
@@ -30221,7 +30247,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="73">
@@ -30254,7 +30280,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="73">
@@ -30287,7 +30313,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="20"/>
       <c r="C93" s="74">
@@ -30320,7 +30346,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="34" t="s">
         <v>21</v>
@@ -30355,7 +30381,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30388,7 +30414,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30425,7 +30451,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30462,7 +30488,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30495,7 +30521,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30528,7 +30554,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30567,7 +30593,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30606,7 +30632,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30649,7 +30675,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33" t="s">
         <v>20</v>
@@ -30690,7 +30716,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30723,7 +30749,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33" t="s">
         <v>19</v>
@@ -30760,7 +30786,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -30795,7 +30821,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -30842,7 +30868,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -30884,7 +30910,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -30925,7 +30951,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -30968,7 +30994,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31009,7 +31035,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31044,7 +31070,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31079,7 +31105,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31132,7 +31158,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -31187,7 +31213,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -31236,7 +31262,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -31285,7 +31311,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -31334,7 +31360,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -31383,7 +31409,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -31432,7 +31458,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -31481,7 +31507,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -31530,7 +31556,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -31565,7 +31591,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -31600,7 +31626,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="73">
@@ -31641,7 +31667,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="73">
@@ -31698,7 +31724,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
@@ -31759,7 +31785,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
@@ -31812,7 +31838,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
@@ -31865,7 +31891,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
@@ -31912,7 +31938,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -31947,7 +31973,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -31980,7 +32006,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="76">
@@ -32015,7 +32041,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="77">
@@ -32048,7 +32074,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="73">
@@ -32081,7 +32107,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="73">
@@ -32114,7 +32140,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="74">
@@ -32147,7 +32173,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -32182,11 +32208,11 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
-        <f>INT(MAX($C$147:$C$174))+1</f>
+        <f>INT(MAX($C$147:$C$175))+1</f>
         <v>5</v>
       </c>
       <c r="D139" s="3"/>
@@ -32215,7 +32241,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -32252,7 +32278,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="73">
@@ -32289,7 +32315,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -32322,7 +32348,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -32355,7 +32381,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33" t="s">
         <v>20</v>
@@ -32396,7 +32422,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -32429,7 +32455,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33" t="s">
         <v>19</v>
@@ -32466,7 +32492,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -32501,7 +32527,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -32513,7 +32539,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="4"/>
       <c r="H148" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I148" s="31" t="b">
         <v>0</v>
@@ -32546,7 +32572,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -32587,7 +32613,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -32628,7 +32654,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -32665,7 +32691,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73"/>
@@ -32695,7 +32721,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73"/>
@@ -32729,7 +32755,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -32764,7 +32790,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -32799,7 +32825,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -32814,7 +32840,7 @@
         <v>257</v>
       </c>
       <c r="I156" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -32836,7 +32862,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -32875,7 +32901,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -32889,7 +32915,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="4"/>
       <c r="H158" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I158" s="31">
         <v>0</v>
@@ -32914,7 +32940,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -32928,7 +32954,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
       <c r="H159" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I159" s="31">
         <v>0</v>
@@ -32953,7 +32979,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -32967,7 +32993,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="4"/>
       <c r="H160" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I160" s="31">
         <v>0</v>
@@ -32992,7 +33018,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -33006,7 +33032,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
       <c r="H161" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I161" s="31">
         <v>0</v>
@@ -33031,11 +33057,11 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
-        <f t="shared" ref="C162:C171" si="12">INT(C$140+3)</f>
+        <f t="shared" ref="C162:C172" si="12">INT(C$140+3)</f>
         <v>4</v>
       </c>
       <c r="D162" s="4"/>
@@ -33045,7 +33071,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="4"/>
       <c r="H162" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I162" s="31">
         <v>0</v>
@@ -33070,7 +33096,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -33084,7 +33110,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="4"/>
       <c r="H163" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I163" s="31">
         <v>0</v>
@@ -33109,7 +33135,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -33123,7 +33149,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="4"/>
       <c r="H164" s="31" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="I164" s="31">
         <v>0</v>
@@ -33148,7 +33174,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -33162,7 +33188,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="4"/>
       <c r="H165" s="31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I165" s="31">
         <v>0</v>
@@ -33187,7 +33213,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -33201,7 +33227,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="4"/>
       <c r="H166" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I166" s="31">
         <v>0</v>
@@ -33226,7 +33252,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -33240,7 +33266,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="4"/>
       <c r="H167" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I167" s="31">
         <v>0</v>
@@ -33265,7 +33291,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -33279,7 +33305,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
       <c r="H168" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I168" s="31">
         <v>0</v>
@@ -33304,7 +33330,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -33318,7 +33344,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="4"/>
       <c r="H169" s="31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I169" s="31">
         <v>0</v>
@@ -33343,7 +33369,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -33357,7 +33383,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="4"/>
       <c r="H170" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I170" s="31">
         <v>0</v>
@@ -33382,7 +33408,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -33396,7 +33422,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="4"/>
       <c r="H171" s="31" t="s">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="I171" s="31">
         <v>0</v>
@@ -33421,19 +33447,25 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
-        <f>INT(C$140+3)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D172" s="4"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5">
+        <v>15</v>
+      </c>
       <c r="F172" s="5"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="148"/>
-      <c r="I172" s="148"/>
+      <c r="H172" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I172" s="31">
+        <v>0</v>
+      </c>
       <c r="J172" s="148"/>
       <c r="K172" s="148"/>
       <c r="L172" s="148"/>
@@ -33454,7 +33486,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -33487,47 +33519,45 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
-        <f>INT($C$140)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT(C$140+3)</f>
+        <v>4</v>
       </c>
       <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="W174" s="4"/>
-      <c r="X174" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H174" s="148"/>
+      <c r="I174" s="148"/>
+      <c r="J174" s="148"/>
+      <c r="K174" s="148"/>
+      <c r="L174" s="148"/>
+      <c r="M174" s="148"/>
+      <c r="N174" s="148"/>
+      <c r="O174" s="148"/>
+      <c r="P174" s="148"/>
+      <c r="Q174" s="148"/>
+      <c r="R174" s="148"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="2"/>
+      <c r="X174" s="4"/>
       <c r="Y174" s="16"/>
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
-        <f>INT($C$140)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f>INT($C$140)+3.005</f>
+        <v>4.0049999999999999</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -33549,118 +33579,120 @@
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
+      <c r="X175" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y175" s="16"/>
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="76">
-        <f>INT($C$140)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="17"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="17"/>
-      <c r="O176" s="17"/>
-      <c r="P176" s="17"/>
-      <c r="Q176" s="17"/>
-      <c r="R176" s="17"/>
-      <c r="S176" s="17"/>
-      <c r="T176" s="17"/>
-      <c r="U176" s="17"/>
-      <c r="V176" s="17"/>
-      <c r="W176" s="17"/>
-      <c r="X176" s="17"/>
-      <c r="Y176" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B176" s="33"/>
+      <c r="C176" s="73">
+        <f>INT($C$140)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="16"/>
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="77">
-        <f>INT($C$140)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
-      <c r="R177" s="19"/>
-      <c r="S177" s="19"/>
-      <c r="T177" s="19"/>
-      <c r="U177" s="19"/>
-      <c r="V177" s="19"/>
-      <c r="W177" s="19"/>
-      <c r="X177" s="19"/>
-      <c r="Y177" s="19"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="76">
+        <f>INT($C$140)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17"/>
+      <c r="R177" s="17"/>
+      <c r="S177" s="17"/>
+      <c r="T177" s="17"/>
+      <c r="U177" s="17"/>
+      <c r="V177" s="17"/>
+      <c r="W177" s="17"/>
+      <c r="X177" s="17"/>
+      <c r="Y177" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="73">
-        <f>INT($C$140)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="77">
+        <f>INT($C$140)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="19"/>
+      <c r="S178" s="19"/>
+      <c r="T178" s="19"/>
+      <c r="U178" s="19"/>
+      <c r="V178" s="19"/>
+      <c r="W178" s="19"/>
+      <c r="X178" s="19"/>
+      <c r="Y178" s="19"/>
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="73">
-        <f>INT($C$183)+2</f>
+        <f>INT($C$140)+2</f>
         <v>3</v>
       </c>
       <c r="D179" s="1"/>
@@ -33689,256 +33721,254 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="74">
-        <f>INT($C$183)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
-      <c r="O180" s="20"/>
-      <c r="P180" s="20"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="20"/>
-      <c r="U180" s="20"/>
-      <c r="V180" s="20"/>
-      <c r="W180" s="20"/>
-      <c r="X180" s="20"/>
-      <c r="Y180" s="20"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="73">
+        <f>INT($C$184)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+      <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C181" s="75">
-        <f>INT($C$183)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="K181" s="14"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="N181" s="14"/>
-      <c r="O181" s="14"/>
-      <c r="P181" s="14"/>
-      <c r="Q181" s="14"/>
-      <c r="R181" s="14"/>
-      <c r="S181" s="14"/>
-      <c r="T181" s="14"/>
-      <c r="U181" s="14"/>
-      <c r="V181" s="14"/>
-      <c r="W181" s="14"/>
-      <c r="X181" s="14"/>
-      <c r="Y181" s="15"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="74">
+        <f>INT($C$184)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="73">
-        <f>INT(MAX($C$191:$C$199))+1</f>
-        <v>5</v>
-      </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
-      <c r="O182" s="27"/>
-      <c r="P182" s="27"/>
-      <c r="Q182" s="27"/>
-      <c r="R182" s="27"/>
-      <c r="S182" s="27"/>
-      <c r="T182" s="27"/>
-      <c r="U182" s="27"/>
-      <c r="V182" s="27"/>
-      <c r="W182" s="27"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="16"/>
+      <c r="B182" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="75">
+        <f>INT($C$184)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="14"/>
+      <c r="S182" s="14"/>
+      <c r="T182" s="14"/>
+      <c r="U182" s="14"/>
+      <c r="V182" s="14"/>
+      <c r="W182" s="14"/>
+      <c r="X182" s="14"/>
+      <c r="Y182" s="15"/>
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
-        <v>1.02</v>
-      </c>
-      <c r="D183" s="21"/>
-      <c r="E183" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F183" s="25"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="147" t="str">
-        <f>COUNTIFS($B$1:$B183, "«")&amp;" Feed Pool definitions"</f>
-        <v>6 Feed Pool definitions</v>
-      </c>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="6"/>
-      <c r="T183" s="6"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="6"/>
-      <c r="W183" s="6"/>
-      <c r="X183" s="10"/>
+        <f>INT(MAX($C$192:$C$200))+1</f>
+        <v>5</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="27"/>
+      <c r="M183" s="27"/>
+      <c r="N183" s="27"/>
+      <c r="O183" s="27"/>
+      <c r="P183" s="27"/>
+      <c r="Q183" s="27"/>
+      <c r="R183" s="27"/>
+      <c r="S183" s="27"/>
+      <c r="T183" s="27"/>
+      <c r="U183" s="27"/>
+      <c r="V183" s="27"/>
+      <c r="W183" s="27"/>
+      <c r="X183" s="3"/>
       <c r="Y183" s="16"/>
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
-        <f>INT($C$183)+1.02</f>
-        <v>2.02</v>
+        <v>1.02</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="28">
-        <v>1</v>
-      </c>
-      <c r="G184" s="13"/>
-      <c r="H184" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="7"/>
-      <c r="R184" s="7"/>
-      <c r="S184" s="7"/>
-      <c r="T184" s="7"/>
-      <c r="U184" s="7"/>
-      <c r="V184" s="7"/>
-      <c r="W184" s="7"/>
-      <c r="X184" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="F184" s="25"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="147" t="str">
+        <f>COUNTIFS($B$1:$B184, "«")&amp;" Feed Pool definitions"</f>
+        <v>6 Feed Pool definitions</v>
+      </c>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6"/>
+      <c r="X184" s="10"/>
       <c r="Y184" s="16"/>
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
-        <f>INT($C$183)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
-      <c r="U185" s="3"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
+        <f>INT($C$184)+1.02</f>
+        <v>2.02</v>
+      </c>
+      <c r="D185" s="21"/>
+      <c r="E185" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="28">
+        <v>1</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="7"/>
+      <c r="V185" s="7"/>
+      <c r="W185" s="7"/>
+      <c r="X185" s="11"/>
       <c r="Y185" s="16"/>
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
-        <f>INT($C$183)+2</f>
-        <v>3</v>
+        <f>INT($C$184)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D186" s="3"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
-      <c r="J186" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="K186" s="65"/>
-      <c r="L186" s="65"/>
-      <c r="M186" s="65"/>
-      <c r="N186" s="65"/>
-      <c r="O186" s="65"/>
-      <c r="P186" s="65"/>
-      <c r="Q186" s="65"/>
-      <c r="R186" s="65"/>
-      <c r="S186" s="65"/>
-      <c r="T186" s="29"/>
-      <c r="U186" s="29"/>
-      <c r="V186" s="29"/>
-      <c r="W186" s="29"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
       <c r="X186" s="3"/>
       <c r="Y186" s="16"/>
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
-        <f>INT($C$183)+2</f>
+        <f>INT($C$184)+2</f>
         <v>3</v>
       </c>
       <c r="D187" s="3"/>
@@ -33947,36 +33977,18 @@
       <c r="G187" s="3"/>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
-      <c r="J187" s="29">
-        <v>0</v>
-      </c>
-      <c r="K187" s="29">
-        <v>1</v>
-      </c>
-      <c r="L187" s="29">
-        <v>2</v>
-      </c>
-      <c r="M187" s="29">
-        <v>3</v>
-      </c>
-      <c r="N187" s="29">
-        <v>4</v>
-      </c>
-      <c r="O187" s="29">
-        <v>5</v>
-      </c>
-      <c r="P187" s="29">
-        <v>6</v>
-      </c>
-      <c r="Q187" s="29">
-        <v>7</v>
-      </c>
-      <c r="R187" s="29">
-        <v>8</v>
-      </c>
-      <c r="S187" s="29">
-        <v>9</v>
-      </c>
+      <c r="J187" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="K187" s="65"/>
+      <c r="L187" s="65"/>
+      <c r="M187" s="65"/>
+      <c r="N187" s="65"/>
+      <c r="O187" s="65"/>
+      <c r="P187" s="65"/>
+      <c r="Q187" s="65"/>
+      <c r="R187" s="65"/>
+      <c r="S187" s="65"/>
       <c r="T187" s="29"/>
       <c r="U187" s="29"/>
       <c r="V187" s="29"/>
@@ -33987,31 +33999,49 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
-      <c r="B188" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="B188" s="33"/>
       <c r="C188" s="73">
-        <f>INT($C$183)+2.01</f>
-        <v>3.01</v>
+        <f>INT($C$184)+2</f>
+        <v>3</v>
       </c>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
       <c r="G188" s="3"/>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
-      <c r="J188" s="29"/>
-      <c r="K188" s="29"/>
-      <c r="L188" s="29"/>
-      <c r="M188" s="29"/>
-      <c r="N188" s="29"/>
-      <c r="O188" s="29"/>
-      <c r="P188" s="29"/>
-      <c r="Q188" s="29"/>
-      <c r="R188" s="29"/>
-      <c r="S188" s="29"/>
+      <c r="J188" s="29">
+        <v>0</v>
+      </c>
+      <c r="K188" s="29">
+        <v>1</v>
+      </c>
+      <c r="L188" s="29">
+        <v>2</v>
+      </c>
+      <c r="M188" s="29">
+        <v>3</v>
+      </c>
+      <c r="N188" s="29">
+        <v>4</v>
+      </c>
+      <c r="O188" s="29">
+        <v>5</v>
+      </c>
+      <c r="P188" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q188" s="29">
+        <v>7</v>
+      </c>
+      <c r="R188" s="29">
+        <v>8</v>
+      </c>
+      <c r="S188" s="29">
+        <v>9</v>
+      </c>
       <c r="T188" s="29"/>
       <c r="U188" s="29"/>
       <c r="V188" s="29"/>
@@ -34022,51 +34052,49 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-      <c r="B189" s="33"/>
+      <c r="B189" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="C189" s="73">
-        <f>C$182</f>
-        <v>5</v>
-      </c>
-      <c r="D189" s="4"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5"/>
-      <c r="V189" s="5"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="4"/>
+        <f>INT($C$184)+2.01</f>
+        <v>3.01</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="29"/>
+      <c r="I189" s="29"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="29"/>
+      <c r="M189" s="29"/>
+      <c r="N189" s="29"/>
+      <c r="O189" s="29"/>
+      <c r="P189" s="29"/>
+      <c r="Q189" s="29"/>
+      <c r="R189" s="29"/>
+      <c r="S189" s="29"/>
+      <c r="T189" s="29"/>
+      <c r="U189" s="29"/>
+      <c r="V189" s="29"/>
+      <c r="W189" s="29"/>
+      <c r="X189" s="3"/>
       <c r="Y189" s="16"/>
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
-      <c r="B190" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="B190" s="33"/>
       <c r="C190" s="73">
-        <f>C$182</f>
+        <f>C$183</f>
         <v>5</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D190" s="4"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="4"/>
@@ -34092,94 +34120,98 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-      <c r="B191" s="33"/>
+      <c r="B191" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="C191" s="73">
-        <f>INT($C$183)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f>C$183</f>
+        <v>5</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="58"/>
-      <c r="L191" s="58"/>
-      <c r="M191" s="58"/>
-      <c r="N191" s="58"/>
-      <c r="O191" s="58"/>
-      <c r="P191" s="58"/>
-      <c r="Q191" s="58"/>
-      <c r="R191" s="58"/>
-      <c r="S191" s="58"/>
-      <c r="T191" s="58"/>
-      <c r="U191" s="58"/>
-      <c r="V191" s="58"/>
-      <c r="W191" s="58"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+      <c r="U191" s="5"/>
+      <c r="V191" s="5"/>
+      <c r="W191" s="5"/>
       <c r="X191" s="4"/>
       <c r="Y191" s="16"/>
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
-        <f>INT($C$183)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D192" s="4"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
+        <f>INT($C$184)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="I192" s="31">
-        <v>4</v>
-      </c>
-      <c r="J192" s="158" t="s">
-        <v>291</v>
-      </c>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-      <c r="N192" s="2"/>
-      <c r="O192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="2"/>
-      <c r="R192" s="2"/>
-      <c r="S192" s="2"/>
-      <c r="T192" s="2"/>
-      <c r="U192" s="2"/>
-      <c r="V192" s="2"/>
-      <c r="W192" s="2"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="58"/>
+      <c r="J192" s="58"/>
+      <c r="K192" s="58"/>
+      <c r="L192" s="58"/>
+      <c r="M192" s="58"/>
+      <c r="N192" s="58"/>
+      <c r="O192" s="58"/>
+      <c r="P192" s="58"/>
+      <c r="Q192" s="58"/>
+      <c r="R192" s="58"/>
+      <c r="S192" s="58"/>
+      <c r="T192" s="58"/>
+      <c r="U192" s="58"/>
+      <c r="V192" s="58"/>
+      <c r="W192" s="58"/>
       <c r="X192" s="4"/>
       <c r="Y192" s="16"/>
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
-        <f>INT($C$183)+3</f>
-        <v>4</v>
+        <f>INT($C$184)+2</f>
+        <v>3</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="4"/>
-      <c r="H193" s="157"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
+      <c r="H193" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I193" s="31">
+        <v>4</v>
+      </c>
+      <c r="J193" s="158" t="s">
+        <v>291</v>
+      </c>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
@@ -34199,20 +34231,18 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
-        <f>INT($C$183)+2</f>
-        <v>3</v>
+        <f>INT($C$184)+3</f>
+        <v>4</v>
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="64" t="s">
-        <v>292</v>
-      </c>
+      <c r="H194" s="157"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
@@ -34234,51 +34264,31 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
-        <f>INT($C$183)+3</f>
-        <v>4</v>
+        <f>INT($C$184)+2</f>
+        <v>3</v>
       </c>
       <c r="D195" s="4"/>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="159" t="s">
-        <v>298</v>
+      <c r="H195" s="64" t="s">
+        <v>292</v>
       </c>
       <c r="I195" s="2"/>
-      <c r="J195" s="31">
-        <v>3</v>
-      </c>
-      <c r="K195" s="31">
-        <v>4</v>
-      </c>
-      <c r="L195" s="31">
-        <v>6</v>
-      </c>
-      <c r="M195" s="31">
-        <v>8</v>
-      </c>
-      <c r="N195" s="31">
-        <v>9</v>
-      </c>
-      <c r="O195" s="31">
-        <v>6</v>
-      </c>
-      <c r="P195" s="31">
-        <v>5</v>
-      </c>
-      <c r="Q195" s="31">
-        <v>4</v>
-      </c>
-      <c r="R195" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="S195" s="31">
-        <v>3</v>
-      </c>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="V195" s="2"/>
@@ -34289,11 +34299,11 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
-        <f>INT($C$183)+3</f>
+        <f>INT($C$184)+3</f>
         <v>4</v>
       </c>
       <c r="D196" s="4"/>
@@ -34301,38 +34311,38 @@
       <c r="F196" s="5"/>
       <c r="G196" s="4"/>
       <c r="H196" s="159" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="31">
-        <v>13.3</v>
+        <v>3</v>
       </c>
       <c r="K196" s="31">
-        <v>13.3</v>
+        <v>4</v>
       </c>
       <c r="L196" s="31">
-        <v>13.3</v>
+        <v>6</v>
       </c>
       <c r="M196" s="31">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="N196" s="31">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="O196" s="31">
-        <v>13.3</v>
+        <v>6</v>
       </c>
       <c r="P196" s="31">
-        <v>13.3</v>
+        <v>5</v>
       </c>
       <c r="Q196" s="31">
-        <v>13.3</v>
+        <v>4</v>
       </c>
       <c r="R196" s="31">
-        <v>13.3</v>
+        <v>3.5</v>
       </c>
       <c r="S196" s="31">
-        <v>13.3</v>
+        <v>3</v>
       </c>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
@@ -34344,29 +34354,51 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
-        <f>INT(C$183+3)</f>
+        <f>INT($C$184)+3</f>
         <v>4</v>
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="148"/>
-      <c r="I197" s="148"/>
-      <c r="J197" s="148"/>
-      <c r="K197" s="148"/>
-      <c r="L197" s="148"/>
-      <c r="M197" s="148"/>
-      <c r="N197" s="148"/>
-      <c r="O197" s="148"/>
-      <c r="P197" s="148"/>
-      <c r="Q197" s="148"/>
-      <c r="R197" s="148"/>
-      <c r="S197" s="148"/>
+      <c r="H197" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="I197" s="2"/>
+      <c r="J197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="K197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="L197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="M197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="N197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="O197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="P197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="Q197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="R197" s="31">
+        <v>13.3</v>
+      </c>
+      <c r="S197" s="31">
+        <v>13.3</v>
+      </c>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
@@ -34377,11 +34409,11 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
-        <f>INT(C$183+3)</f>
+        <f>INT(C$184+3)</f>
         <v>4</v>
       </c>
       <c r="D198" s="4"/>
@@ -34399,7 +34431,7 @@
       <c r="P198" s="148"/>
       <c r="Q198" s="148"/>
       <c r="R198" s="148"/>
-      <c r="S198" s="2"/>
+      <c r="S198" s="148"/>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
@@ -34410,47 +34442,45 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
-        <f>INT($C$183)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT(C$184+3)</f>
+        <v>4</v>
       </c>
       <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
-      <c r="L199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-      <c r="R199" s="4"/>
-      <c r="S199" s="4"/>
-      <c r="T199" s="4"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="4"/>
-      <c r="W199" s="4"/>
-      <c r="X199" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H199" s="148"/>
+      <c r="I199" s="148"/>
+      <c r="J199" s="148"/>
+      <c r="K199" s="148"/>
+      <c r="L199" s="148"/>
+      <c r="M199" s="148"/>
+      <c r="N199" s="148"/>
+      <c r="O199" s="148"/>
+      <c r="P199" s="148"/>
+      <c r="Q199" s="148"/>
+      <c r="R199" s="148"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="4"/>
       <c r="Y199" s="16"/>
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
-        <f>INT($C$183)+2.005</f>
-        <v>3.0049999999999999</v>
+        <f>INT($C$184)+3.005</f>
+        <v>4.0049999999999999</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -34472,117 +34502,122 @@
       <c r="U200" s="4"/>
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
-      <c r="X200" s="4"/>
+      <c r="X200" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y200" s="16"/>
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="76">
-        <f>INT($C$183)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
-      <c r="P201" s="17"/>
-      <c r="Q201" s="17"/>
-      <c r="R201" s="17"/>
-      <c r="S201" s="17"/>
-      <c r="T201" s="17"/>
-      <c r="U201" s="17"/>
-      <c r="V201" s="17"/>
-      <c r="W201" s="17"/>
-      <c r="X201" s="17"/>
-      <c r="Y201" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B201" s="33"/>
+      <c r="C201" s="73">
+        <f>INT($C$184)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="16"/>
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="77">
-        <f>INT($C$183)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-      <c r="O202" s="19"/>
-      <c r="P202" s="19"/>
-      <c r="Q202" s="19"/>
-      <c r="R202" s="19"/>
-      <c r="S202" s="19"/>
-      <c r="T202" s="19"/>
-      <c r="U202" s="19"/>
-      <c r="V202" s="19"/>
-      <c r="W202" s="19"/>
-      <c r="X202" s="19"/>
-      <c r="Y202" s="19"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="76">
+        <f>INT($C$184)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="17"/>
+      <c r="N202" s="17"/>
+      <c r="O202" s="17"/>
+      <c r="P202" s="17"/>
+      <c r="Q202" s="17"/>
+      <c r="R202" s="17"/>
+      <c r="S202" s="17"/>
+      <c r="T202" s="17"/>
+      <c r="U202" s="17"/>
+      <c r="V202" s="17"/>
+      <c r="W202" s="17"/>
+      <c r="X202" s="17"/>
+      <c r="Y202" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="73">
-        <f>INT($C$183)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="77">
+        <f>INT($C$184)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+      <c r="N203" s="19"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="19"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="19"/>
+      <c r="S203" s="19"/>
+      <c r="T203" s="19"/>
+      <c r="U203" s="19"/>
+      <c r="V203" s="19"/>
+      <c r="W203" s="19"/>
+      <c r="X203" s="19"/>
+      <c r="Y203" s="19"/>
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="66"/>
+      <c r="C204" s="73">
+        <f>INT($C$184)+2</f>
+        <v>3</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -34609,7 +34644,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="66"/>
@@ -34639,7 +34674,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="66"/>
@@ -34669,7 +34704,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="66"/>
@@ -34699,7 +34734,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="66"/>
@@ -34729,7 +34764,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="66"/>
@@ -34759,8 +34794,38 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C210" s="72" t="s">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C211" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -34801,17 +34866,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1" s="166"/>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -34839,7 +34904,7 @@
       <c r="Y1" s="168"/>
       <c r="Z1" s="168"/>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="166"/>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -34867,7 +34932,7 @@
       <c r="Y2" s="167"/>
       <c r="Z2" s="167"/>
     </row>
-    <row r="3" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166"/>
       <c r="B3" s="167"/>
       <c r="C3" s="167"/>
@@ -34895,7 +34960,7 @@
       <c r="Y3" s="167"/>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="169"/>
@@ -34923,7 +34988,7 @@
       <c r="Y4" s="168"/>
       <c r="Z4" s="168"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="166"/>
       <c r="B5" s="167"/>
       <c r="C5" s="172"/>
@@ -34953,7 +35018,7 @@
       <c r="Y5" s="168"/>
       <c r="Z5" s="168"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="166"/>
       <c r="B6" s="167"/>
       <c r="C6" s="172"/>
@@ -34981,7 +35046,7 @@
       <c r="Y6" s="168"/>
       <c r="Z6" s="168"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="166"/>
       <c r="B7" s="167"/>
       <c r="C7" s="177"/>
@@ -35011,7 +35076,7 @@
       <c r="Y7" s="168"/>
       <c r="Z7" s="168"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="180"/>
@@ -35039,7 +35104,7 @@
       <c r="Y8" s="168"/>
       <c r="Z8" s="168"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="166"/>
       <c r="B9" s="167"/>
       <c r="C9" s="177"/>
@@ -35067,7 +35132,7 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="168"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="177"/>
@@ -35095,7 +35160,7 @@
       <c r="Y10" s="168"/>
       <c r="Z10" s="168"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="177"/>
@@ -35123,7 +35188,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="177"/>
@@ -35151,7 +35216,7 @@
       <c r="Y12" s="168"/>
       <c r="Z12" s="168"/>
     </row>
-    <row r="13" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="177"/>
@@ -35179,7 +35244,7 @@
       <c r="Y13" s="168"/>
       <c r="Z13" s="168"/>
     </row>
-    <row r="14" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="177"/>
@@ -35207,7 +35272,7 @@
       <c r="Y14" s="168"/>
       <c r="Z14" s="168"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="177"/>
@@ -35235,7 +35300,7 @@
       <c r="Y15" s="168"/>
       <c r="Z15" s="168"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="177"/>
@@ -35243,18 +35308,18 @@
       <c r="E16" s="177"/>
       <c r="F16" s="185"/>
       <c r="G16" s="193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="193" t="s">
         <v>249</v>
       </c>
       <c r="K16" s="193" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L16" s="192"/>
       <c r="M16" s="193" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O16" s="193" t="s">
         <v>346</v>
@@ -35277,7 +35342,7 @@
       <c r="Y16" s="168"/>
       <c r="Z16" s="168"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="177"/>
@@ -35285,7 +35350,7 @@
       <c r="E17" s="177"/>
       <c r="F17" s="185"/>
       <c r="G17" s="191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H17" s="191"/>
       <c r="I17" s="191" t="s">
@@ -35293,11 +35358,11 @@
       </c>
       <c r="J17" s="194"/>
       <c r="K17" s="191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L17" s="192"/>
       <c r="M17" s="191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O17" s="191" t="s">
         <v>350</v>
@@ -35320,7 +35385,7 @@
       <c r="Y17" s="168"/>
       <c r="Z17" s="168"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="166"/>
       <c r="B18" s="167"/>
       <c r="C18" s="177"/>
@@ -35362,7 +35427,7 @@
       <c r="Y18" s="168"/>
       <c r="Z18" s="168"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="177"/>
@@ -35390,7 +35455,7 @@
       <c r="Y19" s="168"/>
       <c r="Z19" s="168"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="166"/>
       <c r="B20" s="167"/>
       <c r="C20" s="177"/>
@@ -35418,7 +35483,7 @@
       <c r="Y20" s="168"/>
       <c r="Z20" s="168"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="177"/>
@@ -35446,7 +35511,7 @@
       <c r="Y21" s="168"/>
       <c r="Z21" s="168"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="177"/>
@@ -35474,7 +35539,7 @@
       <c r="Y22" s="168"/>
       <c r="Z22" s="168"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="177"/>
@@ -35502,7 +35567,7 @@
       <c r="Y23" s="168"/>
       <c r="Z23" s="168"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="177"/>
@@ -35530,7 +35595,7 @@
       <c r="Y24" s="168"/>
       <c r="Z24" s="168"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="177"/>
@@ -35558,7 +35623,7 @@
       <c r="Y25" s="168"/>
       <c r="Z25" s="168"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="177"/>
@@ -35586,7 +35651,7 @@
       <c r="Y26" s="168"/>
       <c r="Z26" s="168"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="177"/>
@@ -35614,7 +35679,7 @@
       <c r="Y27" s="168"/>
       <c r="Z27" s="168"/>
     </row>
-    <row r="28" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="177"/>
@@ -35642,7 +35707,7 @@
       <c r="Y28" s="168"/>
       <c r="Z28" s="168"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="200"/>
@@ -35670,7 +35735,7 @@
       <c r="Y29" s="168"/>
       <c r="Z29" s="168"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -35698,7 +35763,7 @@
       <c r="Y30" s="168"/>
       <c r="Z30" s="168"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -35744,22 +35809,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -35791,7 +35856,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -35826,7 +35891,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -35861,7 +35926,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -35898,7 +35963,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -35975,7 +36040,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -36015,7 +36080,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -36056,7 +36121,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -36091,7 +36156,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -36126,7 +36191,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -36161,7 +36226,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -36196,7 +36261,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -36235,7 +36300,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -36272,7 +36337,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -36307,7 +36372,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -36346,7 +36411,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -36383,7 +36448,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -36420,7 +36485,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -36461,7 +36526,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -36496,7 +36561,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -36531,7 +36596,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -36572,7 +36637,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -36607,7 +36672,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -36642,7 +36707,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -36679,7 +36744,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -36716,7 +36781,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -36765,7 +36830,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -36804,7 +36869,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -36843,7 +36908,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -36882,7 +36947,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -36921,7 +36986,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -36958,7 +37023,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -36995,7 +37060,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="67">
@@ -37056,7 +37121,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="67">
@@ -37121,7 +37186,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="67">
@@ -37156,7 +37221,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="67">
@@ -37191,7 +37256,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="67">
@@ -37226,7 +37291,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="67">
@@ -37263,7 +37328,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="67">
@@ -37298,7 +37363,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="70">
@@ -37335,7 +37400,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="71">
@@ -37370,7 +37435,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="67">
@@ -37405,7 +37470,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="66"/>
@@ -37437,7 +37502,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="66"/>
@@ -37469,7 +37534,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="66"/>
@@ -37501,7 +37566,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="66"/>
@@ -37533,7 +37598,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="66"/>
@@ -37565,7 +37630,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="66"/>
@@ -37597,7 +37662,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="72" t="s">
         <v>4</v>
       </c>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC40566-3073-41AB-AE3A-B70BF2DFD0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6886F4-7145-48BD-9CA3-89F6FC886E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="315" windowWidth="25140" windowHeight="15075" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-7275" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -76,13 +76,13 @@
     <definedName name="i_fvp_mask_dams">StructuralSA!$N$71:$R$71</definedName>
     <definedName name="i_fvp_mask_offs">StructuralSA!$J$80:$O$80</definedName>
     <definedName name="i_generate_with_t" localSheetId="2">StructuralSA!$P$149</definedName>
-    <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$108</definedName>
+    <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$109</definedName>
     <definedName name="i_i_pos">Stock!$I$50</definedName>
-    <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$108</definedName>
-    <definedName name="i_idx_k1" localSheetId="0">General!$I$79:$I$95</definedName>
+    <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$109</definedName>
+    <definedName name="i_idx_k1" localSheetId="0">General!$I$79:$I$96</definedName>
     <definedName name="i_idx_k2" localSheetId="0">General!$L$79:$L$91</definedName>
     <definedName name="i_initial_b1">Stock!$L$155:$V$155</definedName>
-    <definedName name="i_is_baled_k" localSheetId="0">General!$J$79:$J$95</definedName>
+    <definedName name="i_is_baled_k" localSheetId="0">General!$J$79:$J$96</definedName>
     <definedName name="i_is_dry_b1">Stock!$L$149:$V$149</definedName>
     <definedName name="i_k2_idx_dams">Stock!$L$202:$V$204</definedName>
     <definedName name="i_k2_pos">Stock!$I$51</definedName>
@@ -91,7 +91,7 @@
     <definedName name="i_k5_pos">Stock!$I$53</definedName>
     <definedName name="i_lag_organs">Stock!$I$70</definedName>
     <definedName name="i_lag_wool">Stock!$I$69</definedName>
-    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$108</definedName>
+    <definedName name="i_landuse_is_dual" localSheetId="0">General!$Q$79:$Q$109</definedName>
     <definedName name="i_len_f">StructuralSA!$I$193</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
@@ -177,7 +177,7 @@
     <definedName name="ZA.WidthCol" localSheetId="4">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="4">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,9 +185,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2442,7 +2445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="398">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3758,6 +3761,9 @@
 25Apr21: Moved inputs from Property.xlsx
                    Moved FVP &amp; N inputs from Stock
 1: 1Apr19-Created the version control table</t>
+  </si>
+  <si>
+    <t>ms</t>
   </si>
 </sst>
 </file>
@@ -6050,9 +6056,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6090,7 +6096,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6196,7 +6202,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6338,7 +6344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6351,31 +6357,31 @@
   </sheetPr>
   <dimension ref="A1:AT127"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85:J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6405,7 +6411,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6438,7 +6444,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6471,7 +6477,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6506,7 +6512,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6577,7 +6583,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6615,7 +6621,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6654,7 +6660,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6687,7 +6693,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6724,7 +6730,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6759,7 +6765,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6796,7 +6802,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6831,7 +6837,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6870,7 +6876,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6909,7 +6915,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6944,7 +6950,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -6979,7 +6985,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -7026,7 +7032,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -7063,7 +7069,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -7100,7 +7106,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -7137,7 +7143,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -7174,7 +7180,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -7209,7 +7215,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7242,7 +7248,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7277,7 +7283,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7310,7 +7316,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7343,7 +7349,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7376,7 +7382,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7409,7 +7415,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7444,7 +7450,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7477,7 +7483,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7514,7 +7520,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7553,7 +7559,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7586,7 +7592,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7619,7 +7625,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7652,7 +7658,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7685,7 +7691,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7718,7 +7724,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7753,7 +7759,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7786,7 +7792,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7823,7 +7829,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7858,7 +7864,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7899,7 +7905,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7932,7 +7938,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -7971,7 +7977,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -8004,7 +8010,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -8047,7 +8053,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -8086,7 +8092,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -8129,7 +8135,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -8170,7 +8176,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -8203,7 +8209,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8240,7 +8246,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8273,7 +8279,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8310,7 +8316,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8343,7 +8349,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8399,7 +8405,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8434,7 +8440,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8467,7 +8473,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8502,7 +8508,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8535,7 +8541,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8568,7 +8574,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8601,7 +8607,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8634,7 +8640,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8669,7 +8675,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8702,7 +8708,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8739,7 +8745,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8778,7 +8784,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8811,7 +8817,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8844,7 +8850,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8877,7 +8883,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8910,7 +8916,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8943,7 +8949,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -8978,7 +8984,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -9011,7 +9017,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -9048,7 +9054,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -9083,7 +9089,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -9120,7 +9126,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -9153,7 +9159,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -9200,7 +9206,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -9248,7 +9254,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9277,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="207" t="str">
-        <f t="shared" ref="R80:R108" si="4">P80</f>
+        <f t="shared" ref="R80:R109" si="4">P80</f>
         <v>a2</v>
       </c>
       <c r="S80" s="2"/>
@@ -9291,7 +9297,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9334,7 +9340,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9377,7 +9383,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9420,7 +9426,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9463,7 +9469,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9506,7 +9512,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9516,7 +9522,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="148"/>
       <c r="I86" s="163" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="J86" s="163" t="b">
         <v>0</v>
@@ -9549,7 +9555,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9559,7 +9565,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="148"/>
       <c r="I87" s="163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J87" s="163" t="b">
         <v>0</v>
@@ -9592,7 +9598,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9602,7 +9608,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="148"/>
       <c r="I88" s="163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J88" s="163" t="b">
         <v>0</v>
@@ -9635,7 +9641,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9645,7 +9651,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="148"/>
       <c r="I89" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J89" s="163" t="b">
         <v>0</v>
@@ -9678,7 +9684,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9688,7 +9694,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="148"/>
       <c r="I90" s="163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J90" s="163" t="b">
         <v>0</v>
@@ -9721,7 +9727,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9731,7 +9737,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="148"/>
       <c r="I91" s="163" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J91" s="163" t="b">
         <v>0</v>
@@ -9744,14 +9750,14 @@
       <c r="N91" s="165"/>
       <c r="O91" s="165"/>
       <c r="P91" s="163" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="Q91" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R91" s="207" t="str">
-        <f t="shared" si="4"/>
-        <v>o</v>
+        <f t="shared" ref="R91" si="5">P91</f>
+        <v>ms</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
@@ -9764,7 +9770,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9774,7 +9780,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="148"/>
       <c r="I92" s="163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J92" s="163" t="b">
         <v>0</v>
@@ -9785,14 +9791,14 @@
       <c r="N92" s="165"/>
       <c r="O92" s="165"/>
       <c r="P92" s="163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q92" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R92" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>od</v>
+        <v>o</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
@@ -9805,7 +9811,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9815,7 +9821,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="148"/>
       <c r="I93" s="163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J93" s="163" t="b">
         <v>0</v>
@@ -9826,14 +9832,14 @@
       <c r="N93" s="165"/>
       <c r="O93" s="165"/>
       <c r="P93" s="163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q93" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R93" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>of</v>
+        <v>od</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -9846,7 +9852,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9856,7 +9862,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="148"/>
       <c r="I94" s="163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J94" s="163" t="b">
         <v>0</v>
@@ -9867,14 +9873,14 @@
       <c r="N94" s="165"/>
       <c r="O94" s="165"/>
       <c r="P94" s="163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q94" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R94" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>r</v>
+        <v>of</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
@@ -9887,7 +9893,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9896,10 +9902,10 @@
       <c r="F95" s="5"/>
       <c r="G95" s="4"/>
       <c r="H95" s="148"/>
-      <c r="I95" s="164" t="s">
-        <v>339</v>
-      </c>
-      <c r="J95" s="164" t="b">
+      <c r="I95" s="163" t="s">
+        <v>337</v>
+      </c>
+      <c r="J95" s="163" t="b">
         <v>0</v>
       </c>
       <c r="K95" s="55"/>
@@ -9908,14 +9914,14 @@
       <c r="N95" s="165"/>
       <c r="O95" s="165"/>
       <c r="P95" s="163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q95" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R95" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>rd</v>
+        <v>r</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
@@ -9928,7 +9934,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -9937,22 +9943,26 @@
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
+      <c r="I96" s="164" t="s">
+        <v>339</v>
+      </c>
+      <c r="J96" s="164" t="b">
+        <v>0</v>
+      </c>
       <c r="K96" s="2"/>
       <c r="L96" s="53"/>
       <c r="M96" s="165"/>
       <c r="N96" s="165"/>
       <c r="O96" s="165"/>
       <c r="P96" s="163" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q96" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R96" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>rd</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -9965,7 +9975,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -9974,22 +9984,22 @@
       <c r="F97" s="5"/>
       <c r="G97" s="4"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
       <c r="K97" s="2"/>
       <c r="L97" s="53"/>
       <c r="M97" s="148"/>
       <c r="N97" s="148"/>
       <c r="O97" s="148"/>
       <c r="P97" s="163" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="Q97" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R97" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>sp</v>
+        <v>s</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -10002,7 +10012,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -10019,14 +10029,14 @@
       <c r="N98" s="148"/>
       <c r="O98" s="148"/>
       <c r="P98" s="163" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="Q98" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R98" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>t</v>
+        <v>sp</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -10039,7 +10049,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -10056,14 +10066,14 @@
       <c r="N99" s="148"/>
       <c r="O99" s="148"/>
       <c r="P99" s="163" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q99" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R99" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>tc</v>
+        <v>t</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -10076,7 +10086,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -10093,14 +10103,14 @@
       <c r="N100" s="148"/>
       <c r="O100" s="148"/>
       <c r="P100" s="163" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q100" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R100" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>u</v>
+        <v>tc</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -10113,7 +10123,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -10130,14 +10140,14 @@
       <c r="N101" s="148"/>
       <c r="O101" s="148"/>
       <c r="P101" s="163" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q101" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R101" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>uc</v>
+        <v>u</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -10150,7 +10160,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -10167,14 +10177,14 @@
       <c r="N102" s="148"/>
       <c r="O102" s="148"/>
       <c r="P102" s="163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q102" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R102" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>uc</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -10187,7 +10197,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -10204,14 +10214,14 @@
       <c r="N103" s="148"/>
       <c r="O103" s="148"/>
       <c r="P103" s="163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q103" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R103" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>w</v>
+        <v>v</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -10224,7 +10234,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10241,14 +10251,14 @@
       <c r="N104" s="148"/>
       <c r="O104" s="148"/>
       <c r="P104" s="163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q104" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R104" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>wd</v>
+        <v>w</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -10261,7 +10271,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10278,14 +10288,14 @@
       <c r="N105" s="148"/>
       <c r="O105" s="148"/>
       <c r="P105" s="163" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q105" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R105" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>x</v>
+        <v>wd</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -10298,7 +10308,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10315,14 +10325,14 @@
       <c r="N106" s="148"/>
       <c r="O106" s="148"/>
       <c r="P106" s="163" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q106" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R106" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>xc</v>
+        <v>x</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -10335,7 +10345,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10352,14 +10362,14 @@
       <c r="N107" s="148"/>
       <c r="O107" s="148"/>
       <c r="P107" s="163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q107" s="163" t="b">
         <v>0</v>
       </c>
       <c r="R107" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>z</v>
+        <v>xc</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -10372,7 +10382,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10388,15 +10398,15 @@
       <c r="M108" s="148"/>
       <c r="N108" s="148"/>
       <c r="O108" s="148"/>
-      <c r="P108" s="164" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q108" s="164" t="b">
-        <v>0</v>
-      </c>
-      <c r="R108" s="208" t="str">
+      <c r="P108" s="163" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q108" s="163" t="b">
+        <v>0</v>
+      </c>
+      <c r="R108" s="207" t="str">
         <f t="shared" si="4"/>
-        <v>zd</v>
+        <v>z</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -10409,7 +10419,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10425,9 +10435,16 @@
       <c r="M109" s="148"/>
       <c r="N109" s="148"/>
       <c r="O109" s="148"/>
-      <c r="P109" s="205"/>
-      <c r="Q109" s="205"/>
-      <c r="R109" s="205"/>
+      <c r="P109" s="164" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q109" s="164" t="b">
+        <v>0</v>
+      </c>
+      <c r="R109" s="208" t="str">
+        <f t="shared" si="4"/>
+        <v>zd</v>
+      </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
@@ -10439,7 +10456,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10472,7 +10489,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10505,7 +10522,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10538,7 +10555,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10571,7 +10588,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10621,7 +10638,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10656,7 +10673,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10689,7 +10706,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10724,7 +10741,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10757,7 +10774,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10790,7 +10807,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10823,7 +10840,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10853,7 +10870,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10883,7 +10900,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10913,7 +10930,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10943,7 +10960,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -10973,7 +10990,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -11003,7 +11020,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -11035,23 +11052,23 @@
       <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -11081,7 +11098,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -11114,7 +11131,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -11147,7 +11164,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -11182,7 +11199,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11253,7 +11270,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11291,7 +11308,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11330,7 +11347,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11363,7 +11380,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11400,7 +11417,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11435,7 +11452,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11472,7 +11489,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11507,7 +11524,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11546,7 +11563,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11585,7 +11602,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11620,7 +11637,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11655,7 +11672,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11702,7 +11719,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11739,7 +11756,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11776,7 +11793,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11813,7 +11830,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11850,7 +11867,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11885,7 +11902,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11918,7 +11935,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -11953,7 +11970,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -11986,7 +12003,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -12019,7 +12036,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -12052,7 +12069,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -12085,7 +12102,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -12120,7 +12137,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -12153,7 +12170,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -12190,7 +12207,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -12227,7 +12244,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12260,7 +12277,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12293,7 +12310,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12326,7 +12343,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12359,7 +12376,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12392,7 +12409,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12427,7 +12444,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12460,7 +12477,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12497,7 +12514,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12532,7 +12549,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12571,7 +12588,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12608,7 +12625,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12645,7 +12662,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12682,7 +12699,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12719,7 +12736,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12756,7 +12773,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12793,7 +12810,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12830,7 +12847,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12867,7 +12884,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12904,7 +12921,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12941,7 +12958,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -12978,7 +12995,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -13015,7 +13032,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -13052,7 +13069,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -13091,7 +13108,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -13128,7 +13145,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -13165,7 +13182,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -13202,7 +13219,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -13235,7 +13252,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13272,7 +13289,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13309,7 +13326,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13350,7 +13367,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13391,7 +13408,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13424,7 +13441,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13463,7 +13480,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13496,7 +13513,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13531,7 +13548,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13572,7 +13589,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13613,7 +13630,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13646,7 +13663,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13683,7 +13700,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13716,7 +13733,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13751,7 +13768,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13784,7 +13801,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13819,7 +13836,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13852,7 +13869,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13885,7 +13902,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13918,7 +13935,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13951,7 +13968,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -13986,7 +14003,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -14019,7 +14036,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -14056,7 +14073,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -14093,7 +14110,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -14126,7 +14143,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -14159,7 +14176,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -14192,7 +14209,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -14231,7 +14248,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14280,7 +14297,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14315,7 +14332,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14348,7 +14365,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14385,7 +14402,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14420,7 +14437,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14473,7 +14490,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14524,7 +14541,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14575,7 +14592,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14608,7 +14625,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14659,7 +14676,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14708,7 +14725,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14757,7 +14774,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14806,7 +14823,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14839,7 +14856,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14890,7 +14907,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14939,7 +14956,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -14988,7 +15005,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -15037,7 +15054,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -15070,7 +15087,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -15121,7 +15138,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -15170,7 +15187,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -15219,7 +15236,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15268,7 +15285,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15301,7 +15318,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15336,7 +15353,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15377,7 +15394,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15425,7 +15442,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15471,7 +15488,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15514,7 +15531,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15547,7 +15564,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15594,7 +15611,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15639,7 +15656,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15682,7 +15699,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15715,7 +15732,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15750,7 +15767,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15783,7 +15800,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15818,7 +15835,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15851,7 +15868,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15884,7 +15901,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15917,7 +15934,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15950,7 +15967,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -15985,7 +16002,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -16018,7 +16035,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -16055,7 +16072,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -16092,7 +16109,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -16125,7 +16142,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -16158,7 +16175,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -16193,7 +16210,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -16228,7 +16245,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16283,7 +16300,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16318,7 +16335,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16373,7 +16390,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16410,7 +16427,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16445,7 +16462,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16480,7 +16497,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16519,7 +16536,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16578,7 +16595,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16635,7 +16652,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16672,7 +16689,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16729,7 +16746,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16786,7 +16803,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16843,7 +16860,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16900,7 +16917,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -16957,7 +16974,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -17014,7 +17031,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -17071,7 +17088,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -17128,7 +17145,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -17191,7 +17208,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -17224,7 +17241,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -17284,7 +17301,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17319,7 +17336,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17370,7 +17387,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17433,7 +17450,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17494,7 +17511,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17553,7 +17570,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17612,7 +17629,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17671,7 +17688,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17732,7 +17749,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17793,7 +17810,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17852,7 +17869,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17911,7 +17928,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -17970,7 +17987,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -18031,7 +18048,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -18092,7 +18109,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -18151,7 +18168,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -18208,7 +18225,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -18267,7 +18284,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18328,7 +18345,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18389,7 +18406,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18448,7 +18465,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18507,7 +18524,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18566,7 +18583,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18629,7 +18646,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18688,7 +18705,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18747,7 +18764,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18804,7 +18821,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18861,7 +18878,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18920,7 +18937,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -18977,7 +18994,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -19034,7 +19051,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -19091,7 +19108,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -19148,7 +19165,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -19207,7 +19224,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19264,7 +19281,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19321,7 +19338,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19378,7 +19395,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19435,7 +19452,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19494,7 +19511,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19551,7 +19568,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19608,7 +19625,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19665,7 +19682,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19722,7 +19739,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19755,7 +19772,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19815,7 +19832,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19883,7 +19900,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19951,7 +19968,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -19986,7 +20003,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -20037,7 +20054,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -20109,7 +20126,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -20182,7 +20199,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20249,7 +20266,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20318,7 +20335,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20387,7 +20404,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20458,7 +20475,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20529,7 +20546,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20596,7 +20613,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20663,7 +20680,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20730,7 +20747,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20799,7 +20816,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20868,7 +20885,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20935,7 +20952,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -21002,7 +21019,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -21069,7 +21086,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -21138,7 +21155,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -21207,7 +21224,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21274,7 +21291,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21341,7 +21358,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21408,7 +21425,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21478,7 +21495,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21545,7 +21562,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21608,7 +21625,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21671,7 +21688,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21738,7 +21755,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21807,7 +21824,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21874,7 +21891,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21941,7 +21958,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -22008,7 +22025,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -22075,7 +22092,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -22144,7 +22161,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -22211,7 +22228,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22278,7 +22295,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22345,7 +22362,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22412,7 +22429,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22481,7 +22498,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22548,7 +22565,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22615,7 +22632,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22682,7 +22699,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22749,7 +22766,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22820,7 +22837,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22889,7 +22906,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -22956,7 +22973,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -23023,7 +23040,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -23090,7 +23107,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -23159,7 +23176,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -23226,7 +23243,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23293,7 +23310,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23360,7 +23377,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23427,7 +23444,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23486,7 +23503,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23548,7 +23565,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23609,7 +23626,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23669,7 +23686,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23736,7 +23753,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23801,7 +23818,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23863,7 +23880,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23923,7 +23940,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -23980,7 +23997,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -24047,7 +24064,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -24080,7 +24097,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -24136,7 +24153,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -24189,7 +24206,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24242,7 +24259,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24277,7 +24294,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24327,7 +24344,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24385,7 +24402,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24443,7 +24460,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24496,7 +24513,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24548,7 +24565,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24603,7 +24620,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24657,7 +24674,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24711,7 +24728,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24761,7 +24778,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24811,7 +24828,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24864,7 +24881,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24918,7 +24935,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -24972,7 +24989,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -25022,7 +25039,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -25072,7 +25089,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -25125,7 +25142,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -25177,7 +25194,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -25229,7 +25246,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25278,7 +25295,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25325,7 +25342,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25378,7 +25395,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25411,7 +25428,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25444,7 +25461,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25479,7 +25496,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25512,7 +25529,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25545,7 +25562,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25580,7 +25597,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25613,7 +25630,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25650,7 +25667,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25687,7 +25704,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25720,7 +25737,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25753,7 +25770,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25798,7 +25815,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25837,7 +25854,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25876,7 +25893,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25925,7 +25942,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -25958,7 +25975,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -25995,7 +26012,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -26030,7 +26047,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -26065,7 +26082,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -26106,7 +26123,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -26147,7 +26164,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -26188,7 +26205,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -26221,7 +26238,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26254,7 +26271,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26293,7 +26310,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26337,7 +26354,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26370,7 +26387,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26403,7 +26420,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26436,7 +26453,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26471,7 +26488,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="73">
@@ -26504,7 +26521,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="35"/>
       <c r="C324" s="76">
@@ -26539,7 +26556,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="19"/>
       <c r="C325" s="77">
@@ -26572,7 +26589,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26605,7 +26622,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="73">
@@ -26638,7 +26655,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26668,7 +26685,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26698,7 +26715,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26728,7 +26745,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26758,7 +26775,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26788,7 +26805,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="66"/>
@@ -26818,7 +26835,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C334" s="72" t="s">
         <v>4</v>
       </c>
@@ -26843,7 +26860,7 @@
   </sheetPr>
   <dimension ref="A1:AB211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" ySplit="10" topLeftCell="J143" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
@@ -26851,28 +26868,28 @@
       <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="14" width="11.26953125" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="18" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26902,7 +26919,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26935,7 +26952,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26968,7 +26985,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -27003,7 +27020,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -27074,7 +27091,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -27112,7 +27129,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -27151,7 +27168,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -27184,7 +27201,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -27221,7 +27238,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27256,7 +27273,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27293,7 +27310,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27328,7 +27345,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27367,7 +27384,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27406,7 +27423,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27441,7 +27458,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27476,7 +27493,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27523,7 +27540,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27560,7 +27577,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27597,7 +27614,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27634,7 +27651,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27671,7 +27688,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27706,7 +27723,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27739,7 +27756,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27774,7 +27791,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27807,7 +27824,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27840,7 +27857,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27873,7 +27890,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27906,7 +27923,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27941,7 +27958,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27974,7 +27991,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -28011,7 +28028,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -28048,7 +28065,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -28081,7 +28098,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -28114,7 +28131,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -28147,7 +28164,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -28180,7 +28197,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28213,7 +28230,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28248,7 +28265,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28281,7 +28298,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28318,7 +28335,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28353,7 +28370,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28390,7 +28407,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28423,7 +28440,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28456,7 +28473,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28493,7 +28510,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28530,7 +28547,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28563,7 +28580,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28596,7 +28613,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28629,7 +28646,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28664,7 +28681,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28697,7 +28714,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="35"/>
       <c r="C52" s="76">
@@ -28732,7 +28749,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="77">
@@ -28765,7 +28782,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="73">
@@ -28798,7 +28815,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="73">
@@ -28831,7 +28848,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="20"/>
       <c r="C56" s="74">
@@ -28864,7 +28881,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="34" t="s">
         <v>21</v>
@@ -28899,7 +28916,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28932,7 +28949,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -28969,7 +28986,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -29006,7 +29023,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -29039,7 +29056,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -29072,7 +29089,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -29113,7 +29130,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -29156,7 +29173,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -29201,7 +29218,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33" t="s">
         <v>20</v>
@@ -29242,7 +29259,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29275,7 +29292,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33" t="s">
         <v>19</v>
@@ -29312,7 +29329,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29347,7 +29364,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29382,7 +29399,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29427,7 +29444,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29472,7 +29489,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29533,7 +29550,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29594,7 +29611,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -29655,7 +29672,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29688,7 +29705,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -29721,7 +29738,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29768,7 +29785,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29813,7 +29830,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29860,7 +29877,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29907,7 +29924,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -29954,7 +29971,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -30001,7 +30018,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -30048,7 +30065,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -30078,7 +30095,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -30111,7 +30128,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30146,7 +30163,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30179,7 +30196,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="35"/>
       <c r="C89" s="76">
@@ -30214,7 +30231,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="77">
@@ -30247,7 +30264,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="73">
@@ -30280,7 +30297,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="73">
@@ -30313,7 +30330,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="20"/>
       <c r="C93" s="74">
@@ -30346,7 +30363,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="34" t="s">
         <v>21</v>
@@ -30381,7 +30398,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30414,7 +30431,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30451,7 +30468,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30488,7 +30505,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30521,7 +30538,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30554,7 +30571,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30593,7 +30610,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30632,7 +30649,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30675,7 +30692,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33" t="s">
         <v>20</v>
@@ -30716,7 +30733,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30749,7 +30766,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33" t="s">
         <v>19</v>
@@ -30786,7 +30803,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -30821,7 +30838,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -30868,7 +30885,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -30910,7 +30927,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -30951,7 +30968,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -30994,7 +31011,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31035,7 +31052,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31070,7 +31087,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31105,7 +31122,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31158,7 +31175,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -31213,7 +31230,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -31262,7 +31279,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -31311,7 +31328,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -31360,7 +31377,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -31409,7 +31426,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -31458,7 +31475,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -31507,7 +31524,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -31556,7 +31573,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -31591,7 +31608,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -31626,7 +31643,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="73">
@@ -31667,7 +31684,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="73">
@@ -31724,7 +31741,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
@@ -31785,7 +31802,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
@@ -31838,7 +31855,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
@@ -31891,7 +31908,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
@@ -31938,7 +31955,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -31973,7 +31990,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -32006,7 +32023,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="76">
@@ -32041,7 +32058,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="77">
@@ -32074,7 +32091,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="73">
@@ -32107,7 +32124,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="73">
@@ -32140,7 +32157,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="74">
@@ -32173,7 +32190,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -32208,7 +32225,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="73">
@@ -32241,7 +32258,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -32278,7 +32295,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="73">
@@ -32315,7 +32332,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -32348,7 +32365,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -32381,7 +32398,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33" t="s">
         <v>20</v>
@@ -32422,7 +32439,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -32455,7 +32472,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33" t="s">
         <v>19</v>
@@ -32492,7 +32509,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -32527,7 +32544,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -32572,7 +32589,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -32613,7 +32630,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -32654,7 +32671,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -32691,7 +32708,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73"/>
@@ -32721,7 +32738,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73"/>
@@ -32755,7 +32772,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -32790,7 +32807,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -32825,7 +32842,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -32862,7 +32879,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -32901,7 +32918,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -32940,7 +32957,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -32979,7 +32996,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -33018,7 +33035,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -33057,7 +33074,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -33096,7 +33113,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -33135,7 +33152,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -33174,7 +33191,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -33213,7 +33230,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -33252,7 +33269,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -33291,7 +33308,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -33330,7 +33347,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -33369,7 +33386,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -33408,7 +33425,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -33447,7 +33464,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -33486,7 +33503,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -33519,7 +33536,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -33552,7 +33569,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -33587,7 +33604,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -33620,7 +33637,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="35"/>
       <c r="C177" s="76">
@@ -33655,7 +33672,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="19"/>
       <c r="C178" s="77">
@@ -33688,7 +33705,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="73">
@@ -33721,7 +33738,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="73">
@@ -33754,7 +33771,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="20"/>
       <c r="C181" s="74">
@@ -33787,7 +33804,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="34" t="s">
         <v>21</v>
@@ -33822,7 +33839,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -33855,7 +33872,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -33892,7 +33909,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -33931,7 +33948,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -33964,7 +33981,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -33999,7 +34016,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -34052,7 +34069,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33" t="s">
         <v>20</v>
@@ -34087,7 +34104,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -34120,7 +34137,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33" t="s">
         <v>19</v>
@@ -34157,7 +34174,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -34192,7 +34209,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -34231,7 +34248,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -34264,7 +34281,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -34299,7 +34316,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -34354,7 +34371,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -34409,7 +34426,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -34442,7 +34459,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -34475,7 +34492,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -34510,7 +34527,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -34543,7 +34560,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="35"/>
       <c r="C202" s="76">
@@ -34578,7 +34595,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="19"/>
       <c r="C203" s="77">
@@ -34611,7 +34628,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="73">
@@ -34644,7 +34661,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="66"/>
@@ -34674,7 +34691,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="66"/>
@@ -34704,7 +34721,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="66"/>
@@ -34734,7 +34751,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="66"/>
@@ -34764,7 +34781,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="66"/>
@@ -34794,7 +34811,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="66"/>
@@ -34824,7 +34841,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C211" s="72" t="s">
         <v>4</v>
       </c>
@@ -34866,17 +34883,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="166"/>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -34904,7 +34921,7 @@
       <c r="Y1" s="168"/>
       <c r="Z1" s="168"/>
     </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="166"/>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -34932,7 +34949,7 @@
       <c r="Y2" s="167"/>
       <c r="Z2" s="167"/>
     </row>
-    <row r="3" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="166"/>
       <c r="B3" s="167"/>
       <c r="C3" s="167"/>
@@ -34960,7 +34977,7 @@
       <c r="Y3" s="167"/>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="166"/>
       <c r="B4" s="167"/>
       <c r="C4" s="169"/>
@@ -34988,7 +35005,7 @@
       <c r="Y4" s="168"/>
       <c r="Z4" s="168"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="166"/>
       <c r="B5" s="167"/>
       <c r="C5" s="172"/>
@@ -35018,7 +35035,7 @@
       <c r="Y5" s="168"/>
       <c r="Z5" s="168"/>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="166"/>
       <c r="B6" s="167"/>
       <c r="C6" s="172"/>
@@ -35046,7 +35063,7 @@
       <c r="Y6" s="168"/>
       <c r="Z6" s="168"/>
     </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="166"/>
       <c r="B7" s="167"/>
       <c r="C7" s="177"/>
@@ -35076,7 +35093,7 @@
       <c r="Y7" s="168"/>
       <c r="Z7" s="168"/>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="180"/>
@@ -35104,7 +35121,7 @@
       <c r="Y8" s="168"/>
       <c r="Z8" s="168"/>
     </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="166"/>
       <c r="B9" s="167"/>
       <c r="C9" s="177"/>
@@ -35132,7 +35149,7 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="168"/>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="177"/>
@@ -35160,7 +35177,7 @@
       <c r="Y10" s="168"/>
       <c r="Z10" s="168"/>
     </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="177"/>
@@ -35188,7 +35205,7 @@
       <c r="Y11" s="168"/>
       <c r="Z11" s="168"/>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="177"/>
@@ -35216,7 +35233,7 @@
       <c r="Y12" s="168"/>
       <c r="Z12" s="168"/>
     </row>
-    <row r="13" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="177"/>
@@ -35244,7 +35261,7 @@
       <c r="Y13" s="168"/>
       <c r="Z13" s="168"/>
     </row>
-    <row r="14" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="177"/>
@@ -35272,7 +35289,7 @@
       <c r="Y14" s="168"/>
       <c r="Z14" s="168"/>
     </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="177"/>
@@ -35300,7 +35317,7 @@
       <c r="Y15" s="168"/>
       <c r="Z15" s="168"/>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="177"/>
@@ -35342,7 +35359,7 @@
       <c r="Y16" s="168"/>
       <c r="Z16" s="168"/>
     </row>
-    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="177"/>
@@ -35385,7 +35402,7 @@
       <c r="Y17" s="168"/>
       <c r="Z17" s="168"/>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="166"/>
       <c r="B18" s="167"/>
       <c r="C18" s="177"/>
@@ -35427,7 +35444,7 @@
       <c r="Y18" s="168"/>
       <c r="Z18" s="168"/>
     </row>
-    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="177"/>
@@ -35455,7 +35472,7 @@
       <c r="Y19" s="168"/>
       <c r="Z19" s="168"/>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="166"/>
       <c r="B20" s="167"/>
       <c r="C20" s="177"/>
@@ -35483,7 +35500,7 @@
       <c r="Y20" s="168"/>
       <c r="Z20" s="168"/>
     </row>
-    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="177"/>
@@ -35511,7 +35528,7 @@
       <c r="Y21" s="168"/>
       <c r="Z21" s="168"/>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="177"/>
@@ -35539,7 +35556,7 @@
       <c r="Y22" s="168"/>
       <c r="Z22" s="168"/>
     </row>
-    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="177"/>
@@ -35567,7 +35584,7 @@
       <c r="Y23" s="168"/>
       <c r="Z23" s="168"/>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="177"/>
@@ -35595,7 +35612,7 @@
       <c r="Y24" s="168"/>
       <c r="Z24" s="168"/>
     </row>
-    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="177"/>
@@ -35623,7 +35640,7 @@
       <c r="Y25" s="168"/>
       <c r="Z25" s="168"/>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="177"/>
@@ -35651,7 +35668,7 @@
       <c r="Y26" s="168"/>
       <c r="Z26" s="168"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="177"/>
@@ -35679,7 +35696,7 @@
       <c r="Y27" s="168"/>
       <c r="Z27" s="168"/>
     </row>
-    <row r="28" spans="1:26" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="177"/>
@@ -35707,7 +35724,7 @@
       <c r="Y28" s="168"/>
       <c r="Z28" s="168"/>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="200"/>
@@ -35735,7 +35752,7 @@
       <c r="Y29" s="168"/>
       <c r="Z29" s="168"/>
     </row>
-    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="167"/>
@@ -35763,7 +35780,7 @@
       <c r="Y30" s="168"/>
       <c r="Z30" s="168"/>
     </row>
-    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="167"/>
@@ -35809,22 +35826,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="28" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -35856,7 +35873,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -35891,7 +35908,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -35926,7 +35943,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -35963,7 +35980,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -36040,7 +36057,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -36080,7 +36097,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -36121,7 +36138,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -36156,7 +36173,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -36191,7 +36208,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -36226,7 +36243,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -36261,7 +36278,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -36300,7 +36317,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -36337,7 +36354,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -36372,7 +36389,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -36411,7 +36428,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -36448,7 +36465,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -36485,7 +36502,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -36526,7 +36543,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -36561,7 +36578,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -36596,7 +36613,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -36637,7 +36654,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -36672,7 +36689,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -36707,7 +36724,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -36744,7 +36761,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -36781,7 +36798,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -36830,7 +36847,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -36869,7 +36886,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -36908,7 +36925,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -36947,7 +36964,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -36986,7 +37003,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -37023,7 +37040,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -37060,7 +37077,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="67">
@@ -37121,7 +37138,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="67">
@@ -37186,7 +37203,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="67">
@@ -37221,7 +37238,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="67">
@@ -37256,7 +37273,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="67">
@@ -37291,7 +37308,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="67">
@@ -37328,7 +37345,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="67">
@@ -37363,7 +37380,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="70">
@@ -37400,7 +37417,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="71">
@@ -37435,7 +37452,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="67">
@@ -37470,7 +37487,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="66"/>
@@ -37502,7 +37519,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="66"/>
@@ -37534,7 +37551,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="66"/>
@@ -37566,7 +37583,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="66"/>
@@ -37598,7 +37615,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="66"/>
@@ -37630,7 +37647,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="66"/>
@@ -37662,7 +37679,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="72" t="s">
         <v>4</v>
       </c>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6886F4-7145-48BD-9CA3-89F6FC886E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF07AD-45B4-4EDC-BC44-5A853311D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7275" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="21525" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -81,6 +81,7 @@
     <definedName name="i_idx_k" localSheetId="0">General!$P$79:$P$109</definedName>
     <definedName name="i_idx_k1" localSheetId="0">General!$I$79:$I$96</definedName>
     <definedName name="i_idx_k2" localSheetId="0">General!$L$79:$L$91</definedName>
+    <definedName name="i_inc_node_periods" localSheetId="2">StructuralSA!$M$43</definedName>
     <definedName name="i_initial_b1">Stock!$L$155:$V$155</definedName>
     <definedName name="i_is_baled_k" localSheetId="0">General!$J$79:$J$96</definedName>
     <definedName name="i_is_dry_b1">Stock!$L$149:$V$149</definedName>
@@ -95,6 +96,7 @@
     <definedName name="i_len_f">StructuralSA!$I$193</definedName>
     <definedName name="i_len_l">Stock!$M$160</definedName>
     <definedName name="i_len_m">Stock!$L$160</definedName>
+    <definedName name="i_len_q" localSheetId="2">StructuralSA!$M$44</definedName>
     <definedName name="i_len_s">Stock!$N$160</definedName>
     <definedName name="i_lsln_idx_dams">Stock!$L$202:$V$202</definedName>
     <definedName name="i_mask_b0_b1">Stock!$L$148:$V$148</definedName>
@@ -122,8 +124,8 @@
     <definedName name="i_nut_spread_n3" localSheetId="2">StructuralSA!$S$115:$S$122</definedName>
     <definedName name="i_nv_lower_p6">StructuralSA!$J$196:$S$196</definedName>
     <definedName name="i_nv_upper_p6">StructuralSA!$J$197:$S$197</definedName>
-    <definedName name="i_offs_sale_method" localSheetId="2">StructuralSA!$I$45</definedName>
-    <definedName name="i_offs_sale_opportunities_per_dvp" localSheetId="2">StructuralSA!$I$46</definedName>
+    <definedName name="i_offs_sale_method" localSheetId="2">StructuralSA!$R$42</definedName>
+    <definedName name="i_offs_sale_opportunities_per_dvp" localSheetId="2">StructuralSA!$R$43</definedName>
     <definedName name="i_offs_user_fvp_date_iu" localSheetId="2">StructuralSA!$P$82:$R$84</definedName>
     <definedName name="i_p_pos">Stock!$I$55</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$66</definedName>
@@ -165,6 +167,7 @@
     <definedName name="pastures" localSheetId="0">General!$I$46:$L$46</definedName>
     <definedName name="phase_len" localSheetId="0">General!$I$51</definedName>
     <definedName name="rdvp_type_r">Stock!$J$318:$L$318</definedName>
+    <definedName name="steady_state" localSheetId="2">StructuralSA!$M$42</definedName>
     <definedName name="worker_levels" localSheetId="0">General!$I$42:$K$42</definedName>
     <definedName name="ZA.Gridlines" localSheetId="4">Admin!$L$29</definedName>
     <definedName name="ZA.Headers" localSheetId="4">Admin!$L$30</definedName>
@@ -177,7 +180,7 @@
     <definedName name="ZA.WidthCol" localSheetId="4">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="4">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1231,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{BB89A993-BB16-406A-945D-1C3F541C2430}">
+    <comment ref="Q42" authorId="0" shapeId="0" xr:uid="{BB89A993-BB16-406A-945D-1C3F541C2430}">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1258,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{0634BC1B-3FB1-4084-83E3-B16D521CEB1B}">
+    <comment ref="L43" authorId="1" shapeId="0" xr:uid="{1C7C64C2-3F12-43F6-8413-0B040031EF4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+include nodes as feed periods and dvps. This allows you to include the nodes in the steady state model. In DSP this inputs gets overwritten and essentially set to true.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q43" authorId="0" shapeId="0" xr:uid="{0634BC1B-3FB1-4084-83E3-B16D521CEB1B}">
       <text>
         <r>
           <rPr>
@@ -2445,7 +2472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="405">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3764,6 +3791,27 @@
   </si>
   <si>
     <t>ms</t>
+  </si>
+  <si>
+    <t>Steady State Model?</t>
+  </si>
+  <si>
+    <t>include nodes</t>
+  </si>
+  <si>
+    <t>Season sequence len</t>
+  </si>
+  <si>
+    <t>Season Structure</t>
+  </si>
+  <si>
+    <t>Sowing</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Multi-period model?</t>
   </si>
 </sst>
 </file>
@@ -5116,7 +5164,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -5702,6 +5750,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="39" borderId="22" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="44" applyBorder="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6357,8 +6412,8 @@
   </sheetPr>
   <dimension ref="A1:AT127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
@@ -26860,12 +26915,12 @@
   </sheetPr>
   <dimension ref="A1:AB211"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J143" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -28197,7 +28252,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28209,16 +28264,22 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="29" t="s">
+        <v>402</v>
+      </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
+      <c r="M37" s="29" t="s">
+        <v>401</v>
+      </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
+      <c r="R37" s="29" t="s">
+        <v>403</v>
+      </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
       <c r="U37" s="29"/>
@@ -28389,13 +28450,21 @@
       </c>
       <c r="J42" s="96"/>
       <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
+      <c r="L42" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="M42" s="220" t="b">
+        <v>1</v>
+      </c>
       <c r="N42" s="96"/>
       <c r="O42" s="96"/>
       <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
+      <c r="Q42" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="R42" s="204">
+        <v>1</v>
+      </c>
       <c r="S42" s="96"/>
       <c r="T42" s="96"/>
       <c r="U42" s="96"/>
@@ -28422,13 +28491,21 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="M43" s="220" t="b">
+        <v>0</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="Q43" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="R43" s="204">
+        <v>4</v>
+      </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -28455,8 +28532,12 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="L44" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" s="221">
+        <v>1</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -28484,16 +28565,16 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I45" s="204">
-        <v>1</v>
-      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="L45" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" s="220" t="b">
+        <v>0</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -28521,12 +28602,8 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I46" s="204">
-        <v>4</v>
-      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF07AD-45B4-4EDC-BC44-5A853311D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16540849-E08C-4387-9E42-431B8D779F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21525" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
@@ -164,6 +164,7 @@
     <definedName name="ia_sire_dsegroup">Stock!$L$144</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$146:$V$146</definedName>
     <definedName name="labour_period_len" localSheetId="0">General!$I$53</definedName>
+    <definedName name="model_is_MP" localSheetId="2">StructuralSA!$M$45</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$46:$L$46</definedName>
     <definedName name="phase_len" localSheetId="0">General!$I$51</definedName>
     <definedName name="rdvp_type_r">Stock!$J$318:$L$318</definedName>
@@ -5728,6 +5729,13 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="32" fillId="39" borderId="22" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="44" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5750,13 +5758,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="39" borderId="22" xfId="44" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" xfId="44" applyBorder="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6909,19 +6910,19 @@
       <c r="I13" s="126">
         <v>44371.659649305599</v>
       </c>
-      <c r="J13" s="213" t="s">
+      <c r="J13" s="215" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="215"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="216"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="216"/>
+      <c r="S13" s="216"/>
+      <c r="T13" s="217"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -6948,19 +6949,19 @@
       <c r="I14" s="125">
         <v>44719.411846643503</v>
       </c>
-      <c r="J14" s="216" t="s">
+      <c r="J14" s="218" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -11596,19 +11597,19 @@
       <c r="I13" s="126">
         <v>45049.868338773202</v>
       </c>
-      <c r="J13" s="213" t="s">
+      <c r="J13" s="215" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="215"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="216"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="216"/>
+      <c r="S13" s="216"/>
+      <c r="T13" s="217"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -11635,19 +11636,19 @@
       <c r="I14" s="125">
         <v>44762.449343865701</v>
       </c>
-      <c r="J14" s="216" t="s">
+      <c r="J14" s="218" t="s">
         <v>362</v>
       </c>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -26920,7 +26921,7 @@
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -27417,19 +27418,19 @@
       <c r="I13" s="126">
         <v>45441.560548148103</v>
       </c>
-      <c r="J13" s="213" t="s">
+      <c r="J13" s="215" t="s">
         <v>396</v>
       </c>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="215"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="216"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="216"/>
+      <c r="S13" s="216"/>
+      <c r="T13" s="217"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -27456,19 +27457,19 @@
       <c r="I14" s="125">
         <v>45421.933288078697</v>
       </c>
-      <c r="J14" s="216" t="s">
+      <c r="J14" s="218" t="s">
         <v>394</v>
       </c>
-      <c r="K14" s="217"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="217"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="217"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -28453,7 +28454,7 @@
       <c r="L42" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="M42" s="220" t="b">
+      <c r="M42" s="213" t="b">
         <v>1</v>
       </c>
       <c r="N42" s="96"/>
@@ -28494,7 +28495,7 @@
       <c r="L43" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="M43" s="220" t="b">
+      <c r="M43" s="213" t="b">
         <v>0</v>
       </c>
       <c r="N43" s="2"/>
@@ -28535,7 +28536,7 @@
       <c r="L44" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="M44" s="221">
+      <c r="M44" s="214">
         <v>1</v>
       </c>
       <c r="N44" s="2"/>
@@ -28572,7 +28573,7 @@
       <c r="L45" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="M45" s="220" t="b">
+      <c r="M45" s="213" t="b">
         <v>0</v>
       </c>
       <c r="N45" s="2"/>
@@ -36596,23 +36597,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="218" t="s">
+      <c r="J18" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="218"/>
-      <c r="S18" s="218"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="218"/>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -36707,23 +36708,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="216" t="s">
+      <c r="J21" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="217"/>
-      <c r="L21" s="217"/>
-      <c r="M21" s="217"/>
-      <c r="N21" s="217"/>
-      <c r="O21" s="217"/>
-      <c r="P21" s="217"/>
-      <c r="Q21" s="217"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="219"/>
+      <c r="S21" s="219"/>
+      <c r="T21" s="219"/>
+      <c r="U21" s="219"/>
+      <c r="V21" s="219"/>
+      <c r="W21" s="219"/>
+      <c r="X21" s="221"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16540849-E08C-4387-9E42-431B8D779F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B49BF-3401-4328-9C8B-9FB87D5169DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21525" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-7275" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="i_confinement_n0">StructuralSA!$K$115</definedName>
     <definedName name="i_confinement_n1">StructuralSA!$N$115:$N$122</definedName>
     <definedName name="i_confinement_n3">StructuralSA!$T$115:$T$122</definedName>
-    <definedName name="i_core_dvp_types_f1" localSheetId="1">Stock!$J$313:$L$313</definedName>
+    <definedName name="i_core_dvp_types_f1" localSheetId="1">Stock!$J$312:$L$312</definedName>
     <definedName name="i_d_pos">Stock!$I$47</definedName>
     <definedName name="i_dams_user_fvp_date_iu">StructuralSA!$S$73:$V$75</definedName>
     <definedName name="i_density_n0" localSheetId="2">StructuralSA!$L$115</definedName>
@@ -67,13 +67,12 @@
     <definedName name="i_e1_pos">Stock!$I$49</definedName>
     <definedName name="i_enterprises_c0" localSheetId="0">General!$I$55:$J$55</definedName>
     <definedName name="i_feedsupply_itn_max">Stock!$I$72</definedName>
-    <definedName name="i_fixed_dvp_mask_f1">Stock!$J$314:$L$314</definedName>
-    <definedName name="i_fixed_fvp_mask_dams">Stock!$J$312:$L$312</definedName>
+    <definedName name="i_fixed_dvp_mask_f1">Stock!$J$313:$L$313</definedName>
     <definedName name="i_fs_create_number" localSheetId="2">StructuralSA!$M$151</definedName>
     <definedName name="i_fs_create_pkl" localSheetId="2">StructuralSA!$M$150</definedName>
     <definedName name="i_fs_use_number">StructuralSA!$M$149</definedName>
     <definedName name="i_fs_use_pkl" localSheetId="2">StructuralSA!$M$148</definedName>
-    <definedName name="i_fvp_mask_dams">StructuralSA!$N$71:$R$71</definedName>
+    <definedName name="i_fvp_mask_dams">StructuralSA!$K$71:$R$71</definedName>
     <definedName name="i_fvp_mask_offs">StructuralSA!$J$80:$O$80</definedName>
     <definedName name="i_generate_with_t" localSheetId="2">StructuralSA!$P$149</definedName>
     <definedName name="i_history4_req" localSheetId="0">General!$R$79:$R$109</definedName>
@@ -167,7 +166,7 @@
     <definedName name="model_is_MP" localSheetId="2">StructuralSA!$M$45</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$46:$L$46</definedName>
     <definedName name="phase_len" localSheetId="0">General!$I$51</definedName>
-    <definedName name="rdvp_type_r">Stock!$J$318:$L$318</definedName>
+    <definedName name="rdvp_type_r">Stock!$J$317:$L$317</definedName>
     <definedName name="steady_state" localSheetId="2">StructuralSA!$M$42</definedName>
     <definedName name="worker_levels" localSheetId="0">General!$I$42:$K$42</definedName>
     <definedName name="ZA.Gridlines" localSheetId="4">Admin!$L$29</definedName>
@@ -181,7 +180,7 @@
     <definedName name="ZA.WidthCol" localSheetId="4">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="4">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1079,31 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H312" authorId="0" shapeId="0" xr:uid="{84E02620-105A-49A0-BB13-0F016867D2B6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-is the fvp being included in the model?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H313" authorId="0" shapeId="0" xr:uid="{DC35C0C4-2368-49C4-B80C-096DB5F5B286}">
+    <comment ref="H312" authorId="0" shapeId="0" xr:uid="{DC35C0C4-2368-49C4-B80C-096DB5F5B286}">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H314" authorId="0" shapeId="0" xr:uid="{40C7893C-45CA-41EE-B47C-3FDA2D2EA429}">
+    <comment ref="H313" authorId="0" shapeId="0" xr:uid="{40C7893C-45CA-41EE-B47C-3FDA2D2EA429}">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J317" authorId="0" shapeId="0" xr:uid="{E1A71694-3808-49CC-84CF-C00DD1A048B7}">
+    <comment ref="J316" authorId="0" shapeId="0" xr:uid="{E1A71694-3808-49CC-84CF-C00DD1A048B7}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H318" authorId="0" shapeId="0" xr:uid="{D3E0784A-B894-44EF-B048-4F13C34C87DA}">
+    <comment ref="H317" authorId="0" shapeId="0" xr:uid="{D3E0784A-B894-44EF-B048-4F13C34C87DA}">
       <text>
         <r>
           <rPr>
@@ -1429,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K65" authorId="2" shapeId="0" xr:uid="{7A871372-172C-422B-B562-4E4B218F668C}">
+    <comment ref="J65" authorId="2" shapeId="0" xr:uid="{7A871372-172C-422B-B562-4E4B218F668C}">
       <text>
         <r>
           <rPr>
@@ -2473,7 +2448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="405">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -5864,12 +5839,12 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>311</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11098,14 +11073,14 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB334"/>
+  <dimension ref="A1:AB333"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J301" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
+      <selection pane="bottomRight" activeCell="H314" sqref="H314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -26142,7 +26117,7 @@
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
-        <f>INT($C$31)+3</f>
+        <f t="shared" ref="C312:C319" si="72">INT($C$31)+3</f>
         <v>4</v>
       </c>
       <c r="D312" s="4"/>
@@ -26150,17 +26125,17 @@
       <c r="F312" s="5"/>
       <c r="G312" s="4"/>
       <c r="H312" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="I312" s="2"/>
-      <c r="J312" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K312" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" s="31" t="b">
-        <v>1</v>
+      <c r="J312" s="109">
+        <v>0</v>
+      </c>
+      <c r="K312" s="109">
+        <v>1</v>
+      </c>
+      <c r="L312" s="109">
+        <v>2</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -26183,7 +26158,7 @@
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
-        <f t="shared" ref="C313:C320" si="72">INT($C$31)+3</f>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="D313" s="4"/>
@@ -26191,17 +26166,17 @@
       <c r="F313" s="5"/>
       <c r="G313" s="4"/>
       <c r="H313" s="2" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I313" s="2"/>
-      <c r="J313" s="109">
-        <v>0</v>
-      </c>
-      <c r="K313" s="109">
-        <v>1</v>
-      </c>
-      <c r="L313" s="109">
-        <v>2</v>
+      <c r="J313" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K313" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
@@ -26231,19 +26206,11 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
       <c r="G314" s="4"/>
-      <c r="H314" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="H314" s="2"/>
       <c r="I314" s="2"/>
-      <c r="J314" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K314" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L314" s="31" t="b">
-        <v>1</v>
-      </c>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -26306,10 +26273,16 @@
       <c r="F316" s="5"/>
       <c r="G316" s="4"/>
       <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-      <c r="J316" s="2"/>
-      <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
+      <c r="I316" s="122"/>
+      <c r="J316" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="K316" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="L316" s="123" t="s">
+        <v>221</v>
+      </c>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
@@ -26338,16 +26311,21 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
       <c r="G317" s="4"/>
-      <c r="H317" s="2"/>
+      <c r="H317" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="I317" s="122"/>
-      <c r="J317" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="K317" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="L317" s="123" t="s">
-        <v>221</v>
+      <c r="J317" s="31">
+        <f>J312</f>
+        <v>0</v>
+      </c>
+      <c r="K317" s="31">
+        <f>K312</f>
+        <v>1</v>
+      </c>
+      <c r="L317" s="31">
+        <f>L312</f>
+        <v>2</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -26377,22 +26355,11 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
       <c r="G318" s="4"/>
-      <c r="H318" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="H318" s="2"/>
       <c r="I318" s="122"/>
-      <c r="J318" s="31">
-        <f>J313</f>
-        <v>0</v>
-      </c>
-      <c r="K318" s="31">
-        <f>K313</f>
-        <v>1</v>
-      </c>
-      <c r="L318" s="31">
-        <f>L313</f>
-        <v>2</v>
-      </c>
+      <c r="J318" s="123"/>
+      <c r="K318" s="123"/>
+      <c r="L318" s="123"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
@@ -26447,7 +26414,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
-        <f t="shared" si="72"/>
+        <f>INT($C$31)+3</f>
         <v>4</v>
       </c>
       <c r="D320" s="4"/>
@@ -26455,10 +26422,10 @@
       <c r="F320" s="5"/>
       <c r="G320" s="4"/>
       <c r="H320" s="2"/>
-      <c r="I320" s="122"/>
-      <c r="J320" s="123"/>
-      <c r="K320" s="123"/>
-      <c r="L320" s="123"/>
+      <c r="I320" s="2"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -26476,171 +26443,171 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
-        <f>INT($C$31)+3</f>
-        <v>4</v>
+        <f>INT($C$31)+3.005</f>
+        <v>4.0049999999999999</v>
       </c>
       <c r="D321" s="4"/>
-      <c r="E321" s="5"/>
-      <c r="F321" s="5"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
       <c r="G321" s="4"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="2"/>
-      <c r="K321" s="2"/>
-      <c r="L321" s="2"/>
-      <c r="M321" s="2"/>
-      <c r="N321" s="2"/>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
-      <c r="T321" s="2"/>
-      <c r="U321" s="2"/>
-      <c r="V321" s="2"/>
-      <c r="W321" s="2"/>
-      <c r="X321" s="4"/>
+      <c r="H321" s="82"/>
+      <c r="I321" s="82"/>
+      <c r="J321" s="82"/>
+      <c r="K321" s="82"/>
+      <c r="L321" s="82"/>
+      <c r="M321" s="82"/>
+      <c r="N321" s="82"/>
+      <c r="O321" s="82"/>
+      <c r="P321" s="82"/>
+      <c r="Q321" s="82"/>
+      <c r="R321" s="82"/>
+      <c r="S321" s="82"/>
+      <c r="T321" s="82"/>
+      <c r="U321" s="82"/>
+      <c r="V321" s="82"/>
+      <c r="W321" s="82"/>
+      <c r="X321" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y321" s="16"/>
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
-        <f>INT($C$31)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT($C$31)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
-      <c r="H322" s="82"/>
-      <c r="I322" s="82"/>
-      <c r="J322" s="82"/>
-      <c r="K322" s="82"/>
-      <c r="L322" s="82"/>
-      <c r="M322" s="82"/>
-      <c r="N322" s="82"/>
-      <c r="O322" s="82"/>
-      <c r="P322" s="82"/>
-      <c r="Q322" s="82"/>
-      <c r="R322" s="82"/>
-      <c r="S322" s="82"/>
-      <c r="T322" s="82"/>
-      <c r="U322" s="82"/>
-      <c r="V322" s="82"/>
-      <c r="W322" s="82"/>
-      <c r="X322" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+      <c r="K322" s="4"/>
+      <c r="L322" s="4"/>
+      <c r="M322" s="4"/>
+      <c r="N322" s="4"/>
+      <c r="O322" s="4"/>
+      <c r="P322" s="4"/>
+      <c r="Q322" s="4"/>
+      <c r="R322" s="4"/>
+      <c r="S322" s="4"/>
+      <c r="T322" s="4"/>
+      <c r="U322" s="4"/>
+      <c r="V322" s="4"/>
+      <c r="W322" s="4"/>
+      <c r="X322" s="4"/>
       <c r="Y322" s="16"/>
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
-      <c r="B323" s="33"/>
-      <c r="C323" s="73">
-        <f>INT($C$31)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
-      <c r="G323" s="4"/>
-      <c r="H323" s="4"/>
-      <c r="I323" s="4"/>
-      <c r="J323" s="4"/>
-      <c r="K323" s="4"/>
-      <c r="L323" s="4"/>
-      <c r="M323" s="4"/>
-      <c r="N323" s="4"/>
-      <c r="O323" s="4"/>
-      <c r="P323" s="4"/>
-      <c r="Q323" s="4"/>
-      <c r="R323" s="4"/>
-      <c r="S323" s="4"/>
-      <c r="T323" s="4"/>
-      <c r="U323" s="4"/>
-      <c r="V323" s="4"/>
-      <c r="W323" s="4"/>
-      <c r="X323" s="4"/>
-      <c r="Y323" s="16"/>
+      <c r="B323" s="35"/>
+      <c r="C323" s="76">
+        <f>INT($C$31)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D323" s="17"/>
+      <c r="E323" s="17"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+      <c r="N323" s="17"/>
+      <c r="O323" s="17"/>
+      <c r="P323" s="17"/>
+      <c r="Q323" s="17"/>
+      <c r="R323" s="17"/>
+      <c r="S323" s="17"/>
+      <c r="T323" s="17"/>
+      <c r="U323" s="17"/>
+      <c r="V323" s="17"/>
+      <c r="W323" s="17"/>
+      <c r="X323" s="17"/>
+      <c r="Y323" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
-      <c r="B324" s="35"/>
-      <c r="C324" s="76">
-        <f>INT($C$31)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D324" s="17"/>
-      <c r="E324" s="17"/>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="17"/>
-      <c r="I324" s="17"/>
-      <c r="J324" s="17"/>
-      <c r="K324" s="17"/>
-      <c r="L324" s="17"/>
-      <c r="M324" s="17"/>
-      <c r="N324" s="17"/>
-      <c r="O324" s="17"/>
-      <c r="P324" s="17"/>
-      <c r="Q324" s="17"/>
-      <c r="R324" s="17"/>
-      <c r="S324" s="17"/>
-      <c r="T324" s="17"/>
-      <c r="U324" s="17"/>
-      <c r="V324" s="17"/>
-      <c r="W324" s="17"/>
-      <c r="X324" s="17"/>
-      <c r="Y324" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B324" s="19"/>
+      <c r="C324" s="77">
+        <f>INT($C$31)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="19"/>
+      <c r="G324" s="19"/>
+      <c r="H324" s="19"/>
+      <c r="I324" s="19"/>
+      <c r="J324" s="19"/>
+      <c r="K324" s="19"/>
+      <c r="L324" s="19"/>
+      <c r="M324" s="19"/>
+      <c r="N324" s="19"/>
+      <c r="O324" s="19"/>
+      <c r="P324" s="19"/>
+      <c r="Q324" s="19"/>
+      <c r="R324" s="19"/>
+      <c r="S324" s="19"/>
+      <c r="T324" s="19"/>
+      <c r="U324" s="19"/>
+      <c r="V324" s="19"/>
+      <c r="W324" s="19"/>
+      <c r="X324" s="19"/>
+      <c r="Y324" s="19"/>
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="77">
-        <f>INT($C$31)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D325" s="19"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="19"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="19"/>
-      <c r="K325" s="19"/>
-      <c r="L325" s="19"/>
-      <c r="M325" s="19"/>
-      <c r="N325" s="19"/>
-      <c r="O325" s="19"/>
-      <c r="P325" s="19"/>
-      <c r="Q325" s="19"/>
-      <c r="R325" s="19"/>
-      <c r="S325" s="19"/>
-      <c r="T325" s="19"/>
-      <c r="U325" s="19"/>
-      <c r="V325" s="19"/>
-      <c r="W325" s="19"/>
-      <c r="X325" s="19"/>
-      <c r="Y325" s="19"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="73">
+        <f>INT($C$31)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="S325" s="1"/>
+      <c r="T325" s="1"/>
+      <c r="U325" s="1"/>
+      <c r="V325" s="1"/>
+      <c r="W325" s="1"/>
+      <c r="X325" s="1"/>
+      <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
@@ -26649,7 +26616,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
-        <f>INT($C$31)+2</f>
+        <f>INT($C$132)+2</f>
         <v>3</v>
       </c>
       <c r="D326" s="1"/>
@@ -26678,13 +26645,10 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
-      <c r="C327" s="73">
-        <f>INT($C$132)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C327" s="66"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -26862,37 +26826,7 @@
       <c r="AB332" s="1"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="66"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
-      <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
-      <c r="P333" s="1"/>
-      <c r="Q333" s="1"/>
-      <c r="R333" s="1"/>
-      <c r="S333" s="1"/>
-      <c r="T333" s="1"/>
-      <c r="U333" s="1"/>
-      <c r="V333" s="1"/>
-      <c r="W333" s="1"/>
-      <c r="X333" s="1"/>
-      <c r="Y333" s="1"/>
-      <c r="Z333" s="1"/>
-      <c r="AA333" s="1"/>
-      <c r="AB333" s="1"/>
-    </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C334" s="72" t="s">
+      <c r="C333" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -26917,11 +26851,11 @@
   <dimension ref="A1:AB211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J86" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
+      <selection pane="bottomRight" activeCell="S108" sqref="S108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -29222,9 +29156,15 @@
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="156"/>
+      <c r="K64" s="156" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="M64" s="156" t="s">
+        <v>210</v>
+      </c>
       <c r="N64" s="156" t="s">
         <v>97</v>
       </c>
@@ -29264,12 +29204,18 @@
       <c r="G65" s="3"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29" t="s">
+      <c r="J65" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="156"/>
+      <c r="K65" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="L65" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="M65" s="156" t="s">
+        <v>204</v>
+      </c>
       <c r="N65" s="156" t="s">
         <v>369</v>
       </c>
@@ -29493,9 +29439,15 @@
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="K71" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" s="31" t="b">
+        <v>1</v>
+      </c>
       <c r="N71" s="31" t="b">
         <v>0</v>
       </c>
@@ -29582,15 +29534,15 @@
         <v>267</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="211">
+      <c r="J73" s="211">
         <v>43600</v>
       </c>
+      <c r="K73" s="211"/>
       <c r="L73" s="211"/>
       <c r="M73" s="211"/>
       <c r="N73" s="211"/>
       <c r="O73" s="203">
-        <f>$K73+91+126/2</f>
+        <f>$J73+91+126/2</f>
         <v>43754</v>
       </c>
       <c r="P73" s="203">
@@ -29598,11 +29550,11 @@
         <v>43785.5</v>
       </c>
       <c r="Q73" s="203">
-        <f>$K73-150+129</f>
+        <f>$J73-150+129</f>
         <v>43579</v>
       </c>
       <c r="R73" s="203">
-        <f>$K73-150+35</f>
+        <f>$J73-150+35</f>
         <v>43485</v>
       </c>
       <c r="S73" s="204">
@@ -29643,27 +29595,27 @@
         <v>268</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="211">
+      <c r="J74" s="211">
         <v>43634</v>
       </c>
+      <c r="K74" s="211"/>
       <c r="L74" s="211"/>
       <c r="M74" s="211"/>
       <c r="N74" s="211"/>
       <c r="O74" s="203">
-        <f t="shared" ref="O74:O75" si="5">$K74+91+126/2</f>
+        <f>$J74+91+126/2</f>
         <v>43788</v>
       </c>
       <c r="P74" s="203">
-        <f t="shared" ref="P74:P75" si="6">O74+126/4</f>
+        <f t="shared" ref="P74:P75" si="5">O74+126/4</f>
         <v>43819.5</v>
       </c>
       <c r="Q74" s="203">
-        <f>$K74-150+129</f>
+        <f>$J74-150+129</f>
         <v>43613</v>
       </c>
       <c r="R74" s="203">
-        <f t="shared" ref="R74:R75" si="7">$K74-150+35</f>
+        <f>$J74-150+35</f>
         <v>43519</v>
       </c>
       <c r="S74" s="204">
@@ -29704,27 +29656,27 @@
         <v>269</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="211">
+      <c r="J75" s="211">
         <v>43669</v>
       </c>
+      <c r="K75" s="211"/>
       <c r="L75" s="211"/>
       <c r="M75" s="211"/>
       <c r="N75" s="211"/>
       <c r="O75" s="203">
+        <f>$J75+91+126/2</f>
+        <v>43823</v>
+      </c>
+      <c r="P75" s="203">
         <f t="shared" si="5"/>
-        <v>43823</v>
-      </c>
-      <c r="P75" s="203">
-        <f t="shared" si="6"/>
         <v>43854.5</v>
       </c>
       <c r="Q75" s="203">
-        <f>$K75-150+129</f>
+        <f>$J75-150+129</f>
         <v>43648</v>
       </c>
       <c r="R75" s="203">
-        <f t="shared" si="7"/>
+        <f>$J75-150+35</f>
         <v>43554</v>
       </c>
       <c r="S75" s="204">
@@ -30031,11 +29983,11 @@
         <v>13</v>
       </c>
       <c r="Q82" s="204">
-        <f t="shared" ref="Q82:Q84" si="8">MIN(364,INT((N82 - DATE(YEAR(N82),1,1))))</f>
+        <f t="shared" ref="Q82:Q84" si="6">MIN(364,INT((N82 - DATE(YEAR(N82),1,1))))</f>
         <v>134</v>
       </c>
       <c r="R82" s="204">
-        <f t="shared" ref="R82:R84" si="9">MIN(364,INT((O82 - DATE(YEAR(O82),1,1))))</f>
+        <f t="shared" ref="R82:R84" si="7">MIN(364,INT((O82 - DATE(YEAR(O82),1,1))))</f>
         <v>255</v>
       </c>
       <c r="S82" s="2"/>
@@ -30078,11 +30030,11 @@
         <v>43</v>
       </c>
       <c r="Q83" s="204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="R83" s="204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>285</v>
       </c>
       <c r="S83" s="2"/>
@@ -30125,11 +30077,11 @@
         <v>74</v>
       </c>
       <c r="Q84" s="204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="R84" s="204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>316</v>
       </c>
       <c r="S84" s="2"/>
@@ -31067,7 +31019,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="109">
-        <f>COUNTIF(i_fixed_fvp_mask_dams,TRUE)+COUNTIF(i_fvp_mask_dams,TRUE)</f>
+        <f>COUNTIF(i_fvp_mask_dams,TRUE)</f>
         <v>3</v>
       </c>
       <c r="N110" s="2"/>
@@ -31459,7 +31411,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
-        <f t="shared" ref="C119:C122" si="10">INT(C$96+3)</f>
+        <f t="shared" ref="C119:C122" si="8">INT(C$96+3)</f>
         <v>4</v>
       </c>
       <c r="D119" s="4"/>
@@ -31508,7 +31460,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D120" s="4"/>
@@ -31557,7 +31509,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D121" s="4"/>
@@ -31606,7 +31558,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D122" s="4"/>
@@ -31823,7 +31775,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="73">
-        <f t="shared" ref="C127:C130" si="11">INT($C$96)+3</f>
+        <f t="shared" ref="C127:C130" si="9">INT($C$96)+3</f>
         <v>4</v>
       </c>
       <c r="D127" s="4"/>
@@ -31884,7 +31836,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D128" s="4"/>
@@ -31937,7 +31889,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D129" s="4"/>
@@ -31990,7 +31942,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D130" s="4"/>
@@ -33156,7 +33108,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
-        <f t="shared" ref="C162:C172" si="12">INT(C$140+3)</f>
+        <f t="shared" ref="C162:C172" si="10">INT(C$140+3)</f>
         <v>4</v>
       </c>
       <c r="D162" s="4"/>
@@ -33195,7 +33147,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D163" s="4"/>
@@ -33234,7 +33186,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D164" s="4"/>
@@ -33273,7 +33225,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D165" s="4"/>
@@ -33312,7 +33264,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D166" s="4"/>
@@ -33351,7 +33303,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D167" s="4"/>
@@ -33390,7 +33342,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D168" s="4"/>
@@ -33429,7 +33381,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D169" s="4"/>
@@ -33468,7 +33420,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D170" s="4"/>
@@ -33507,7 +33459,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D171" s="4"/>
@@ -33546,7 +33498,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D172" s="4"/>

--- a/ExcelInputs/Structural.xlsx
+++ b/ExcelInputs/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Dropbox\Michael\Work-Uni-Coding\Models\AFO\ExcelInputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\ExcelInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B49BF-3401-4328-9C8B-9FB87D5169DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839ABBC5-9908-4D9A-8776-F762C98D5054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7275" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="678" activeTab="2" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="1785" yWindow="315" windowWidth="25140" windowHeight="15075" tabRatio="678" activeTab="3" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -143,6 +143,7 @@
     <definedName name="i_store_mort" localSheetId="3">'Report Settings'!$S$18</definedName>
     <definedName name="i_store_nv_rep">'Report Settings'!$O$18</definedName>
     <definedName name="i_store_on_hand_mort" localSheetId="3">'Report Settings'!$Q$18</definedName>
+    <definedName name="i_store_wbe_rep">'Report Settings'!$G$23</definedName>
     <definedName name="i_transfer_exists_tg1">Stock!$K$119:$N$121</definedName>
     <definedName name="i_use_pkl_condensed_start_condition" localSheetId="2">StructuralSA!$M$153</definedName>
     <definedName name="i_w_pos">Stock!$I$56</definedName>
@@ -188,12 +189,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1303,6 +1301,31 @@
           </rPr>
           <t xml:space="preserve">
 The user fvp dates can change for different regions because of varaition in TOL. This can be done using SAV[user_fvp_date_dams_yiu]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N64" authorId="2" shapeId="0" xr:uid="{E228FB7B-EA78-4E3B-A785-A4046F1622BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Weaning is an core FVP that is optional
+i.e. it is not a user defined FVP.</t>
         </r>
       </text>
     </comment>
@@ -2448,7 +2471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="407">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3645,21 +3668,6 @@
     <t>TOL</t>
   </si>
   <si>
-    <t>FVP3 / U0</t>
-  </si>
-  <si>
-    <t>FVP4 / U1</t>
-  </si>
-  <si>
-    <t>FVP5 / U2</t>
-  </si>
-  <si>
-    <t>FVP6 / U3</t>
-  </si>
-  <si>
-    <t>FVP7 / U4</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -3740,7 +3748,47 @@
     <t>evg</t>
   </si>
   <si>
-    <t>29May24: Add REV[ebg] dictionary
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Steady State Model?</t>
+  </si>
+  <si>
+    <t>include nodes</t>
+  </si>
+  <si>
+    <t>Season sequence len</t>
+  </si>
+  <si>
+    <t>Season Structure</t>
+  </si>
+  <si>
+    <t>Sowing</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Multi-period model?</t>
+  </si>
+  <si>
+    <t>FVP4 / U0</t>
+  </si>
+  <si>
+    <t>FVP5 / U1</t>
+  </si>
+  <si>
+    <t>FVP6 / U2</t>
+  </si>
+  <si>
+    <t>FVP7 / U3</t>
+  </si>
+  <si>
+    <t>FVP3</t>
+  </si>
+  <si>
+    <t>28Aug24: Improve commenting on the weaning period wrt user defined periods
+29May24: Add REV[ebg] dictionary
 23Jan24: Add extra traits for REV (15 in total counting random)
 22Jan24: Change rev_create to rev_update, and rev_trait_inc to rev_trait_scenario
 30May23: Add extra user FVP to represent the preg tox period.
@@ -3766,28 +3814,10 @@
 1: 1Apr19-Created the version control table</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>Steady State Model?</t>
-  </si>
-  <si>
-    <t>include nodes</t>
-  </si>
-  <si>
-    <t>Season sequence len</t>
-  </si>
-  <si>
-    <t>Season Structure</t>
-  </si>
-  <si>
-    <t>Sowing</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Multi-period model?</t>
+    <t>WBE</t>
+  </si>
+  <si>
+    <t>store wbe profile</t>
   </si>
 </sst>
 </file>
@@ -6087,9 +6117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6127,7 +6157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6233,7 +6263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6375,7 +6405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6396,23 +6426,23 @@
       <selection pane="bottomRight" activeCell="J85" sqref="J85:J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -6442,7 +6472,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -6475,7 +6505,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -6508,7 +6538,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -6543,7 +6573,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -6614,7 +6644,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -6652,7 +6682,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -6691,7 +6721,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -6724,7 +6754,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -6761,7 +6791,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -6796,7 +6826,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -6833,7 +6863,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -6868,7 +6898,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -6907,7 +6937,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -6946,7 +6976,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -6981,7 +7011,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -7016,7 +7046,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -7063,7 +7093,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -7100,7 +7130,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -7137,7 +7167,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -7174,7 +7204,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -7211,7 +7241,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -7246,7 +7276,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -7279,7 +7309,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -7314,7 +7344,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -7347,7 +7377,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -7380,7 +7410,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -7413,7 +7443,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -7446,7 +7476,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -7481,7 +7511,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -7514,7 +7544,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -7551,7 +7581,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -7590,7 +7620,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -7623,7 +7653,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -7656,7 +7686,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -7689,7 +7719,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -7722,7 +7752,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -7755,7 +7785,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -7790,7 +7820,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -7823,7 +7853,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -7860,7 +7890,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -7895,7 +7925,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -7936,7 +7966,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -7969,7 +7999,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -8008,7 +8038,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -8041,7 +8071,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -8084,7 +8114,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -8123,7 +8153,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -8166,7 +8196,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -8207,7 +8237,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -8240,7 +8270,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -8277,7 +8307,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -8310,7 +8340,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -8347,7 +8377,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -8380,7 +8410,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -8436,7 +8466,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -8471,7 +8501,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -8504,7 +8534,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="35"/>
       <c r="C58" s="76">
@@ -8539,7 +8569,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
       <c r="C59" s="77">
@@ -8572,7 +8602,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="73">
@@ -8605,7 +8635,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="73">
@@ -8638,7 +8668,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:46" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:46" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="20"/>
       <c r="C62" s="74">
@@ -8671,7 +8701,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="34" t="s">
         <v>21</v>
@@ -8706,7 +8736,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -8739,7 +8769,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -8776,7 +8806,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -8815,7 +8845,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -8848,7 +8878,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -8881,7 +8911,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -8914,7 +8944,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -8947,7 +8977,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -8980,7 +9010,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33" t="s">
         <v>20</v>
@@ -9015,7 +9045,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -9048,7 +9078,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33" t="s">
         <v>19</v>
@@ -9085,7 +9115,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -9120,7 +9150,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -9157,7 +9187,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -9190,7 +9220,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -9206,7 +9236,7 @@
         <v>309</v>
       </c>
       <c r="J78" s="161" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="161" t="s">
@@ -9237,7 +9267,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -9285,7 +9315,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73"/>
@@ -9328,7 +9358,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73"/>
@@ -9371,7 +9401,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -9414,7 +9444,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -9457,7 +9487,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -9500,7 +9530,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -9543,7 +9573,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73"/>
@@ -9553,7 +9583,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="148"/>
       <c r="I86" s="163" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J86" s="163" t="b">
         <v>0</v>
@@ -9586,7 +9616,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73"/>
@@ -9629,7 +9659,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73"/>
@@ -9672,7 +9702,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73"/>
@@ -9715,7 +9745,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="73"/>
@@ -9758,7 +9788,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73"/>
@@ -9781,7 +9811,7 @@
       <c r="N91" s="165"/>
       <c r="O91" s="165"/>
       <c r="P91" s="163" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q91" s="163" t="b">
         <v>0</v>
@@ -9801,7 +9831,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="73"/>
@@ -9842,7 +9872,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73"/>
@@ -9883,7 +9913,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73"/>
@@ -9924,7 +9954,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73"/>
@@ -9965,7 +9995,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73"/>
@@ -10006,7 +10036,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73"/>
@@ -10043,7 +10073,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73"/>
@@ -10080,7 +10110,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73"/>
@@ -10117,7 +10147,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73"/>
@@ -10154,7 +10184,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73"/>
@@ -10191,7 +10221,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73"/>
@@ -10228,7 +10258,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73"/>
@@ -10265,7 +10295,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73"/>
@@ -10302,7 +10332,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73"/>
@@ -10339,7 +10369,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73"/>
@@ -10376,7 +10406,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73"/>
@@ -10413,7 +10443,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73"/>
@@ -10450,7 +10480,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73"/>
@@ -10487,7 +10517,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -10520,7 +10550,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -10553,7 +10583,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -10586,7 +10616,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -10619,7 +10649,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -10669,7 +10699,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -10704,7 +10734,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -10737,7 +10767,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="35"/>
       <c r="C117" s="76">
@@ -10772,7 +10802,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="19"/>
       <c r="C118" s="77">
@@ -10805,7 +10835,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="73">
@@ -10838,7 +10868,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="73">
@@ -10871,7 +10901,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="66"/>
@@ -10901,7 +10931,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="66"/>
@@ -10931,7 +10961,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="66"/>
@@ -10961,7 +10991,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="66"/>
@@ -10991,7 +11021,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="66"/>
@@ -11021,7 +11051,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="66"/>
@@ -11051,7 +11081,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C127" s="72" t="s">
         <v>4</v>
       </c>
@@ -11083,23 +11113,23 @@
       <selection pane="bottomRight" activeCell="H314" sqref="H314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -11129,7 +11159,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -11162,7 +11192,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -11195,7 +11225,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -11230,7 +11260,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -11301,7 +11331,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -11339,7 +11369,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -11378,7 +11408,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -11411,7 +11441,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -11448,7 +11478,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -11483,7 +11513,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -11520,7 +11550,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -11555,7 +11585,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -11573,7 +11603,7 @@
         <v>45049.868338773202</v>
       </c>
       <c r="J13" s="215" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K13" s="216"/>
       <c r="L13" s="216"/>
@@ -11594,7 +11624,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -11633,7 +11663,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -11668,7 +11698,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -11703,7 +11733,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -11750,7 +11780,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -11787,7 +11817,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -11824,7 +11854,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -11861,7 +11891,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -11898,7 +11928,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -11933,7 +11963,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -11966,7 +11996,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -12001,7 +12031,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -12034,7 +12064,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -12067,7 +12097,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -12100,7 +12130,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -12133,7 +12163,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -12168,7 +12198,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -12201,7 +12231,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -12238,7 +12268,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -12275,7 +12305,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -12308,7 +12338,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -12341,7 +12371,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -12374,7 +12404,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -12407,7 +12437,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -12440,7 +12470,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -12475,7 +12505,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -12508,7 +12538,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -12545,7 +12575,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -12580,7 +12610,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -12619,7 +12649,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -12656,7 +12686,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -12693,7 +12723,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -12730,7 +12760,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -12767,7 +12797,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -12804,7 +12834,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -12841,7 +12871,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -12878,7 +12908,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -12915,7 +12945,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -12952,7 +12982,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -12989,7 +13019,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -13026,7 +13056,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -13063,7 +13093,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -13100,7 +13130,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="73">
@@ -13139,7 +13169,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="73">
@@ -13176,7 +13206,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -13213,7 +13243,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -13250,7 +13280,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -13283,7 +13313,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -13320,7 +13350,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -13357,7 +13387,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -13398,7 +13428,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -13439,7 +13469,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -13472,7 +13502,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="73">
@@ -13511,7 +13541,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -13544,7 +13574,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="73">
@@ -13579,7 +13609,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -13620,7 +13650,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -13661,7 +13691,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -13694,7 +13724,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -13731,7 +13761,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -13764,7 +13794,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -13799,7 +13829,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -13832,7 +13862,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="35"/>
       <c r="C76" s="76">
@@ -13867,7 +13897,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="19"/>
       <c r="C77" s="77">
@@ -13900,7 +13930,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="73">
@@ -13933,7 +13963,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="73">
@@ -13966,7 +13996,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="20"/>
       <c r="C80" s="74">
@@ -13999,7 +14029,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="34" t="s">
         <v>21</v>
@@ -14034,7 +14064,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73">
@@ -14067,7 +14097,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73">
@@ -14104,7 +14134,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73">
@@ -14141,7 +14171,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73">
@@ -14174,7 +14204,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -14207,7 +14237,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -14240,7 +14270,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -14279,7 +14309,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="33"/>
       <c r="C89" s="73">
@@ -14328,7 +14358,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33" t="s">
         <v>20</v>
@@ -14363,7 +14393,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="73">
@@ -14396,7 +14426,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33" t="s">
         <v>19</v>
@@ -14433,7 +14463,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="73">
@@ -14468,7 +14498,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="73">
@@ -14521,7 +14551,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -14572,7 +14602,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -14623,7 +14653,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -14656,7 +14686,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -14707,7 +14737,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -14756,7 +14786,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -14805,7 +14835,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -14854,7 +14884,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -14887,7 +14917,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="73">
@@ -14938,7 +14968,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -14987,7 +15017,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="73">
@@ -15036,7 +15066,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -15085,7 +15115,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -15118,7 +15148,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -15169,7 +15199,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -15218,7 +15248,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -15267,7 +15297,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -15316,7 +15346,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -15349,7 +15379,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -15384,7 +15414,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -15425,7 +15455,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="73">
@@ -15473,7 +15503,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="73">
@@ -15519,7 +15549,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="73">
@@ -15562,7 +15592,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="73">
@@ -15595,7 +15625,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="73">
@@ -15642,7 +15672,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="73">
@@ -15687,7 +15717,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="73">
@@ -15730,7 +15760,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="73">
@@ -15763,7 +15793,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="73">
@@ -15798,7 +15828,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="73">
@@ -15831,7 +15861,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="35"/>
       <c r="C125" s="76">
@@ -15866,7 +15896,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="19"/>
       <c r="C126" s="77">
@@ -15899,7 +15929,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="73">
@@ -15932,7 +15962,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -15965,7 +15995,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="20"/>
       <c r="C129" s="74">
@@ -15998,7 +16028,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="34" t="s">
         <v>21</v>
@@ -16033,7 +16063,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="73">
@@ -16066,7 +16096,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="73">
@@ -16103,7 +16133,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="33"/>
       <c r="C133" s="73">
@@ -16140,7 +16170,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="33"/>
       <c r="C134" s="73">
@@ -16173,7 +16203,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="33"/>
       <c r="C135" s="73">
@@ -16206,7 +16236,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="33"/>
       <c r="C136" s="73">
@@ -16241,7 +16271,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="33"/>
       <c r="C137" s="73">
@@ -16276,7 +16306,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="33"/>
       <c r="C138" s="73">
@@ -16331,7 +16361,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33" t="s">
         <v>20</v>
@@ -16366,7 +16396,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="73">
@@ -16421,7 +16451,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33" t="s">
         <v>19</v>
@@ -16458,7 +16488,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="73">
@@ -16493,7 +16523,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="73">
@@ -16528,7 +16558,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="73">
@@ -16567,7 +16597,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="73">
@@ -16626,7 +16656,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="73">
@@ -16683,7 +16713,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33"/>
       <c r="C147" s="73">
@@ -16720,7 +16750,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="73">
@@ -16777,7 +16807,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33"/>
       <c r="C149" s="73">
@@ -16834,7 +16864,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="73">
@@ -16891,7 +16921,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="73">
@@ -16948,7 +16978,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="73">
@@ -17005,7 +17035,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="73">
@@ -17062,7 +17092,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="73">
@@ -17119,7 +17149,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="73">
@@ -17176,7 +17206,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="73">
@@ -17239,7 +17269,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="73">
@@ -17272,7 +17302,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="73">
@@ -17332,7 +17362,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="73">
@@ -17367,7 +17397,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="73">
@@ -17418,7 +17448,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="73">
@@ -17481,7 +17511,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="73">
@@ -17542,7 +17572,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="73">
@@ -17601,7 +17631,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="73">
@@ -17660,7 +17690,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="73">
@@ -17719,7 +17749,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="73">
@@ -17780,7 +17810,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="73">
@@ -17841,7 +17871,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="73">
@@ -17900,7 +17930,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="73">
@@ -17959,7 +17989,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="73">
@@ -18018,7 +18048,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="73">
@@ -18079,7 +18109,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="73">
@@ -18140,7 +18170,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="73">
@@ -18199,7 +18229,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="73">
@@ -18256,7 +18286,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="73">
@@ -18315,7 +18345,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="73">
@@ -18376,7 +18406,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="73">
@@ -18437,7 +18467,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="73">
@@ -18496,7 +18526,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="73">
@@ -18555,7 +18585,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="73">
@@ -18614,7 +18644,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="73">
@@ -18677,7 +18707,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="73">
@@ -18736,7 +18766,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="73">
@@ -18795,7 +18825,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="73">
@@ -18852,7 +18882,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="73">
@@ -18909,7 +18939,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="73">
@@ -18968,7 +18998,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="73">
@@ -19025,7 +19055,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="73">
@@ -19082,7 +19112,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="73">
@@ -19139,7 +19169,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="73">
@@ -19196,7 +19226,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="73">
@@ -19255,7 +19285,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="73">
@@ -19312,7 +19342,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="73">
@@ -19369,7 +19399,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="73">
@@ -19426,7 +19456,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="73">
@@ -19483,7 +19513,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="73">
@@ -19542,7 +19572,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="73">
@@ -19599,7 +19629,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="73">
@@ -19656,7 +19686,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="73">
@@ -19713,7 +19743,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="73">
@@ -19770,7 +19800,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="73">
@@ -19803,7 +19833,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="73">
@@ -19863,7 +19893,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="73">
@@ -19931,7 +19961,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="73">
@@ -19999,7 +20029,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="73">
@@ -20034,7 +20064,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="73">
@@ -20085,7 +20115,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="73">
@@ -20157,7 +20187,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="73">
@@ -20230,7 +20260,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="73">
@@ -20297,7 +20327,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="73">
@@ -20366,7 +20396,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="73">
@@ -20435,7 +20465,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="73">
@@ -20506,7 +20536,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="73">
@@ -20577,7 +20607,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="73">
@@ -20644,7 +20674,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="73">
@@ -20711,7 +20741,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="73">
@@ -20778,7 +20808,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="73">
@@ -20847,7 +20877,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="73">
@@ -20916,7 +20946,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="73">
@@ -20983,7 +21013,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="73">
@@ -21050,7 +21080,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="73">
@@ -21117,7 +21147,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="73">
@@ -21186,7 +21216,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="73">
@@ -21255,7 +21285,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="73">
@@ -21322,7 +21352,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="73">
@@ -21389,7 +21419,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="73">
@@ -21456,7 +21486,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="73">
@@ -21526,7 +21556,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="73">
@@ -21593,7 +21623,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="73">
@@ -21656,7 +21686,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="73">
@@ -21719,7 +21749,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="73">
@@ -21786,7 +21816,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="73">
@@ -21855,7 +21885,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="73">
@@ -21922,7 +21952,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="73">
@@ -21989,7 +22019,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="73">
@@ -22056,7 +22086,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="73">
@@ -22123,7 +22153,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="73">
@@ -22192,7 +22222,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="73">
@@ -22259,7 +22289,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="73">
@@ -22326,7 +22356,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="73">
@@ -22393,7 +22423,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="73">
@@ -22460,7 +22490,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="73">
@@ -22529,7 +22559,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="73">
@@ -22596,7 +22626,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="73">
@@ -22663,7 +22693,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="73">
@@ -22730,7 +22760,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="73">
@@ -22797,7 +22827,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="73">
@@ -22868,7 +22898,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="73">
@@ -22937,7 +22967,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="73">
@@ -23004,7 +23034,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="73">
@@ -23071,7 +23101,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="73">
@@ -23138,7 +23168,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="73">
@@ -23207,7 +23237,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="73">
@@ -23274,7 +23304,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="73">
@@ -23341,7 +23371,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="73">
@@ -23408,7 +23438,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="73">
@@ -23475,7 +23505,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="73">
@@ -23534,7 +23564,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="73">
@@ -23596,7 +23626,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="73">
@@ -23657,7 +23687,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="73">
@@ -23717,7 +23747,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="73">
@@ -23784,7 +23814,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="73">
@@ -23849,7 +23879,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="73">
@@ -23911,7 +23941,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="73">
@@ -23971,7 +24001,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="73">
@@ -24028,7 +24058,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="73">
@@ -24095,7 +24125,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="73">
@@ -24128,7 +24158,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="73">
@@ -24184,7 +24214,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="73">
@@ -24237,7 +24267,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="73">
@@ -24290,7 +24320,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="73">
@@ -24325,7 +24355,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="73">
@@ -24375,7 +24405,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="73">
@@ -24433,7 +24463,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="73">
@@ -24491,7 +24521,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="73">
@@ -24544,7 +24574,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="73">
@@ -24596,7 +24626,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="73">
@@ -24651,7 +24681,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="73">
@@ -24705,7 +24735,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="73">
@@ -24759,7 +24789,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="73">
@@ -24809,7 +24839,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="73">
@@ -24859,7 +24889,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="73">
@@ -24912,7 +24942,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="73">
@@ -24966,7 +24996,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="73">
@@ -25020,7 +25050,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="73">
@@ -25070,7 +25100,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="73">
@@ -25120,7 +25150,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="73">
@@ -25173,7 +25203,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="73">
@@ -25225,7 +25255,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="73">
@@ -25277,7 +25307,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="73">
@@ -25326,7 +25356,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="73">
@@ -25373,7 +25403,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="73">
@@ -25426,7 +25456,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="73">
@@ -25459,7 +25489,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="73">
@@ -25492,7 +25522,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="35"/>
       <c r="C295" s="76">
@@ -25527,7 +25557,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="19"/>
       <c r="C296" s="77">
@@ -25560,7 +25590,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="20"/>
       <c r="C297" s="74">
@@ -25593,7 +25623,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="34" t="s">
         <v>21</v>
@@ -25628,7 +25658,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="73">
@@ -25661,7 +25691,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="73">
@@ -25698,7 +25728,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="73">
@@ -25735,7 +25765,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="33"/>
       <c r="C302" s="73">
@@ -25768,7 +25798,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="33"/>
       <c r="C303" s="73">
@@ -25801,7 +25831,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="33"/>
       <c r="C304" s="73">
@@ -25846,7 +25876,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="33"/>
       <c r="C305" s="73">
@@ -25885,7 +25915,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="33"/>
       <c r="C306" s="73">
@@ -25924,7 +25954,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="33" t="s">
         <v>20</v>
@@ -25973,7 +26003,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="73">
@@ -26006,7 +26036,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33" t="s">
         <v>19</v>
@@ -26043,7 +26073,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="73">
@@ -26078,7 +26108,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="73">
@@ -26113,7 +26143,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="73">
@@ -26154,7 +26184,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="73">
@@ -26195,7 +26225,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="73">
@@ -26228,7 +26258,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="73">
@@ -26261,7 +26291,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33"/>
       <c r="C316" s="73">
@@ -26300,7 +26330,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="73">
@@ -26344,7 +26374,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33"/>
       <c r="C318" s="73">
@@ -26377,7 +26407,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="73">
@@ -26410,7 +26440,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="73">
@@ -26443,7 +26473,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="73">
@@ -26478,7 +26508,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="73">
@@ -26511,7 +26541,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="35"/>
       <c r="C323" s="76">
@@ -26546,7 +26576,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="19"/>
       <c r="C324" s="77">
@@ -26579,7 +26609,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="73">
@@ -26612,7 +26642,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="73">
@@ -26645,7 +26675,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="66"/>
@@ -26675,7 +26705,7 @@
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="66"/>
@@ -26705,7 +26735,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="66"/>
@@ -26735,7 +26765,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="66"/>
@@ -26765,7 +26795,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="66"/>
@@ -26795,7 +26825,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="66"/>
@@ -26825,7 +26855,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C333" s="72" t="s">
         <v>4</v>
       </c>
@@ -26850,36 +26880,36 @@
   </sheetPr>
   <dimension ref="A1:AB211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" ySplit="10" topLeftCell="J86" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="10" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="J6" sqref="J6"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="S108" sqref="S108"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -26909,7 +26939,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -26942,7 +26972,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -26975,7 +27005,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -27010,7 +27040,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -27081,7 +27111,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -27119,7 +27149,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -27158,7 +27188,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -27191,7 +27221,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -27228,7 +27258,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33" t="s">
         <v>20</v>
@@ -27263,7 +27293,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>19</v>
@@ -27300,7 +27330,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -27335,7 +27365,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33"/>
       <c r="C13" s="67">
@@ -27350,10 +27380,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="126">
-        <v>45441.560548148103</v>
+        <v>45532.412615856498</v>
       </c>
       <c r="J13" s="215" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="K13" s="216"/>
       <c r="L13" s="216"/>
@@ -27374,7 +27404,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -27392,7 +27422,7 @@
         <v>45421.933288078697</v>
       </c>
       <c r="J14" s="218" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K14" s="219"/>
       <c r="L14" s="219"/>
@@ -27413,7 +27443,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -27448,7 +27478,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="67">
@@ -27483,7 +27513,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -27530,7 +27560,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -27567,7 +27597,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -27604,7 +27634,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -27641,7 +27671,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -27678,7 +27708,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -27713,7 +27743,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -27746,7 +27776,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="35"/>
       <c r="C24" s="70">
@@ -27781,7 +27811,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="71">
@@ -27814,7 +27844,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="67">
@@ -27847,7 +27877,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="73">
@@ -27880,7 +27910,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
       <c r="C28" s="74">
@@ -27913,7 +27943,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="34" t="s">
         <v>21</v>
@@ -27948,7 +27978,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="73">
@@ -27981,7 +28011,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="73">
@@ -28018,7 +28048,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="73">
@@ -28055,7 +28085,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="73">
@@ -28088,7 +28118,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="73">
@@ -28121,7 +28151,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="73">
@@ -28154,7 +28184,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="73">
@@ -28187,7 +28217,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="73">
@@ -28200,20 +28230,20 @@
       <c r="G37" s="3"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
       <c r="M37" s="29" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -28226,7 +28256,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33" t="s">
         <v>20</v>
@@ -28261,7 +28291,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -28294,7 +28324,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33" t="s">
         <v>19</v>
@@ -28331,7 +28361,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -28366,7 +28396,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -28378,7 +28408,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="36" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I42" s="212" t="b">
         <v>1</v>
@@ -28386,7 +28416,7 @@
       <c r="J42" s="96"/>
       <c r="K42" s="96"/>
       <c r="L42" s="26" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M42" s="213" t="b">
         <v>1</v>
@@ -28395,7 +28425,7 @@
       <c r="O42" s="96"/>
       <c r="P42" s="96"/>
       <c r="Q42" s="26" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="R42" s="204">
         <v>1</v>
@@ -28411,7 +28441,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -28427,7 +28457,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="26" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M43" s="213" t="b">
         <v>0</v>
@@ -28436,7 +28466,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="R43" s="204">
         <v>4</v>
@@ -28452,7 +28482,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -28468,7 +28498,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="26" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M44" s="214">
         <v>1</v>
@@ -28489,7 +28519,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -28505,7 +28535,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="26" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M45" s="213" t="b">
         <v>0</v>
@@ -28526,7 +28556,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -28559,7 +28589,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33"/>
       <c r="C47" s="73">
@@ -28592,7 +28622,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -28625,7 +28655,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33"/>
       <c r="C49" s="73">
@@ -28658,7 +28688,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -28693,7 +28723,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -28726,7 +28756,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="35"/>
       <c r="C52" s="76">
@@ -28761,7 +28791,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
       <c r="C53" s="77">
@@ -28794,7 +28824,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="73">
@@ -28827,7 +28857,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="73">
@@ -28860,7 +28890,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="20"/>
       <c r="C56" s="74">
@@ -28893,7 +28923,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="34" t="s">
         <v>21</v>
@@ -28928,7 +28958,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="73">
@@ -28961,7 +28991,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="73">
@@ -28998,7 +29028,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="73">
@@ -29035,7 +29065,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="73">
@@ -29068,7 +29098,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="73">
@@ -29101,7 +29131,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="73">
@@ -29142,7 +29172,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="73">
@@ -29191,7 +29221,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="73">
@@ -29217,19 +29247,19 @@
         <v>204</v>
       </c>
       <c r="N65" s="156" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="O65" s="156" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="P65" s="156" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="Q65" s="156" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="R65" s="156" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
@@ -29242,7 +29272,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33" t="s">
         <v>20</v>
@@ -29283,7 +29313,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" ht="13" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="12.95" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="73">
@@ -29316,7 +29346,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="8.5" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="8.4499999999999993" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33" t="s">
         <v>19</v>
@@ -29353,7 +29383,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="73">
@@ -29388,7 +29418,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="73">
@@ -29423,7 +29453,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="73">
@@ -29474,7 +29504,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="73">
@@ -29519,7 +29549,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="73">
@@ -29580,7 +29610,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="73">
@@ -29641,7 +29671,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="73">
@@ -29702,7 +29732,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="73">
@@ -29735,7 +29765,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="73">
@@ -29768,7 +29798,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="73">
@@ -29815,7 +29845,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="73">
@@ -29860,7 +29890,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="73">
@@ -29907,7 +29937,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="73">
@@ -29954,7 +29984,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="73"/>
@@ -30001,7 +30031,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="73"/>
@@ -30048,7 +30078,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="33"/>
       <c r="C84" s="73"/>
@@ -30095,7 +30125,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="33"/>
       <c r="C85" s="73"/>
@@ -30125,7 +30155,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="33"/>
       <c r="C86" s="73">
@@ -30158,7 +30188,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="33"/>
       <c r="C87" s="73">
@@ -30193,7 +30223,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="33"/>
       <c r="C88" s="73">
@@ -30226,7 +30256,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="35"/>
       <c r="C89" s="76">
@@ -30261,7 +30291,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="19"/>
       <c r="C90" s="77">
@@ -30294,7 +30324,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="73">
@@ -30327,7 +30357,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="73">
@@ -30360,7 +30390,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="20"/>
       <c r="C93" s="74">
@@ -30393,7 +30423,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="34" t="s">
         <v>21</v>
@@ -30428,7 +30458,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="73">
@@ -30461,7 +30491,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="73">
@@ -30498,7 +30528,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="73">
@@ -30535,7 +30565,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33"/>
       <c r="C98" s="73">
@@ -30568,7 +30598,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="73">
@@ -30601,7 +30631,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33"/>
       <c r="C100" s="73">
@@ -30640,7 +30670,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="73">
@@ -30679,7 +30709,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="73">
@@ -30722,7 +30752,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" ht="9.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33" t="s">
         <v>20</v>
@@ -30763,7 +30793,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="73">
@@ -30796,7 +30826,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33" t="s">
         <v>19</v>
@@ -30833,7 +30863,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="73">
@@ -30868,7 +30898,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="73">
@@ -30915,7 +30945,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="73">
@@ -30957,7 +30987,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="73">
@@ -30998,7 +31028,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" ht="14.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" ht="14.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="73">
@@ -31041,7 +31071,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="73">
@@ -31082,7 +31112,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="73">
@@ -31117,7 +31147,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="73">
@@ -31152,7 +31182,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="73">
@@ -31205,7 +31235,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDesce